--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="160">
   <si>
     <t>Doi</t>
   </si>
@@ -632,6 +632,163 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1, Bonardelli%S.%coreGivesNoEmail%1, Calza%S.%coreGivesNoEmail%1, Casiraghi%A.%coreGivesNoEmail%1, Castelli%F.%coreGivesNoEmail%1, Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1, Domenicucci%M.%coreGivesNoEmail%1, Fontanella%M. M.%coreGivesNoEmail%1, Gheza%F.%coreGivesNoEmail%1, Lussardi%G. L.%coreGivesNoEmail%1, Maroldi%R.%coreGivesNoEmail%1, Milano%G.%coreGivesNoEmail%1, Panciani%P. P.%coreGivesNoEmail%1, Portolani%N.%coreGivesNoEmail%1, Rasulo%F. A.%coreGivesNoEmail%1, Saraceno%G.%coreGivesNoEmail%1, Signorini%L.%coreGivesNoEmail%1, Vecchiarelli%L.%coreGivesNoEmail%1, Vezzoli%M.%coreGivesNoEmail%1, Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
+Methods
+id="Par2"&gt;We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
+ Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
+ We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
+Results
+id="Par3"&gt;The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
+ All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
+ Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
+ Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
+ Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
+ There were no deaths or serious neonatal asphyxia events.
+ All neonatal SARS-CoV-2 nucleic acid tests were negative.
+ No medical staff were infected throughout the patient care period.
+Conclusions
+id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
+ Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,   Yuan%Zhang%NULL%1,   Lei%Huang%NULL%0,   Bi-heng%Cheng%NULL%1,   Zhong-yuan%Xia%NULL%1,   Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An outbreak of novel coronavirus pneumonia occurred worldwide since December 2019, which had been named COVID-19 subsequently.
+ It is extremely transmissive that infection in pregnant women were unavoidable.
+ The delivery process will produce large amount of contaminated media, leaving a challenge for medical personnel to ensure both the safety of the mother and infant and good self-protection.
+ Only rare cases of pregnant women with COVID-19 are available for reference.
+ Here, we report a 30-year-old woman had reverse transcription polymerase chain reaction-confirmed COVID-19 at 36 weeks 2 days of gestation.
+ Significant low and high variability of fetal heart rate baseline and severe variable decelerations were repeated after admission.
+ An emergency cesarean section at 37 weeks 1 day of gestation under combined spinal and epidural anesthesia was performed with strict protection for all personnel.
+ Anesthesia and operation went uneventfully.
+ None of the participants were infected.
+ We can conclude that when confronted with cesarean section in parturient with COVID-19, careful planning and detailed preparation can improve the safety of the mother and infant and reduce the risk of infection for medical staff to help preventing and controlling the epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,   Long%Wang%NULL%1,   Gang%Wu%NULL%1,   Xiaoming%Lei%NULL%1,   Wei%Li%NULL%0,   Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The concerns of the highly contagious and morbid nature of Coronavirus Disease-2019 (COVID-2019) have prompted healthcare workers to implement strict droplet and contact isolation precautions.
+ Unfortunately, some patients who may be or presumptively or confirmed as infected with COVID-2019 may also require emergent surgical procedures.
+ As such, given the high-risk for exposure of many healthcare workers involved the complex requirements for appropriate isolation must be adhered to.
+Case presentation
+id="Par2"&gt;We present our experience with a 77-year-old who required emergency cardiac surgery for a presumed acute aortic syndrome in the setting of a presumed, and eventually confirmed, COVID-2019 infection.
+ We outline the necessary steps to maintain strict isolation precautions to limit potential exposure to the surgical Team.
+Conclusions
+id="Par3"&gt;We hereby provide our algorithm for emergent surgical procedures in critically-ill patients with presumptive or confirmed infection with COVID-2019. The insights from this case report can potentially be templated to other facilities in order to uphold high standards of infection prevention and patient safety in surgery during the current COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,   Matthew%Libby%mnlibby@gmail.com%1,   Michael%Ochs%Michael.Ochs@usap.com%1,   Jennifer%Hanna%hannaj21@hotmail.com%1,   Julie E.%Mangino%Jemangino1@gmail.com%1,   Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
+Methods
+We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
+ Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
+ We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
+Results
+id="Par3"&gt;The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
+ All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
+ Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
+ Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
+ Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
+ There were no deaths or serious neonatal asphyxia events.
+ All neonatal SARS-CoV-2 nucleic acid tests were negative.
+ No medical staff were infected throughout the patient care period.
+Conclusions
+id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
+ Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,    Yuan%Zhang%NULL%1,    Lei%Huang%NULL%0,    Bi-heng%Cheng%NULL%1,    Zhong-yuan%Xia%NULL%1,    Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The concerns of the highly contagious and morbid nature of Coronavirus Disease-2019 (COVID-2019) have prompted healthcare workers to implement strict droplet and contact isolation precautions.
+ Unfortunately, some patients who may be or presumptively or confirmed as infected with COVID-2019 may also require emergent surgical procedures.
+ As such, given the high-risk for exposure of many healthcare workers involved the complex requirements for appropriate isolation must be adhered to.
+Case presentation
+We present our experience with a 77-year-old who required emergency cardiac surgery for a presumed acute aortic syndrome in the setting of a presumed, and eventually confirmed, COVID-2019 infection.
+ We outline the necessary steps to maintain strict isolation precautions to limit potential exposure to the surgical Team.
+Conclusions
+id="Par3"&gt;We hereby provide our algorithm for emergent surgical procedures in critically-ill patients with presumptive or confirmed infection with COVID-2019. The insights from this case report can potentially be templated to other facilities in order to uphold high standards of infection prevention and patient safety in surgery during the current COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,    Matthew%Libby%mnlibby@gmail.com%1,    Michael%Ochs%Michael.Ochs@usap.com%1,    Jennifer%Hanna%hannaj21@hotmail.com%1,    Julie E.%Mangino%Jemangino1@gmail.com%1,    Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
+Methods
+We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
+ Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
+ We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
+Results
+The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
+ All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
+ Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
+ Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
+ Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
+ There were no deaths or serious neonatal asphyxia events.
+ All neonatal SARS-CoV-2 nucleic acid tests were negative.
+ No medical staff were infected throughout the patient care period.
+Conclusions
+id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
+ Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,     Yuan%Zhang%NULL%1,     Lei%Huang%NULL%1,     Bi-heng%Cheng%NULL%1,     Zhong-yuan%Xia%NULL%1,     Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The concerns of the highly contagious and morbid nature of Coronavirus Disease-2019 (COVID-2019) have prompted healthcare workers to implement strict droplet and contact isolation precautions.
+ Unfortunately, some patients who may be or presumptively or confirmed as infected with COVID-2019 may also require emergent surgical procedures.
+ As such, given the high-risk for exposure of many healthcare workers involved the complex requirements for appropriate isolation must be adhered to.
+Case presentation
+We present our experience with a 77-year-old who required emergency cardiac surgery for a presumed acute aortic syndrome in the setting of a presumed, and eventually confirmed, COVID-2019 infection.
+ We outline the necessary steps to maintain strict isolation precautions to limit potential exposure to the surgical Team.
+Conclusions
+We hereby provide our algorithm for emergent surgical procedures in critically-ill patients with presumptive or confirmed infection with COVID-2019. The insights from this case report can potentially be templated to other facilities in order to uphold high standards of infection prevention and patient safety in surgery during the current COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,     Matthew%Libby%mnlibby@gmail.com%1,     Michael%Ochs%Michael.Ochs@usap.com%1,     Jennifer%Hanna%hannaj21@hotmail.com%1,     Julie E.%Mangino%Jemangino1@gmail.com%1,     Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
+Methods
+We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
+ Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
+ We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
+Results
+The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
+ All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
+ Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
+ Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
+ Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
+ There were no deaths or serious neonatal asphyxia events.
+ All neonatal SARS-CoV-2 nucleic acid tests were negative.
+ No medical staff were infected throughout the patient care period.
+Conclusions
+Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
+ Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,      Yuan%Zhang%NULL%1,      Lei%Huang%NULL%1,      Bi-heng%Cheng%NULL%1,      Zhong-yuan%Xia%NULL%1,      Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1198,10 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1093,10 +1250,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1145,10 +1302,10 @@
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="144">
   <si>
     <t>Doi</t>
   </si>
@@ -632,163 +632,6 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1, Bonardelli%S.%coreGivesNoEmail%1, Calza%S.%coreGivesNoEmail%1, Casiraghi%A.%coreGivesNoEmail%1, Castelli%F.%coreGivesNoEmail%1, Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1, Domenicucci%M.%coreGivesNoEmail%1, Fontanella%M. M.%coreGivesNoEmail%1, Gheza%F.%coreGivesNoEmail%1, Lussardi%G. L.%coreGivesNoEmail%1, Maroldi%R.%coreGivesNoEmail%1, Milano%G.%coreGivesNoEmail%1, Panciani%P. P.%coreGivesNoEmail%1, Portolani%N.%coreGivesNoEmail%1, Rasulo%F. A.%coreGivesNoEmail%1, Saraceno%G.%coreGivesNoEmail%1, Signorini%L.%coreGivesNoEmail%1, Vecchiarelli%L.%coreGivesNoEmail%1, Vezzoli%M.%coreGivesNoEmail%1, Zanin%L.%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
-Methods
-id="Par2"&gt;We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
- Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
- We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
-Results
-id="Par3"&gt;The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
- All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
- Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
- Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
- Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
- There were no deaths or serious neonatal asphyxia events.
- All neonatal SARS-CoV-2 nucleic acid tests were negative.
- No medical staff were infected throughout the patient care period.
-Conclusions
-id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
- Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Rong%Chen%NULL%0,   Yuan%Zhang%NULL%1,   Lei%Huang%NULL%0,   Bi-heng%Cheng%NULL%1,   Zhong-yuan%Xia%NULL%1,   Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An outbreak of novel coronavirus pneumonia occurred worldwide since December 2019, which had been named COVID-19 subsequently.
- It is extremely transmissive that infection in pregnant women were unavoidable.
- The delivery process will produce large amount of contaminated media, leaving a challenge for medical personnel to ensure both the safety of the mother and infant and good self-protection.
- Only rare cases of pregnant women with COVID-19 are available for reference.
- Here, we report a 30-year-old woman had reverse transcription polymerase chain reaction-confirmed COVID-19 at 36 weeks 2 days of gestation.
- Significant low and high variability of fetal heart rate baseline and severe variable decelerations were repeated after admission.
- An emergency cesarean section at 37 weeks 1 day of gestation under combined spinal and epidural anesthesia was performed with strict protection for all personnel.
- Anesthesia and operation went uneventfully.
- None of the participants were infected.
- We can conclude that when confronted with cesarean section in parturient with COVID-19, careful planning and detailed preparation can improve the safety of the mother and infant and reduce the risk of infection for medical staff to help preventing and controlling the epidemic.
-</t>
-  </si>
-  <si>
-    <t>[Yin%Du%NULL%1,   Long%Wang%NULL%1,   Gang%Wu%NULL%1,   Xiaoming%Lei%NULL%1,   Wei%Li%NULL%0,   Jianrui%Lv%lvjianrui@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The concerns of the highly contagious and morbid nature of Coronavirus Disease-2019 (COVID-2019) have prompted healthcare workers to implement strict droplet and contact isolation precautions.
- Unfortunately, some patients who may be or presumptively or confirmed as infected with COVID-2019 may also require emergent surgical procedures.
- As such, given the high-risk for exposure of many healthcare workers involved the complex requirements for appropriate isolation must be adhered to.
-Case presentation
-id="Par2"&gt;We present our experience with a 77-year-old who required emergency cardiac surgery for a presumed acute aortic syndrome in the setting of a presumed, and eventually confirmed, COVID-2019 infection.
- We outline the necessary steps to maintain strict isolation precautions to limit potential exposure to the surgical Team.
-Conclusions
-id="Par3"&gt;We hereby provide our algorithm for emergent surgical procedures in critically-ill patients with presumptive or confirmed infection with COVID-2019. The insights from this case report can potentially be templated to other facilities in order to uphold high standards of infection prevention and patient safety in surgery during the current COVID-19 pandemic.
-</t>
-  </si>
-  <si>
-    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,   Matthew%Libby%mnlibby@gmail.com%1,   Michael%Ochs%Michael.Ochs@usap.com%1,   Jennifer%Hanna%hannaj21@hotmail.com%1,   Julie E.%Mangino%Jemangino1@gmail.com%1,   Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
-Methods
-We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
- Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
- We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
-Results
-id="Par3"&gt;The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
- All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
- Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
- Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
- Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
- There were no deaths or serious neonatal asphyxia events.
- All neonatal SARS-CoV-2 nucleic acid tests were negative.
- No medical staff were infected throughout the patient care period.
-Conclusions
-id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
- Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Rong%Chen%NULL%0,    Yuan%Zhang%NULL%1,    Lei%Huang%NULL%0,    Bi-heng%Cheng%NULL%1,    Zhong-yuan%Xia%NULL%1,    Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The concerns of the highly contagious and morbid nature of Coronavirus Disease-2019 (COVID-2019) have prompted healthcare workers to implement strict droplet and contact isolation precautions.
- Unfortunately, some patients who may be or presumptively or confirmed as infected with COVID-2019 may also require emergent surgical procedures.
- As such, given the high-risk for exposure of many healthcare workers involved the complex requirements for appropriate isolation must be adhered to.
-Case presentation
-We present our experience with a 77-year-old who required emergency cardiac surgery for a presumed acute aortic syndrome in the setting of a presumed, and eventually confirmed, COVID-2019 infection.
- We outline the necessary steps to maintain strict isolation precautions to limit potential exposure to the surgical Team.
-Conclusions
-id="Par3"&gt;We hereby provide our algorithm for emergent surgical procedures in critically-ill patients with presumptive or confirmed infection with COVID-2019. The insights from this case report can potentially be templated to other facilities in order to uphold high standards of infection prevention and patient safety in surgery during the current COVID-19 pandemic.
-</t>
-  </si>
-  <si>
-    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,    Matthew%Libby%mnlibby@gmail.com%1,    Michael%Ochs%Michael.Ochs@usap.com%1,    Jennifer%Hanna%hannaj21@hotmail.com%1,    Julie E.%Mangino%Jemangino1@gmail.com%1,    Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
-Methods
-We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
- Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
- We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
-Results
-The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
- All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
- Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
- Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
- Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
- There were no deaths or serious neonatal asphyxia events.
- All neonatal SARS-CoV-2 nucleic acid tests were negative.
- No medical staff were infected throughout the patient care period.
-Conclusions
-id="Par4"&gt;Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
- Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Rong%Chen%NULL%0,     Yuan%Zhang%NULL%1,     Lei%Huang%NULL%1,     Bi-heng%Cheng%NULL%1,     Zhong-yuan%Xia%NULL%1,     Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The concerns of the highly contagious and morbid nature of Coronavirus Disease-2019 (COVID-2019) have prompted healthcare workers to implement strict droplet and contact isolation precautions.
- Unfortunately, some patients who may be or presumptively or confirmed as infected with COVID-2019 may also require emergent surgical procedures.
- As such, given the high-risk for exposure of many healthcare workers involved the complex requirements for appropriate isolation must be adhered to.
-Case presentation
-We present our experience with a 77-year-old who required emergency cardiac surgery for a presumed acute aortic syndrome in the setting of a presumed, and eventually confirmed, COVID-2019 infection.
- We outline the necessary steps to maintain strict isolation precautions to limit potential exposure to the surgical Team.
-Conclusions
-We hereby provide our algorithm for emergent surgical procedures in critically-ill patients with presumptive or confirmed infection with COVID-2019. The insights from this case report can potentially be templated to other facilities in order to uphold high standards of infection prevention and patient safety in surgery during the current COVID-19 pandemic.
-</t>
-  </si>
-  <si>
-    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,     Matthew%Libby%mnlibby@gmail.com%1,     Michael%Ochs%Michael.Ochs@usap.com%1,     Jennifer%Hanna%hannaj21@hotmail.com%1,     Julie E.%Mangino%Jemangino1@gmail.com%1,     Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
-Methods
-We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
- Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
- We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
-Results
-The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
- All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
- Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
- Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
- Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
- There were no deaths or serious neonatal asphyxia events.
- All neonatal SARS-CoV-2 nucleic acid tests were negative.
- No medical staff were infected throughout the patient care period.
-Conclusions
-Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
- Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Rong%Chen%NULL%0,      Yuan%Zhang%NULL%1,      Lei%Huang%NULL%1,      Bi-heng%Cheng%NULL%1,      Zhong-yuan%Xia%NULL%1,      Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1198,10 +1041,10 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1250,10 +1093,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1302,10 +1145,10 @@
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="167">
   <si>
     <t>Doi</t>
   </si>
@@ -632,6 +632,75 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1, Bonardelli%S.%coreGivesNoEmail%1, Calza%S.%coreGivesNoEmail%1, Casiraghi%A.%coreGivesNoEmail%1, Castelli%F.%coreGivesNoEmail%1, Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1, Domenicucci%M.%coreGivesNoEmail%1, Fontanella%M. M.%coreGivesNoEmail%1, Gheza%F.%coreGivesNoEmail%1, Lussardi%G. L.%coreGivesNoEmail%1, Maroldi%R.%coreGivesNoEmail%1, Milano%G.%coreGivesNoEmail%1, Panciani%P. P.%coreGivesNoEmail%1, Portolani%N.%coreGivesNoEmail%1, Rasulo%F. A.%coreGivesNoEmail%1, Saraceno%G.%coreGivesNoEmail%1, Signorini%L.%coreGivesNoEmail%1, Vecchiarelli%L.%coreGivesNoEmail%1, Vezzoli%M.%coreGivesNoEmail%1, Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,   Tania%Paredes%NULL%2,   Tania%Paredes%NULL%0,   David%Caceres%NULL%1,   Camille M.%Webb%NULL%1,   Luis M.%Valdez%NULL%1,   Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,   Andrea%Coscione%NULL%1,   Riccardo%D’Ambrosi%NULL%1,   Luca%Usai%NULL%1,   Claudio%Roscitano%NULL%1,   Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,   Yuan%Zhang%NULL%0,   Lei%Huang%NULL%0,   Bi-heng%Cheng%NULL%0,   Zhong-yuan%Xia%NULL%0,   Qing-tao%Meng%mengqingtao2018@126.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,   Long%Wang%NULL%1,   Gang%Wu%NULL%1,   Xiaoming%Lei%NULL%1,   Wei%Li%NULL%0,   Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,   L%Frigerio%NULL%1,   V%Savasi%NULL%1,   P%Vergani%NULL%1,   F%Prefumo%NULL%1,   S%Barresi%NULL%2,   S%Barresi%NULL%0,   S%Bianchi%NULL%1,   E%Ciriello%NULL%1,   F%Facchinetti%NULL%1,   MT%Gervasi%NULL%1,   E%Iurlaro%NULL%1,   A%Kustermann%NULL%1,   G%Mangili%NULL%1,   F%Mosca%NULL%1,   L%Patanè%NULL%1,   D%Spazzini%NULL%1,   A%Spinillo%NULL%1,   G%Trojano%NULL%1,   M%Vignali%NULL%1,   A%Villa%NULL%1,   GV%Zuccotti%NULL%1,   F%Parazzini%Fabio.parazzini@unimi.it%1,   I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,   Matthew%Libby%mnlibby@gmail.com%1,   Michael%Ochs%Michael.Ochs@usap.com%1,   Jennifer%Hanna%hannaj21@hotmail.com%1,   Julie E.%Mangino%Jemangino1@gmail.com%1,   Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,   Hongqing%Xi%NULL%1,   Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,   Shuai%Zhao%NULL%2,   Linlin%Han%NULL%1,   Qi%Wang%NULL%0,   Haifa%Xia%NULL%1,   Xin%Huang%NULL%1,   Shanglong%Yao%NULL%2,   Jiapeng%Huang%NULL%2,   Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,   Jihyang%Lee%NULL%2,   Jihyang%Lee%NULL%0,   Eunju%Kim%NULL%2,   Eunju%Kim%NULL%0,   Kyeongyoon%Woo%NULL%2,   Kyeongyoon%Woo%NULL%0,   Hak Youle%Park%NULL%2,   Hak Youle%Park%NULL%0,   Jihyun%An%NULL%2,   Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,   Ruihong%Zhao%NULL%2,   Shufa%Zheng%NULL%1,   Xu%Chen%NULL%0,   Jinxi%Wang%NULL%1,   Xiaoli%Sheng%NULL%1,   Jianying%Zhou%NULL%1,   Hongliu%Cai%NULL%1,   Qiang%Fang%NULL%1,   Fei%Yu%NULL%1,   Jian%Fan%NULL%1,   Kaijin%Xu%NULL%0,   Yu%Chen%NULL%0,   Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,   Lin%Sang%NULL%1,   Shihua%Du%NULL%1,   Tao%Li%NULL%0,   Yange%Chang%NULL%1,   Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,   Abdulrahman%Odeh%NULL%1,   Simon%Ereidge%NULL%1,   Hosni Khairy%Salem%NULL%1,   Gareth P%Jones%NULL%1,   Anne%Gardner%NULL%1,   Shiva S%Tripathi%NULL%1,   Anne%Gregg%NULL%1,   Reuben%Jeganathan%NULL%1,   Muhammad Harris%Siddique%NULL%1,   Celestino P%Lombardi%NULL%1,   Benjamin%Martin%NULL%1,   Cosimo Alex%Leo%NULL%1,   Debashis%Dass%NULL%1,   Gregorio%Di Franco%NULL%1,   Long R%Jiao%NULL%1,   Giulio Maria%Mari%NULL%1,   Luis-Cristobal%Capitan-Morales%NULL%1,   Tara M%Connelly%NULL%1,   Ammar%Alanbuki%NULL%1,   Armando%De Virgilio%NULL%1,   Clare%Schilling%NULL%1,   Carlos%San Miguel Mendez%NULL%1,   Gauri%Kulkarni%NULL%1,   Kulsoom%Nizami%NULL%1,   Stewart%Walsh%NULL%1,   Harry%Dean%NULL%1,   Miguel%Ruiz-Marin%NULL%1,   Rory%Houston%NULL%1,   Mario%Trompetto%NULL%1,   David%Chrastek%NULL%1,   Vasileios%Kouritas%NULL%1,   Maria%Cannoletta%NULL%1,   Francesco%Rosato%NULL%1,   Manish V%Kaushal%NULL%1,   Paulo Matos%Costa%NULL%1,   Hannah H%Elkadi%NULL%1,   Jack R%Johnstone%NULL%1,   Esmee%Irvine%NULL%1,   Maria R%Alvarez%NULL%1,   Carlo%Corbellini%NULL%1,   Gowtham S%Venkatesan%NULL%1,   Olga%Mateo-Sierra%NULL%1,   Carolina%Martínez-Pérez%NULL%1,   Javier%Serrano González%NULL%1,   Miguel Õngel%Hernández Bartolomé%NULL%1,   David%Díaz Pérez%NULL%1,   María%Gutiérrez Samaniego%NULL%1,   Pablo%Galindo Jara%NULL%1,   Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,   Guoting%Xu%NULL%1,   Yong%Yang%NULL%1,   Yuan%Tao%NULL%1,   May%Pian-Smith%NULL%1,   Vandana%Madhavan%NULL%1,   Zhongcong%Xie%zxie@mgh.harvard.edu%1,   Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,   Zhiqiang%Zhou%NULL%1,   Jianping%Zhang%NULL%1,   Fengfeng%Zhu%NULL%1,   Yongyan%Tang%NULL%1,   Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,   Shuai%Zhao%NULL%0,   Zhouyang%Wu%NULL%1,   Huilin%Luo%NULL%1,   Cheng%Zhou%NULL%1,   Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,   Xue-Jie%Yu%NULL%1,   Tao%Fu%NULL%1,   Yu%Liu%NULL%2,   Yu%Liu%NULL%0,   Yan%Jiang%NULL%0,   Bing Xiang%Yang%NULL%1,   Yongyi%Bi%NULL%2,   Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,   Ken%Ling%NULL%1,   Hong%Yan%NULL%1,   Liang%Zhong%NULL%1,   Xiaohong%Peng%NULL%1,   Shanglong%Yao%NULL%0,   Jiapeng%Huang%NULL%0,   Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,   Yin Y.%Liu%NULL%1,   Qiong%Luo%NULL%1,   Yu F.%Zou%NULL%1,   Hai X.%Jiang%NULL%1,   Hui%Li%NULL%0,   Jing J.%Zhang%NULL%1,   Zhen%Li%NULL%1,   Xin%Yang%NULL%1,   Min%Ma%NULL%1,   Li J.%Tang%NULL%1,   Ying Y.%Chen%chenyingy@whu.edu.cn%1,   Feng%Zheng%fengzheng@whu.edu.cn%1,   Jian J.%Ke%1219628972@qq.com%1,   Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,  Bonardelli%S.%coreGivesNoEmail%1,  Calza%S.%coreGivesNoEmail%1,  Casiraghi%A.%coreGivesNoEmail%1,  Castelli%F.%coreGivesNoEmail%1,  Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,  Domenicucci%M.%coreGivesNoEmail%1,  Fontanella%M. M.%coreGivesNoEmail%1,  Gheza%F.%coreGivesNoEmail%1,  Lussardi%G. L.%coreGivesNoEmail%1,  Maroldi%R.%coreGivesNoEmail%1,  Milano%G.%coreGivesNoEmail%1,  Panciani%P. P.%coreGivesNoEmail%1,  Portolani%N.%coreGivesNoEmail%1,  Rasulo%F. A.%coreGivesNoEmail%1,  Saraceno%G.%coreGivesNoEmail%1,  Signorini%L.%coreGivesNoEmail%1,  Vecchiarelli%L.%coreGivesNoEmail%1,  Vezzoli%M.%coreGivesNoEmail%1,  Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -977,6 +1046,9 @@
       <c r="H1" t="s">
         <v>38</v>
       </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -992,7 +1064,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -1002,6 +1074,9 @@
       </c>
       <c r="H2" t="s">
         <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -1018,7 +1093,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -1028,6 +1103,9 @@
       </c>
       <c r="H3" t="s">
         <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -1044,7 +1122,7 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1054,6 +1132,9 @@
       </c>
       <c r="H4" t="s">
         <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5">
@@ -1081,6 +1162,9 @@
       <c r="H5" t="s">
         <v>49</v>
       </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -1096,7 +1180,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1106,6 +1190,9 @@
       </c>
       <c r="H6" t="s">
         <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7">
@@ -1122,7 +1209,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -1132,6 +1219,9 @@
       </c>
       <c r="H7" t="s">
         <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -1148,7 +1238,7 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -1158,6 +1248,9 @@
       </c>
       <c r="H8" t="s">
         <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9">
@@ -1172,7 +1265,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -1182,6 +1275,9 @@
       </c>
       <c r="H9" t="s">
         <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10">
@@ -1201,13 +1297,16 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
         <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -1224,7 +1323,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -1234,6 +1333,9 @@
       </c>
       <c r="H11" t="s">
         <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12">
@@ -1250,7 +1352,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1260,6 +1362,9 @@
       </c>
       <c r="H12" t="s">
         <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -1276,7 +1381,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -1286,6 +1391,9 @@
       </c>
       <c r="H13" t="s">
         <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -1302,7 +1410,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1312,6 +1420,9 @@
       </c>
       <c r="H14" t="s">
         <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -1339,6 +1450,9 @@
       <c r="H15" t="s">
         <v>49</v>
       </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
@@ -1365,6 +1479,9 @@
       <c r="H16" t="s">
         <v>49</v>
       </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -1380,7 +1497,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -1390,6 +1507,9 @@
       </c>
       <c r="H17" t="s">
         <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -1417,6 +1537,9 @@
       <c r="H18" t="s">
         <v>49</v>
       </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -1432,7 +1555,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -1442,6 +1565,9 @@
       </c>
       <c r="H19" t="s">
         <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="20">
@@ -1458,7 +1584,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -1468,6 +1594,9 @@
       </c>
       <c r="H20" t="s">
         <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21">
@@ -1484,7 +1613,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -1494,6 +1623,9 @@
       </c>
       <c r="H21" t="s">
         <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -1521,6 +1653,9 @@
       <c r="H22" t="s">
         <v>49</v>
       </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -1536,7 +1671,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -1546,6 +1681,9 @@
       </c>
       <c r="H23" t="s">
         <v>111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24">
@@ -1562,7 +1700,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -1572,6 +1710,9 @@
       </c>
       <c r="H24" t="s">
         <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25">
@@ -1588,7 +1729,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -1598,6 +1739,9 @@
       </c>
       <c r="H25" t="s">
         <v>120</v>
+      </c>
+      <c r="I25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26">
@@ -1625,6 +1769,9 @@
       <c r="H26" t="s">
         <v>49</v>
       </c>
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -1640,16 +1787,19 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
         <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="243">
   <si>
     <t>Doi</t>
   </si>
@@ -701,6 +701,234 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,  Bonardelli%S.%coreGivesNoEmail%1,  Calza%S.%coreGivesNoEmail%1,  Casiraghi%A.%coreGivesNoEmail%1,  Castelli%F.%coreGivesNoEmail%1,  Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,  Domenicucci%M.%coreGivesNoEmail%1,  Fontanella%M. M.%coreGivesNoEmail%1,  Gheza%F.%coreGivesNoEmail%1,  Lussardi%G. L.%coreGivesNoEmail%1,  Maroldi%R.%coreGivesNoEmail%1,  Milano%G.%coreGivesNoEmail%1,  Panciani%P. P.%coreGivesNoEmail%1,  Portolani%N.%coreGivesNoEmail%1,  Rasulo%F. A.%coreGivesNoEmail%1,  Saraceno%G.%coreGivesNoEmail%1,  Signorini%L.%coreGivesNoEmail%1,  Vecchiarelli%L.%coreGivesNoEmail%1,  Vezzoli%M.%coreGivesNoEmail%1,  Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,    Tania%Paredes%NULL%2,    Tania%Paredes%NULL%0,    David%Caceres%NULL%1,    Camille M.%Webb%NULL%1,    Luis M.%Valdez%NULL%1,    Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,    Andrea%Coscione%NULL%1,    Riccardo%D’Ambrosi%NULL%1,    Luca%Usai%NULL%1,    Claudio%Roscitano%NULL%1,    Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,    Yuan%Zhang%NULL%0,    Lei%Huang%NULL%0,    Bi-heng%Cheng%NULL%0,    Zhong-yuan%Xia%NULL%0,    Qing-tao%Meng%mengqingtao2018@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,    Long%Wang%NULL%1,    Gang%Wu%NULL%1,    Xiaoming%Lei%NULL%1,    Wei%Li%NULL%0,    Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,    L%Frigerio%NULL%1,    V%Savasi%NULL%1,    P%Vergani%NULL%1,    F%Prefumo%NULL%1,    S%Barresi%NULL%2,    S%Barresi%NULL%0,    S%Bianchi%NULL%1,    E%Ciriello%NULL%1,    F%Facchinetti%NULL%1,    MT%Gervasi%NULL%1,    E%Iurlaro%NULL%1,    A%Kustermann%NULL%1,    G%Mangili%NULL%1,    F%Mosca%NULL%1,    L%Patanè%NULL%1,    D%Spazzini%NULL%1,    A%Spinillo%NULL%1,    G%Trojano%NULL%1,    M%Vignali%NULL%1,    A%Villa%NULL%1,    GV%Zuccotti%NULL%1,    F%Parazzini%Fabio.parazzini@unimi.it%1,    I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,    Matthew%Libby%mnlibby@gmail.com%1,    Michael%Ochs%Michael.Ochs@usap.com%1,    Jennifer%Hanna%hannaj21@hotmail.com%1,    Julie E.%Mangino%Jemangino1@gmail.com%1,    Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,    Hongqing%Xi%NULL%1,    Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,    Shuai%Zhao%NULL%2,    Linlin%Han%NULL%1,    Qi%Wang%NULL%0,    Haifa%Xia%NULL%1,    Xin%Huang%NULL%1,    Shanglong%Yao%NULL%2,    Jiapeng%Huang%NULL%2,    Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,    Jihyang%Lee%NULL%2,    Jihyang%Lee%NULL%0,    Eunju%Kim%NULL%2,    Eunju%Kim%NULL%0,    Kyeongyoon%Woo%NULL%2,    Kyeongyoon%Woo%NULL%0,    Hak Youle%Park%NULL%2,    Hak Youle%Park%NULL%0,    Jihyun%An%NULL%2,    Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,    Ruihong%Zhao%NULL%2,    Shufa%Zheng%NULL%1,    Xu%Chen%NULL%0,    Jinxi%Wang%NULL%1,    Xiaoli%Sheng%NULL%1,    Jianying%Zhou%NULL%1,    Hongliu%Cai%NULL%1,    Qiang%Fang%NULL%1,    Fei%Yu%NULL%1,    Jian%Fan%NULL%1,    Kaijin%Xu%NULL%0,    Yu%Chen%NULL%0,    Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,    Lin%Sang%NULL%1,    Shihua%Du%NULL%1,    Tao%Li%NULL%0,    Yange%Chang%NULL%1,    Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,    Abdulrahman%Odeh%NULL%1,    Simon%Ereidge%NULL%1,    Hosni Khairy%Salem%NULL%1,    Gareth P%Jones%NULL%1,    Anne%Gardner%NULL%1,    Shiva S%Tripathi%NULL%1,    Anne%Gregg%NULL%1,    Reuben%Jeganathan%NULL%1,    Muhammad Harris%Siddique%NULL%1,    Celestino P%Lombardi%NULL%1,    Benjamin%Martin%NULL%1,    Cosimo Alex%Leo%NULL%1,    Debashis%Dass%NULL%1,    Gregorio%Di Franco%NULL%1,    Long R%Jiao%NULL%1,    Giulio Maria%Mari%NULL%1,    Luis-Cristobal%Capitan-Morales%NULL%1,    Tara M%Connelly%NULL%1,    Ammar%Alanbuki%NULL%1,    Armando%De Virgilio%NULL%1,    Clare%Schilling%NULL%1,    Carlos%San Miguel Mendez%NULL%1,    Gauri%Kulkarni%NULL%1,    Kulsoom%Nizami%NULL%1,    Stewart%Walsh%NULL%1,    Harry%Dean%NULL%1,    Miguel%Ruiz-Marin%NULL%1,    Rory%Houston%NULL%1,    Mario%Trompetto%NULL%1,    David%Chrastek%NULL%1,    Vasileios%Kouritas%NULL%1,    Maria%Cannoletta%NULL%1,    Francesco%Rosato%NULL%1,    Manish V%Kaushal%NULL%1,    Paulo Matos%Costa%NULL%1,    Hannah H%Elkadi%NULL%1,    Jack R%Johnstone%NULL%1,    Esmee%Irvine%NULL%1,    Maria R%Alvarez%NULL%1,    Carlo%Corbellini%NULL%1,    Gowtham S%Venkatesan%NULL%1,    Olga%Mateo-Sierra%NULL%1,    Carolina%Martínez-Pérez%NULL%1,    Javier%Serrano González%NULL%1,    Miguel Õngel%Hernández Bartolomé%NULL%1,    David%Díaz Pérez%NULL%1,    María%Gutiérrez Samaniego%NULL%1,    Pablo%Galindo Jara%NULL%1,    Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,    Guoting%Xu%NULL%1,    Yong%Yang%NULL%1,    Yuan%Tao%NULL%1,    May%Pian-Smith%NULL%1,    Vandana%Madhavan%NULL%1,    Zhongcong%Xie%zxie@mgh.harvard.edu%1,    Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,    Zhiqiang%Zhou%NULL%1,    Jianping%Zhang%NULL%1,    Fengfeng%Zhu%NULL%1,    Yongyan%Tang%NULL%1,    Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,    Shuai%Zhao%NULL%0,    Zhouyang%Wu%NULL%1,    Huilin%Luo%NULL%1,    Cheng%Zhou%NULL%1,    Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,    Xue-Jie%Yu%NULL%1,    Tao%Fu%NULL%1,    Yu%Liu%NULL%2,    Yu%Liu%NULL%0,    Yan%Jiang%NULL%0,    Bing Xiang%Yang%NULL%1,    Yongyi%Bi%NULL%2,    Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,    Ken%Ling%NULL%1,    Hong%Yan%NULL%1,    Liang%Zhong%NULL%1,    Xiaohong%Peng%NULL%1,    Shanglong%Yao%NULL%0,    Jiapeng%Huang%NULL%0,    Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,    Yin Y.%Liu%NULL%1,    Qiong%Luo%NULL%1,    Yu F.%Zou%NULL%1,    Hai X.%Jiang%NULL%1,    Hui%Li%NULL%0,    Jing J.%Zhang%NULL%1,    Zhen%Li%NULL%1,    Xin%Yang%NULL%1,    Min%Ma%NULL%1,    Li J.%Tang%NULL%1,    Ying Y.%Chen%chenyingy@whu.edu.cn%1,    Feng%Zheng%fengzheng@whu.edu.cn%1,    Jian J.%Ke%1219628972@qq.com%1,    Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,   Bonardelli%S.%coreGivesNoEmail%1,   Calza%S.%coreGivesNoEmail%1,   Casiraghi%A.%coreGivesNoEmail%1,   Castelli%F.%coreGivesNoEmail%1,   Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,   Domenicucci%M.%coreGivesNoEmail%1,   Fontanella%M. M.%coreGivesNoEmail%1,   Gheza%F.%coreGivesNoEmail%1,   Lussardi%G. L.%coreGivesNoEmail%1,   Maroldi%R.%coreGivesNoEmail%1,   Milano%G.%coreGivesNoEmail%1,   Panciani%P. P.%coreGivesNoEmail%1,   Portolani%N.%coreGivesNoEmail%1,   Rasulo%F. A.%coreGivesNoEmail%1,   Saraceno%G.%coreGivesNoEmail%1,   Signorini%L.%coreGivesNoEmail%1,   Vecchiarelli%L.%coreGivesNoEmail%1,   Vezzoli%M.%coreGivesNoEmail%1,   Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,     Tania%Paredes%NULL%2,     Tania%Paredes%NULL%0,     David%Caceres%NULL%1,     Camille M.%Webb%NULL%1,     Luis M.%Valdez%NULL%1,     Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,     Andrea%Coscione%NULL%1,     Riccardo%D’Ambrosi%NULL%1,     Luca%Usai%NULL%1,     Claudio%Roscitano%NULL%1,     Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,     Yuan%Zhang%NULL%0,     Lei%Huang%NULL%0,     Bi-heng%Cheng%NULL%0,     Zhong-yuan%Xia%NULL%0,     Qing-tao%Meng%mengqingtao2018@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,     Long%Wang%NULL%1,     Gang%Wu%NULL%1,     Xiaoming%Lei%NULL%1,     Wei%Li%NULL%0,     Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,     L%Frigerio%NULL%1,     V%Savasi%NULL%1,     P%Vergani%NULL%1,     F%Prefumo%NULL%1,     S%Barresi%NULL%2,     S%Barresi%NULL%0,     S%Bianchi%NULL%1,     E%Ciriello%NULL%1,     F%Facchinetti%NULL%1,     MT%Gervasi%NULL%1,     E%Iurlaro%NULL%1,     A%Kustermann%NULL%1,     G%Mangili%NULL%1,     F%Mosca%NULL%1,     L%Patanè%NULL%1,     D%Spazzini%NULL%1,     A%Spinillo%NULL%1,     G%Trojano%NULL%1,     M%Vignali%NULL%1,     A%Villa%NULL%1,     GV%Zuccotti%NULL%1,     F%Parazzini%Fabio.parazzini@unimi.it%1,     I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,     Matthew%Libby%mnlibby@gmail.com%1,     Michael%Ochs%Michael.Ochs@usap.com%1,     Jennifer%Hanna%hannaj21@hotmail.com%1,     Julie E.%Mangino%Jemangino1@gmail.com%1,     Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,     Hongqing%Xi%NULL%1,     Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,     Shuai%Zhao%NULL%2,     Linlin%Han%NULL%1,     Qi%Wang%NULL%0,     Haifa%Xia%NULL%1,     Xin%Huang%NULL%1,     Shanglong%Yao%NULL%2,     Jiapeng%Huang%NULL%2,     Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,     Jihyang%Lee%NULL%2,     Jihyang%Lee%NULL%0,     Eunju%Kim%NULL%2,     Eunju%Kim%NULL%0,     Kyeongyoon%Woo%NULL%2,     Kyeongyoon%Woo%NULL%0,     Hak Youle%Park%NULL%2,     Hak Youle%Park%NULL%0,     Jihyun%An%NULL%2,     Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,     Ruihong%Zhao%NULL%2,     Shufa%Zheng%NULL%1,     Xu%Chen%NULL%0,     Jinxi%Wang%NULL%1,     Xiaoli%Sheng%NULL%1,     Jianying%Zhou%NULL%1,     Hongliu%Cai%NULL%1,     Qiang%Fang%NULL%0,     Fei%Yu%NULL%1,     Jian%Fan%NULL%1,     Kaijin%Xu%NULL%1,     Yu%Chen%NULL%0,     Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,     Lin%Sang%NULL%1,     Shihua%Du%NULL%1,     Tao%Li%NULL%0,     Yange%Chang%NULL%1,     Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,     Abdulrahman%Odeh%NULL%1,     Simon%Ereidge%NULL%1,     Hosni Khairy%Salem%NULL%1,     Gareth P%Jones%NULL%1,     Anne%Gardner%NULL%1,     Shiva S%Tripathi%NULL%1,     Anne%Gregg%NULL%1,     Reuben%Jeganathan%NULL%1,     Muhammad Harris%Siddique%NULL%1,     Celestino P%Lombardi%NULL%1,     Benjamin%Martin%NULL%1,     Cosimo Alex%Leo%NULL%1,     Debashis%Dass%NULL%1,     Gregorio%Di Franco%NULL%1,     Long R%Jiao%NULL%1,     Giulio Maria%Mari%NULL%1,     Luis-Cristobal%Capitan-Morales%NULL%1,     Tara M%Connelly%NULL%1,     Ammar%Alanbuki%NULL%1,     Armando%De Virgilio%NULL%1,     Clare%Schilling%NULL%1,     Carlos%San Miguel Mendez%NULL%1,     Gauri%Kulkarni%NULL%1,     Kulsoom%Nizami%NULL%1,     Stewart%Walsh%NULL%1,     Harry%Dean%NULL%1,     Miguel%Ruiz-Marin%NULL%1,     Rory%Houston%NULL%1,     Mario%Trompetto%NULL%1,     David%Chrastek%NULL%1,     Vasileios%Kouritas%NULL%1,     Maria%Cannoletta%NULL%1,     Francesco%Rosato%NULL%1,     Manish V%Kaushal%NULL%1,     Paulo Matos%Costa%NULL%1,     Hannah H%Elkadi%NULL%1,     Jack R%Johnstone%NULL%1,     Esmee%Irvine%NULL%1,     Maria R%Alvarez%NULL%1,     Carlo%Corbellini%NULL%1,     Gowtham S%Venkatesan%NULL%1,     Olga%Mateo-Sierra%NULL%1,     Carolina%Martínez-Pérez%NULL%1,     Javier%Serrano González%NULL%1,     Miguel Õngel%Hernández Bartolomé%NULL%1,     David%Díaz Pérez%NULL%1,     María%Gutiérrez Samaniego%NULL%1,     Pablo%Galindo Jara%NULL%1,     Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,     Guoting%Xu%NULL%1,     Yong%Yang%NULL%1,     Yuan%Tao%NULL%1,     May%Pian-Smith%NULL%1,     Vandana%Madhavan%NULL%1,     Zhongcong%Xie%zxie@mgh.harvard.edu%1,     Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,     Zhiqiang%Zhou%NULL%1,     Jianping%Zhang%NULL%1,     Fengfeng%Zhu%NULL%1,     Yongyan%Tang%NULL%1,     Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,     Shuai%Zhao%NULL%0,     Zhouyang%Wu%NULL%1,     Huilin%Luo%NULL%1,     Cheng%Zhou%NULL%1,     Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,     Xue-Jie%Yu%NULL%1,     Tao%Fu%NULL%1,     Yu%Liu%NULL%2,     Yu%Liu%NULL%0,     Yan%Jiang%NULL%0,     Bing Xiang%Yang%NULL%1,     Yongyi%Bi%NULL%2,     Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,     Ken%Ling%NULL%1,     Hong%Yan%NULL%1,     Liang%Zhong%NULL%1,     Xiaohong%Peng%NULL%1,     Shanglong%Yao%NULL%0,     Jiapeng%Huang%NULL%0,     Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,     Yin Y.%Liu%NULL%1,     Qiong%Luo%NULL%1,     Yu F.%Zou%NULL%1,     Hai X.%Jiang%NULL%1,     Hui%Li%NULL%0,     Jing J.%Zhang%NULL%1,     Zhen%Li%NULL%0,     Xin%Yang%NULL%1,     Min%Ma%NULL%1,     Li J.%Tang%NULL%1,     Ying Y.%Chen%chenyingy@whu.edu.cn%1,     Feng%Zheng%fengzheng@whu.edu.cn%1,     Jian J.%Ke%1219628972@qq.com%1,     Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,    Bonardelli%S.%coreGivesNoEmail%1,    Calza%S.%coreGivesNoEmail%1,    Casiraghi%A.%coreGivesNoEmail%1,    Castelli%F.%coreGivesNoEmail%1,    Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,    Domenicucci%M.%coreGivesNoEmail%1,    Fontanella%M. M.%coreGivesNoEmail%1,    Gheza%F.%coreGivesNoEmail%1,    Lussardi%G. L.%coreGivesNoEmail%1,    Maroldi%R.%coreGivesNoEmail%1,    Milano%G.%coreGivesNoEmail%1,    Panciani%P. P.%coreGivesNoEmail%1,    Portolani%N.%coreGivesNoEmail%1,    Rasulo%F. A.%coreGivesNoEmail%1,    Saraceno%G.%coreGivesNoEmail%1,    Signorini%L.%coreGivesNoEmail%1,    Vecchiarelli%L.%coreGivesNoEmail%1,    Vezzoli%M.%coreGivesNoEmail%1,    Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,      Tania%Paredes%NULL%2,      Tania%Paredes%NULL%0,      David%Caceres%NULL%1,      Camille M.%Webb%NULL%1,      Luis M.%Valdez%NULL%1,      Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,      Andrea%Coscione%NULL%1,      Riccardo%D’Ambrosi%NULL%1,      Luca%Usai%NULL%1,      Claudio%Roscitano%NULL%1,      Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,      Yuan%Zhang%NULL%0,      Lei%Huang%NULL%0,      Bi-heng%Cheng%NULL%0,      Zhong-yuan%Xia%NULL%0,      Qing-tao%Meng%mengqingtao2018@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,      Long%Wang%NULL%1,      Gang%Wu%NULL%1,      Xiaoming%Lei%NULL%1,      Wei%Li%NULL%0,      Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,      L%Frigerio%NULL%1,      V%Savasi%NULL%1,      P%Vergani%NULL%1,      F%Prefumo%NULL%1,      S%Barresi%NULL%2,      S%Barresi%NULL%0,      S%Bianchi%NULL%1,      E%Ciriello%NULL%1,      F%Facchinetti%NULL%1,      MT%Gervasi%NULL%1,      E%Iurlaro%NULL%1,      A%Kustermann%NULL%1,      G%Mangili%NULL%1,      F%Mosca%NULL%1,      L%Patanè%NULL%1,      D%Spazzini%NULL%1,      A%Spinillo%NULL%1,      G%Trojano%NULL%1,      M%Vignali%NULL%1,      A%Villa%NULL%1,      GV%Zuccotti%NULL%1,      F%Parazzini%Fabio.parazzini@unimi.it%1,      I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,      Matthew%Libby%mnlibby@gmail.com%1,      Michael%Ochs%Michael.Ochs@usap.com%1,      Jennifer%Hanna%hannaj21@hotmail.com%1,      Julie E.%Mangino%Jemangino1@gmail.com%1,      Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,      Hongqing%Xi%NULL%1,      Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,      Shuai%Zhao%NULL%2,      Linlin%Han%NULL%1,      Qi%Wang%NULL%0,      Haifa%Xia%NULL%1,      Xin%Huang%NULL%1,      Shanglong%Yao%NULL%2,      Jiapeng%Huang%NULL%2,      Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,      Jihyang%Lee%NULL%2,      Jihyang%Lee%NULL%0,      Eunju%Kim%NULL%2,      Eunju%Kim%NULL%0,      Kyeongyoon%Woo%NULL%2,      Kyeongyoon%Woo%NULL%0,      Hak Youle%Park%NULL%2,      Hak Youle%Park%NULL%0,      Jihyun%An%NULL%2,      Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,      Ruihong%Zhao%NULL%2,      Shufa%Zheng%NULL%1,      Xu%Chen%NULL%0,      Jinxi%Wang%NULL%1,      Xiaoli%Sheng%NULL%1,      Jianying%Zhou%NULL%1,      Hongliu%Cai%NULL%1,      Qiang%Fang%NULL%0,      Fei%Yu%NULL%1,      Jian%Fan%NULL%1,      Kaijin%Xu%NULL%1,      Yu%Chen%NULL%0,      Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,      Lin%Sang%NULL%1,      Shihua%Du%NULL%1,      Tao%Li%NULL%0,      Yange%Chang%NULL%1,      Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,      Abdulrahman%Odeh%NULL%1,      Simon%Ereidge%NULL%1,      Hosni Khairy%Salem%NULL%1,      Gareth P%Jones%NULL%1,      Anne%Gardner%NULL%1,      Shiva S%Tripathi%NULL%1,      Anne%Gregg%NULL%1,      Reuben%Jeganathan%NULL%1,      Muhammad Harris%Siddique%NULL%1,      Celestino P%Lombardi%NULL%1,      Benjamin%Martin%NULL%1,      Cosimo Alex%Leo%NULL%1,      Debashis%Dass%NULL%1,      Gregorio%Di Franco%NULL%1,      Long R%Jiao%NULL%1,      Giulio Maria%Mari%NULL%1,      Luis-Cristobal%Capitan-Morales%NULL%1,      Tara M%Connelly%NULL%1,      Ammar%Alanbuki%NULL%1,      Armando%De Virgilio%NULL%1,      Clare%Schilling%NULL%1,      Carlos%San Miguel Mendez%NULL%1,      Gauri%Kulkarni%NULL%1,      Kulsoom%Nizami%NULL%1,      Stewart%Walsh%NULL%1,      Harry%Dean%NULL%1,      Miguel%Ruiz-Marin%NULL%1,      Rory%Houston%NULL%1,      Mario%Trompetto%NULL%1,      David%Chrastek%NULL%1,      Vasileios%Kouritas%NULL%1,      Maria%Cannoletta%NULL%1,      Francesco%Rosato%NULL%1,      Manish V%Kaushal%NULL%1,      Paulo Matos%Costa%NULL%1,      Hannah H%Elkadi%NULL%1,      Jack R%Johnstone%NULL%1,      Esmee%Irvine%NULL%1,      Maria R%Alvarez%NULL%1,      Carlo%Corbellini%NULL%1,      Gowtham S%Venkatesan%NULL%1,      Olga%Mateo-Sierra%NULL%1,      Carolina%Martínez-Pérez%NULL%1,      Javier%Serrano González%NULL%1,      Miguel Õngel%Hernández Bartolomé%NULL%1,      David%Díaz Pérez%NULL%1,      María%Gutiérrez Samaniego%NULL%1,      Pablo%Galindo Jara%NULL%1,      Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,      Guoting%Xu%NULL%1,      Yong%Yang%NULL%1,      Yuan%Tao%NULL%1,      May%Pian-Smith%NULL%1,      Vandana%Madhavan%NULL%1,      Zhongcong%Xie%zxie@mgh.harvard.edu%1,      Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,      Zhiqiang%Zhou%NULL%1,      Jianping%Zhang%NULL%1,      Fengfeng%Zhu%NULL%1,      Yongyan%Tang%NULL%1,      Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,      Shuai%Zhao%NULL%0,      Zhouyang%Wu%NULL%1,      Huilin%Luo%NULL%1,      Cheng%Zhou%NULL%1,      Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,      Xue-Jie%Yu%NULL%1,      Tao%Fu%NULL%1,      Yu%Liu%NULL%2,      Yu%Liu%NULL%0,      Yan%Jiang%NULL%0,      Bing Xiang%Yang%NULL%1,      Yongyi%Bi%NULL%2,      Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,      Ken%Ling%NULL%1,      Hong%Yan%NULL%1,      Liang%Zhong%NULL%1,      Xiaohong%Peng%NULL%1,      Shanglong%Yao%NULL%0,      Jiapeng%Huang%NULL%0,      Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,      Yin Y.%Liu%NULL%1,      Qiong%Luo%NULL%1,      Yu F.%Zou%NULL%1,      Hai X.%Jiang%NULL%1,      Hui%Li%NULL%0,      Jing J.%Zhang%NULL%1,      Zhen%Li%NULL%0,      Xin%Yang%NULL%1,      Min%Ma%NULL%1,      Li J.%Tang%NULL%1,      Ying Y.%Chen%chenyingy@whu.edu.cn%1,      Feng%Zheng%fengzheng@whu.edu.cn%1,      Jian J.%Ke%1219628972@qq.com%1,      Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,     Bonardelli%S.%coreGivesNoEmail%1,     Calza%S.%coreGivesNoEmail%1,     Casiraghi%A.%coreGivesNoEmail%1,     Castelli%F.%coreGivesNoEmail%1,     Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,     Domenicucci%M.%coreGivesNoEmail%1,     Fontanella%M. M.%coreGivesNoEmail%1,     Gheza%F.%coreGivesNoEmail%1,     Lussardi%G. L.%coreGivesNoEmail%1,     Maroldi%R.%coreGivesNoEmail%1,     Milano%G.%coreGivesNoEmail%1,     Panciani%P. P.%coreGivesNoEmail%1,     Portolani%N.%coreGivesNoEmail%1,     Rasulo%F. A.%coreGivesNoEmail%1,     Saraceno%G.%coreGivesNoEmail%1,     Signorini%L.%coreGivesNoEmail%1,     Vecchiarelli%L.%coreGivesNoEmail%1,     Vezzoli%M.%coreGivesNoEmail%1,     Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,       Tania%Paredes%NULL%2,       Tania%Paredes%NULL%0,       David%Caceres%NULL%1,       Camille M.%Webb%NULL%1,       Luis M.%Valdez%NULL%1,       Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,       Andrea%Coscione%NULL%1,       Riccardo%D’Ambrosi%NULL%1,       Luca%Usai%NULL%1,       Claudio%Roscitano%NULL%1,       Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,       Yuan%Zhang%NULL%0,       Lei%Huang%NULL%0,       Bi-heng%Cheng%NULL%0,       Zhong-yuan%Xia%NULL%0,       Qing-tao%Meng%mengqingtao2018@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,       Long%Wang%NULL%1,       Gang%Wu%NULL%1,       Xiaoming%Lei%NULL%1,       Wei%Li%NULL%0,       Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,       L%Frigerio%NULL%1,       V%Savasi%NULL%1,       P%Vergani%NULL%1,       F%Prefumo%NULL%1,       S%Barresi%NULL%2,       S%Barresi%NULL%0,       S%Bianchi%NULL%1,       E%Ciriello%NULL%1,       F%Facchinetti%NULL%1,       MT%Gervasi%NULL%1,       E%Iurlaro%NULL%1,       A%Kustermann%NULL%1,       G%Mangili%NULL%1,       F%Mosca%NULL%1,       L%Patanè%NULL%1,       D%Spazzini%NULL%1,       A%Spinillo%NULL%1,       G%Trojano%NULL%1,       M%Vignali%NULL%1,       A%Villa%NULL%1,       GV%Zuccotti%NULL%1,       F%Parazzini%Fabio.parazzini@unimi.it%1,       I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,       Matthew%Libby%mnlibby@gmail.com%1,       Michael%Ochs%Michael.Ochs@usap.com%1,       Jennifer%Hanna%hannaj21@hotmail.com%1,       Julie E.%Mangino%Jemangino1@gmail.com%1,       Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,       Hongqing%Xi%NULL%1,       Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,       Shuai%Zhao%NULL%2,       Linlin%Han%NULL%1,       Qi%Wang%NULL%0,       Haifa%Xia%NULL%1,       Xin%Huang%NULL%1,       Shanglong%Yao%NULL%2,       Jiapeng%Huang%NULL%2,       Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,       Jihyang%Lee%NULL%2,       Jihyang%Lee%NULL%0,       Eunju%Kim%NULL%2,       Eunju%Kim%NULL%0,       Kyeongyoon%Woo%NULL%2,       Kyeongyoon%Woo%NULL%0,       Hak Youle%Park%NULL%2,       Hak Youle%Park%NULL%0,       Jihyun%An%NULL%2,       Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,       Ruihong%Zhao%NULL%2,       Shufa%Zheng%NULL%1,       Xu%Chen%NULL%0,       Jinxi%Wang%NULL%1,       Xiaoli%Sheng%NULL%1,       Jianying%Zhou%NULL%1,       Hongliu%Cai%NULL%1,       Qiang%Fang%NULL%0,       Fei%Yu%NULL%1,       Jian%Fan%NULL%1,       Kaijin%Xu%NULL%1,       Yu%Chen%NULL%0,       Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,       Lin%Sang%NULL%1,       Shihua%Du%NULL%1,       Tao%Li%NULL%0,       Yange%Chang%NULL%1,       Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,       Abdulrahman%Odeh%NULL%1,       Simon%Ereidge%NULL%1,       Hosni Khairy%Salem%NULL%1,       Gareth P%Jones%NULL%1,       Anne%Gardner%NULL%1,       Shiva S%Tripathi%NULL%1,       Anne%Gregg%NULL%1,       Reuben%Jeganathan%NULL%1,       Muhammad Harris%Siddique%NULL%1,       Celestino P%Lombardi%NULL%1,       Benjamin%Martin%NULL%1,       Cosimo Alex%Leo%NULL%1,       Debashis%Dass%NULL%1,       Gregorio%Di Franco%NULL%1,       Long R%Jiao%NULL%1,       Giulio Maria%Mari%NULL%1,       Luis-Cristobal%Capitan-Morales%NULL%1,       Tara M%Connelly%NULL%1,       Ammar%Alanbuki%NULL%1,       Armando%De Virgilio%NULL%1,       Clare%Schilling%NULL%1,       Carlos%San Miguel Mendez%NULL%1,       Gauri%Kulkarni%NULL%1,       Kulsoom%Nizami%NULL%1,       Stewart%Walsh%NULL%1,       Harry%Dean%NULL%1,       Miguel%Ruiz-Marin%NULL%1,       Rory%Houston%NULL%1,       Mario%Trompetto%NULL%1,       David%Chrastek%NULL%1,       Vasileios%Kouritas%NULL%1,       Maria%Cannoletta%NULL%1,       Francesco%Rosato%NULL%1,       Manish V%Kaushal%NULL%1,       Paulo Matos%Costa%NULL%1,       Hannah H%Elkadi%NULL%1,       Jack R%Johnstone%NULL%1,       Esmee%Irvine%NULL%1,       Maria R%Alvarez%NULL%1,       Carlo%Corbellini%NULL%1,       Gowtham S%Venkatesan%NULL%1,       Olga%Mateo-Sierra%NULL%1,       Carolina%Martínez-Pérez%NULL%1,       Javier%Serrano González%NULL%1,       Miguel Õngel%Hernández Bartolomé%NULL%1,       David%Díaz Pérez%NULL%1,       María%Gutiérrez Samaniego%NULL%1,       Pablo%Galindo Jara%NULL%1,       Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,       Guoting%Xu%NULL%1,       Yong%Yang%NULL%1,       Yuan%Tao%NULL%1,       May%Pian-Smith%NULL%1,       Vandana%Madhavan%NULL%1,       Zhongcong%Xie%zxie@mgh.harvard.edu%1,       Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,       Zhiqiang%Zhou%NULL%1,       Jianping%Zhang%NULL%1,       Fengfeng%Zhu%NULL%1,       Yongyan%Tang%NULL%1,       Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,       Shuai%Zhao%NULL%0,       Zhouyang%Wu%NULL%1,       Huilin%Luo%NULL%1,       Cheng%Zhou%NULL%1,       Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,       Xue-Jie%Yu%NULL%1,       Tao%Fu%NULL%1,       Yu%Liu%NULL%2,       Yu%Liu%NULL%0,       Yan%Jiang%NULL%0,       Bing Xiang%Yang%NULL%1,       Yongyi%Bi%NULL%2,       Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,       Ken%Ling%NULL%1,       Hong%Yan%NULL%1,       Liang%Zhong%NULL%1,       Xiaohong%Peng%NULL%1,       Shanglong%Yao%NULL%0,       Jiapeng%Huang%NULL%0,       Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,       Yin Y.%Liu%NULL%1,       Qiong%Luo%NULL%1,       Yu F.%Zou%NULL%1,       Hai X.%Jiang%NULL%1,       Hui%Li%NULL%0,       Jing J.%Zhang%NULL%1,       Zhen%Li%NULL%0,       Xin%Yang%NULL%1,       Min%Ma%NULL%1,       Li J.%Tang%NULL%1,       Ying Y.%Chen%chenyingy@whu.edu.cn%1,       Feng%Zheng%fengzheng@whu.edu.cn%1,       Jian J.%Ke%1219628972@qq.com%1,       Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,      Bonardelli%S.%coreGivesNoEmail%1,      Calza%S.%coreGivesNoEmail%1,      Casiraghi%A.%coreGivesNoEmail%1,      Castelli%F.%coreGivesNoEmail%1,      Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,      Domenicucci%M.%coreGivesNoEmail%1,      Fontanella%M. M.%coreGivesNoEmail%1,      Gheza%F.%coreGivesNoEmail%1,      Lussardi%G. L.%coreGivesNoEmail%1,      Maroldi%R.%coreGivesNoEmail%1,      Milano%G.%coreGivesNoEmail%1,      Panciani%P. P.%coreGivesNoEmail%1,      Portolani%N.%coreGivesNoEmail%1,      Rasulo%F. A.%coreGivesNoEmail%1,      Saraceno%G.%coreGivesNoEmail%1,      Signorini%L.%coreGivesNoEmail%1,      Vecchiarelli%L.%coreGivesNoEmail%1,      Vezzoli%M.%coreGivesNoEmail%1,      Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1292,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -1093,7 +1321,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -1122,7 +1350,7 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1180,7 +1408,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1209,7 +1437,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -1238,7 +1466,7 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -1265,7 +1493,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -1323,7 +1551,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -1352,7 +1580,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1381,7 +1609,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -1410,7 +1638,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1497,7 +1725,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -1555,7 +1783,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -1584,7 +1812,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -1613,7 +1841,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -1671,7 +1899,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -1700,7 +1928,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -1729,7 +1957,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -1787,13 +2015,13 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="H27" t="s">
         <v>49</v>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="303">
   <si>
     <t>Doi</t>
   </si>
@@ -929,6 +929,192 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,      Bonardelli%S.%coreGivesNoEmail%1,      Calza%S.%coreGivesNoEmail%1,      Casiraghi%A.%coreGivesNoEmail%1,      Castelli%F.%coreGivesNoEmail%1,      Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,      Domenicucci%M.%coreGivesNoEmail%1,      Fontanella%M. M.%coreGivesNoEmail%1,      Gheza%F.%coreGivesNoEmail%1,      Lussardi%G. L.%coreGivesNoEmail%1,      Maroldi%R.%coreGivesNoEmail%1,      Milano%G.%coreGivesNoEmail%1,      Panciani%P. P.%coreGivesNoEmail%1,      Portolani%N.%coreGivesNoEmail%1,      Rasulo%F. A.%coreGivesNoEmail%1,      Saraceno%G.%coreGivesNoEmail%1,      Signorini%L.%coreGivesNoEmail%1,      Vecchiarelli%L.%coreGivesNoEmail%1,      Vezzoli%M.%coreGivesNoEmail%1,      Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,        Tania%Paredes%NULL%2,        Tania%Paredes%NULL%0,        David%Caceres%NULL%1,        Camille M.%Webb%NULL%1,        Luis M.%Valdez%NULL%1,        Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,        Andrea%Coscione%NULL%1,        Riccardo%D’Ambrosi%NULL%1,        Luca%Usai%NULL%1,        Claudio%Roscitano%NULL%1,        Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,        Yuan%Zhang%NULL%1,        Lei%Huang%NULL%0,        Bi-heng%Cheng%NULL%1,        Zhong-yuan%Xia%NULL%1,        Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>"Possible Vertical Transmission of SARS-CoV-2 From an Infected Mother to Her Newborn"</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3, Jinhua%Tian%xref no email%3, Songming%He%xref no email%3, Chuchao%Zhu%xref no email%3, Jian%Wang%xref no email%0, Chen%Liu%xref no email%3, Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,        Long%Wang%NULL%1,        Gang%Wu%NULL%1,        Xiaoming%Lei%NULL%1,        Wei%Li%NULL%0,        Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,        L%Frigerio%NULL%1,        V%Savasi%NULL%1,        P%Vergani%NULL%1,        F%Prefumo%NULL%1,        S%Barresi%NULL%2,        S%Barresi%NULL%0,        S%Bianchi%NULL%1,        E%Ciriello%NULL%1,        F%Facchinetti%NULL%1,        MT%Gervasi%NULL%1,        E%Iurlaro%NULL%1,        A%Kustermann%NULL%1,        G%Mangili%NULL%1,        F%Mosca%NULL%1,        L%Patanè%NULL%1,        D%Spazzini%NULL%1,        A%Spinillo%NULL%1,        G%Trojano%NULL%1,        M%Vignali%NULL%1,        A%Villa%NULL%1,        GV%Zuccotti%NULL%1,        F%Parazzini%Fabio.parazzini@unimi.it%1,        I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,        Matthew%Libby%mnlibby@gmail.com%1,        Michael%Ochs%Michael.Ochs@usap.com%1,        Jennifer%Hanna%hannaj21@hotmail.com%1,        Julie E.%Mangino%Jemangino1@gmail.com%1,        Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,        Hongqing%Xi%NULL%1,        Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,        Shuai%Zhao%NULL%2,        Linlin%Han%NULL%1,        Qi%Wang%NULL%1,        Haifa%Xia%NULL%1,        Xin%Huang%NULL%1,        Shanglong%Yao%NULL%2,        Jiapeng%Huang%NULL%2,        Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,        Jihyang%Lee%NULL%2,        Jihyang%Lee%NULL%0,        Eunju%Kim%NULL%2,        Eunju%Kim%NULL%0,        Kyeongyoon%Woo%NULL%2,        Kyeongyoon%Woo%NULL%0,        Hak Youle%Park%NULL%2,        Hak Youle%Park%NULL%0,        Jihyun%An%NULL%2,        Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,        Ruihong%Zhao%NULL%2,        Shufa%Zheng%NULL%1,        Xu%Chen%NULL%0,        Jinxi%Wang%NULL%1,        Xiaoli%Sheng%NULL%1,        Jianying%Zhou%NULL%1,        Hongliu%Cai%NULL%1,        Qiang%Fang%NULL%0,        Fei%Yu%NULL%1,        Jian%Fan%NULL%1,        Kaijin%Xu%NULL%1,        Yu%Chen%NULL%2,        Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,        Lin%Sang%NULL%1,        Shihua%Du%NULL%1,        Tao%Li%NULL%0,        Yange%Chang%NULL%1,        Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>"Cesarean Section in a Pregnant Woman with COVID-19: First Case in Portugal"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"We report the first cesarean delivery in a woman with COVID-19 in a level III hospital in Portugal.
+ It refers to a healthy woman with a term pregnancy that tested positive for COVID-19 on the day of labor induction.
+ Given a Bishop score &amp;lt; 4 and the prior history of a cesarean section, the team decided to perform a surgical delivery.
+ Appropriate personal protective equipment and safety circuits were employed, as described in more detail in the case report.
+ Both the mother and the newborn are well.
+ With this report we aimed to share our concerns, clinical management, maternal and neonatal outcomes, and to present our current circuits and adjustments regarding the COVID-19 pandemic in our maternity hospital.
+</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1, Rita%Valente%xref no email%1, Marta%Ros\u00e1rio%xref no email%1, Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-12-24</t>
+  </si>
+  <si>
+    <t>"Surgery During the COVID-19 Pandemic: Clinical Characteristics and Outcomes of Confirmed Patients"</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%0, Lang%Chen%xref no email%1, Adriana C.%Panayi%xref no email%0, Jing%Liu%xref no email%0, Faqi%Cao%xref no email%1, Chenchen%Yan%xref no email%1, Hang%Xue%xref no email%0, Yiqiang%Hu%xref no email%1, Liangcong%Hu%xref no email%0, Ze%Lin%xref no email%0, Xudong%Xie%xref no email%0, Ranyang%Tao%xref no email%1, Yun%Sun%xref no email%1, Wu%Zhou%xref no email%0, Yuan%Xiong%xref no email%1, Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2022-03-30</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,        Abdulrahman%Odeh%NULL%1,        Simon%Ereidge%NULL%1,        Hosni Khairy%Salem%NULL%1,        Gareth P%Jones%NULL%1,        Anne%Gardner%NULL%1,        Shiva S%Tripathi%NULL%1,        Anne%Gregg%NULL%1,        Reuben%Jeganathan%NULL%1,        Muhammad Harris%Siddique%NULL%1,        Celestino P%Lombardi%NULL%1,        Benjamin%Martin%NULL%1,        Cosimo Alex%Leo%NULL%1,        Debashis%Dass%NULL%1,        Gregorio%Di Franco%NULL%1,        Long R%Jiao%NULL%1,        Giulio Maria%Mari%NULL%1,        Luis-Cristobal%Capitan-Morales%NULL%1,        Tara M%Connelly%NULL%1,        Ammar%Alanbuki%NULL%1,        Armando%De Virgilio%NULL%1,        Clare%Schilling%NULL%1,        Carlos%San Miguel Mendez%NULL%1,        Gauri%Kulkarni%NULL%1,        Kulsoom%Nizami%NULL%1,        Stewart%Walsh%NULL%1,        Harry%Dean%NULL%1,        Miguel%Ruiz-Marin%NULL%1,        Rory%Houston%NULL%1,        Mario%Trompetto%NULL%1,        David%Chrastek%NULL%1,        Vasileios%Kouritas%NULL%1,        Maria%Cannoletta%NULL%1,        Francesco%Rosato%NULL%1,        Manish V%Kaushal%NULL%1,        Paulo Matos%Costa%NULL%1,        Hannah H%Elkadi%NULL%1,        Jack R%Johnstone%NULL%1,        Esmee%Irvine%NULL%1,        Maria R%Alvarez%NULL%1,        Carlo%Corbellini%NULL%1,        Gowtham S%Venkatesan%NULL%1,        Olga%Mateo-Sierra%NULL%1,        Carolina%Martínez-Pérez%NULL%1,        Javier%Serrano González%NULL%1,        Miguel Õngel%Hernández Bartolomé%NULL%1,        David%Díaz Pérez%NULL%1,        María%Gutiérrez Samaniego%NULL%1,        Pablo%Galindo Jara%NULL%1,        Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Anesthetic Management for Emergent Cesarean Delivery in a Parturient with Recent Diagnosis of Coronavirus Disease 2019 (COVID-19): A Case Report"</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1, Xiao%Weimin%xref no email%1, Ling%Ken%xref no email%1, Yao%Shanglong%xref no email%1, Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-18</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,        Guoting%Xu%NULL%1,        Yong%Yang%NULL%1,        Yuan%Tao%NULL%1,        May%Pian-Smith%NULL%1,        Vandana%Madhavan%NULL%1,        Zhongcong%Xie%zxie@mgh.harvard.edu%1,        Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,        Zhiqiang%Zhou%NULL%2,        Jianping%Zhang%NULL%2,        Fengfeng%Zhu%NULL%2,        Yongyan%Tang%NULL%2,        Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,        Shuai%Zhao%NULL%0,        Zhouyang%Wu%NULL%1,        Huilin%Luo%NULL%1,        Cheng%Zhou%NULL%1,        Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Antibodies in Infants Born to Mothers With COVID-19 Pneumonia"</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1, Chen%Xu%xref no email%1, Junli%Fan%xref no email%0, Yueting%Tang%xref no email%1, Qiaoling%Deng%xref no email%2, Wei%Zhang%xref no email%0, Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%2,        Xue-Jie%Yu%NULL%1,        Tao%Fu%NULL%1,        Yu%Liu%NULL%2,        Yu%Liu%NULL%0,        Yan%Jiang%NULL%1,        Bing Xiang%Yang%NULL%1,        Yongyi%Bi%NULL%2,        Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,        Ken%Ling%NULL%1,        Hong%Yan%NULL%1,        Liang%Zhong%NULL%1,        Xiaohong%Peng%NULL%1,        Shanglong%Yao%NULL%0,        Jiapeng%Huang%NULL%0,        Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,        Yin Y.%Liu%NULL%1,        Qiong%Luo%NULL%1,        Yu F.%Zou%NULL%1,        Hai X.%Jiang%NULL%1,        Hui%Li%NULL%0,        Jing J.%Zhang%NULL%1,        Zhen%Li%NULL%0,        Xin%Yang%NULL%1,        Min%Ma%NULL%1,        Li J.%Tang%NULL%1,        Ying Y.%Chen%chenyingy@whu.edu.cn%1,        Feng%Zheng%fengzheng@whu.edu.cn%1,        Jian J.%Ke%1219628972@qq.com%1,        Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,       Bonardelli%S.%coreGivesNoEmail%1,       Calza%S.%coreGivesNoEmail%1,       Casiraghi%A.%coreGivesNoEmail%1,       Castelli%F.%coreGivesNoEmail%1,       Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,       Domenicucci%M.%coreGivesNoEmail%1,       Fontanella%M. M.%coreGivesNoEmail%1,       Gheza%F.%coreGivesNoEmail%1,       Lussardi%G. L.%coreGivesNoEmail%1,       Maroldi%R.%coreGivesNoEmail%1,       Milano%G.%coreGivesNoEmail%1,       Panciani%P. P.%coreGivesNoEmail%1,       Portolani%N.%coreGivesNoEmail%1,       Rasulo%F. A.%coreGivesNoEmail%1,       Saraceno%G.%coreGivesNoEmail%1,       Signorini%L.%coreGivesNoEmail%1,       Vecchiarelli%L.%coreGivesNoEmail%1,       Vezzoli%M.%coreGivesNoEmail%1,       Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,         Tania%Paredes%NULL%2,         Tania%Paredes%NULL%0,         David%Caceres%NULL%1,         Camille M.%Webb%NULL%1,         Luis M.%Valdez%NULL%1,         Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,         Andrea%Coscione%NULL%1,         Riccardo%D’Ambrosi%NULL%1,         Luca%Usai%NULL%1,         Claudio%Roscitano%NULL%1,         Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,         Yuan%Zhang%NULL%1,         Lei%Huang%NULL%0,         Bi-heng%Cheng%NULL%1,         Zhong-yuan%Xia%NULL%1,         Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,  Jinhua%Tian%xref no email%3,  Songming%He%xref no email%3,  Chuchao%Zhu%xref no email%3,  Jian%Wang%xref no email%0,  Chen%Liu%xref no email%3,  Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,         Long%Wang%NULL%1,         Gang%Wu%NULL%1,         Xiaoming%Lei%NULL%1,         Wei%Li%NULL%0,         Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,         L%Frigerio%NULL%1,         V%Savasi%NULL%1,         P%Vergani%NULL%1,         F%Prefumo%NULL%1,         S%Barresi%NULL%2,         S%Barresi%NULL%0,         S%Bianchi%NULL%1,         E%Ciriello%NULL%1,         F%Facchinetti%NULL%1,         MT%Gervasi%NULL%1,         E%Iurlaro%NULL%1,         A%Kustermann%NULL%1,         G%Mangili%NULL%1,         F%Mosca%NULL%1,         L%Patanè%NULL%1,         D%Spazzini%NULL%1,         A%Spinillo%NULL%1,         G%Trojano%NULL%1,         M%Vignali%NULL%1,         A%Villa%NULL%1,         GV%Zuccotti%NULL%1,         F%Parazzini%Fabio.parazzini@unimi.it%1,         I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,         Matthew%Libby%mnlibby@gmail.com%1,         Michael%Ochs%Michael.Ochs@usap.com%1,         Jennifer%Hanna%hannaj21@hotmail.com%1,         Julie E.%Mangino%Jemangino1@gmail.com%1,         Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,         Hongqing%Xi%NULL%1,         Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,         Shuai%Zhao%NULL%2,         Linlin%Han%NULL%1,         Qi%Wang%NULL%1,         Haifa%Xia%NULL%1,         Xin%Huang%NULL%1,         Shanglong%Yao%NULL%2,         Jiapeng%Huang%NULL%2,         Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,         Jihyang%Lee%NULL%2,         Jihyang%Lee%NULL%0,         Eunju%Kim%NULL%2,         Eunju%Kim%NULL%0,         Kyeongyoon%Woo%NULL%2,         Kyeongyoon%Woo%NULL%0,         Hak Youle%Park%NULL%2,         Hak Youle%Park%NULL%0,         Jihyun%An%NULL%2,         Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,         Ruihong%Zhao%NULL%2,         Shufa%Zheng%NULL%1,         Xu%Chen%NULL%0,         Jinxi%Wang%NULL%1,         Xiaoli%Sheng%NULL%1,         Jianying%Zhou%NULL%1,         Hongliu%Cai%NULL%1,         Qiang%Fang%NULL%0,         Fei%Yu%NULL%1,         Jian%Fan%NULL%1,         Kaijin%Xu%NULL%1,         Yu%Chen%NULL%2,         Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,         Lin%Sang%NULL%1,         Shihua%Du%NULL%1,         Tao%Li%NULL%0,         Yange%Chang%NULL%1,         Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,  Rita%Valente%xref no email%1,  Marta%Ros\u00e1rio%xref no email%1,  Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,  Lang%Chen%xref no email%1,  Adriana C.%Panayi%xref no email%0,  Jing%Liu%xref no email%0,  Faqi%Cao%xref no email%1,  Chenchen%Yan%xref no email%1,  Hang%Xue%xref no email%0,  Yiqiang%Hu%xref no email%1,  Liangcong%Hu%xref no email%1,  Ze%Lin%xref no email%0,  Xudong%Xie%xref no email%0,  Ranyang%Tao%xref no email%1,  Yun%Sun%xref no email%1,  Wu%Zhou%xref no email%0,  Yuan%Xiong%xref no email%1,  Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,         Abdulrahman%Odeh%NULL%1,         Simon%Ereidge%NULL%1,         Hosni Khairy%Salem%NULL%1,         Gareth P%Jones%NULL%1,         Anne%Gardner%NULL%1,         Shiva S%Tripathi%NULL%1,         Anne%Gregg%NULL%1,         Reuben%Jeganathan%NULL%1,         Muhammad Harris%Siddique%NULL%1,         Celestino P%Lombardi%NULL%1,         Benjamin%Martin%NULL%1,         Cosimo Alex%Leo%NULL%1,         Debashis%Dass%NULL%1,         Gregorio%Di Franco%NULL%1,         Long R%Jiao%NULL%1,         Giulio Maria%Mari%NULL%1,         Luis-Cristobal%Capitan-Morales%NULL%1,         Tara M%Connelly%NULL%1,         Ammar%Alanbuki%NULL%1,         Armando%De Virgilio%NULL%1,         Clare%Schilling%NULL%1,         Carlos%San Miguel Mendez%NULL%1,         Gauri%Kulkarni%NULL%1,         Kulsoom%Nizami%NULL%1,         Stewart%Walsh%NULL%1,         Harry%Dean%NULL%1,         Miguel%Ruiz-Marin%NULL%1,         Rory%Houston%NULL%1,         Mario%Trompetto%NULL%1,         David%Chrastek%NULL%1,         Vasileios%Kouritas%NULL%1,         Maria%Cannoletta%NULL%1,         Francesco%Rosato%NULL%1,         Manish V%Kaushal%NULL%1,         Paulo Matos%Costa%NULL%1,         Hannah H%Elkadi%NULL%1,         Jack R%Johnstone%NULL%1,         Esmee%Irvine%NULL%1,         Maria R%Alvarez%NULL%1,         Carlo%Corbellini%NULL%1,         Gowtham S%Venkatesan%NULL%1,         Olga%Mateo-Sierra%NULL%1,         Carolina%Martínez-Pérez%NULL%1,         Javier%Serrano González%NULL%1,         Miguel Õngel%Hernández Bartolomé%NULL%1,         David%Díaz Pérez%NULL%1,         María%Gutiérrez Samaniego%NULL%1,         Pablo%Galindo Jara%NULL%1,         Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,  Xiao%Weimin%xref no email%1,  Ling%Ken%xref no email%1,  Yao%Shanglong%xref no email%1,  Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,         Guoting%Xu%NULL%1,         Yong%Yang%NULL%1,         Yuan%Tao%NULL%1,         May%Pian-Smith%NULL%1,         Vandana%Madhavan%NULL%1,         Zhongcong%Xie%zxie@mgh.harvard.edu%1,         Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,         Zhiqiang%Zhou%NULL%2,         Jianping%Zhang%NULL%2,         Fengfeng%Zhu%NULL%2,         Yongyan%Tang%NULL%2,         Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,         Shuai%Zhao%NULL%0,         Zhouyang%Wu%NULL%1,         Huilin%Luo%NULL%1,         Cheng%Zhou%NULL%1,         Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,  Chen%Xu%xref no email%1,  Junli%Fan%xref no email%1,  Yueting%Tang%xref no email%1,  Qiaoling%Deng%xref no email%2,  Wei%Zhang%xref no email%1,  Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,         Xue-Jie%Yu%NULL%1,         Tao%Fu%NULL%1,         Yu%Liu%NULL%2,         Yu%Liu%NULL%0,         Yan%Jiang%NULL%1,         Bing Xiang%Yang%NULL%1,         Yongyi%Bi%NULL%2,         Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,         Ken%Ling%NULL%1,         Hong%Yan%NULL%1,         Liang%Zhong%NULL%1,         Xiaohong%Peng%NULL%1,         Shanglong%Yao%NULL%0,         Jiapeng%Huang%NULL%0,         Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,         Yin Y.%Liu%NULL%1,         Qiong%Luo%NULL%1,         Yu F.%Zou%NULL%1,         Hai X.%Jiang%NULL%1,         Hui%Li%NULL%0,         Jing J.%Zhang%NULL%1,         Zhen%Li%NULL%0,         Xin%Yang%NULL%1,         Min%Ma%NULL%1,         Li J.%Tang%NULL%1,         Ying Y.%Chen%chenyingy@whu.edu.cn%1,         Feng%Zheng%fengzheng@whu.edu.cn%1,         Jian J.%Ke%1219628972@qq.com%1,         Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,        Bonardelli%S.%coreGivesNoEmail%1,        Calza%S.%coreGivesNoEmail%1,        Casiraghi%A.%coreGivesNoEmail%1,        Castelli%F.%coreGivesNoEmail%1,        Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,        Domenicucci%M.%coreGivesNoEmail%1,        Fontanella%M. M.%coreGivesNoEmail%1,        Gheza%F.%coreGivesNoEmail%1,        Lussardi%G. L.%coreGivesNoEmail%1,        Maroldi%R.%coreGivesNoEmail%1,        Milano%G.%coreGivesNoEmail%1,        Panciani%P. P.%coreGivesNoEmail%1,        Portolani%N.%coreGivesNoEmail%1,        Rasulo%F. A.%coreGivesNoEmail%1,        Saraceno%G.%coreGivesNoEmail%1,        Signorini%L.%coreGivesNoEmail%1,        Vecchiarelli%L.%coreGivesNoEmail%1,        Vezzoli%M.%coreGivesNoEmail%1,        Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1478,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -1321,7 +1507,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -1350,7 +1536,7 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1373,22 +1559,22 @@
         <v>43963.0</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="I5" t="s">
         <v>71</v>
@@ -1408,7 +1594,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1437,7 +1623,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -1466,7 +1652,7 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -1493,7 +1679,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -1551,7 +1737,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -1580,7 +1766,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1609,7 +1795,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -1638,7 +1824,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1661,22 +1847,22 @@
         <v>43983.0</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="I15" t="s">
         <v>71</v>
@@ -1690,22 +1876,22 @@
         <v>43949.0</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>292</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
       <c r="I16" t="s">
         <v>71</v>
@@ -1725,7 +1911,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -1748,22 +1934,22 @@
         <v>43887.0</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>294</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>268</v>
       </c>
       <c r="I18" t="s">
         <v>71</v>
@@ -1783,7 +1969,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -1812,7 +1998,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -1841,7 +2027,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -1864,22 +2050,22 @@
         <v>43963.0</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>298</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="I22" t="s">
         <v>71</v>
@@ -1899,7 +2085,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -1928,7 +2114,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -1957,7 +2143,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -2015,7 +2201,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="351">
   <si>
     <t>Doi</t>
   </si>
@@ -1115,6 +1115,150 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,        Bonardelli%S.%coreGivesNoEmail%1,        Calza%S.%coreGivesNoEmail%1,        Casiraghi%A.%coreGivesNoEmail%1,        Castelli%F.%coreGivesNoEmail%1,        Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,        Domenicucci%M.%coreGivesNoEmail%1,        Fontanella%M. M.%coreGivesNoEmail%1,        Gheza%F.%coreGivesNoEmail%1,        Lussardi%G. L.%coreGivesNoEmail%1,        Maroldi%R.%coreGivesNoEmail%1,        Milano%G.%coreGivesNoEmail%1,        Panciani%P. P.%coreGivesNoEmail%1,        Portolani%N.%coreGivesNoEmail%1,        Rasulo%F. A.%coreGivesNoEmail%1,        Saraceno%G.%coreGivesNoEmail%1,        Signorini%L.%coreGivesNoEmail%1,        Vecchiarelli%L.%coreGivesNoEmail%1,        Vezzoli%M.%coreGivesNoEmail%1,        Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,          Tania%Paredes%NULL%2,          Tania%Paredes%NULL%0,          David%Caceres%NULL%1,          Camille M.%Webb%NULL%1,          Luis M.%Valdez%NULL%1,          Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,          Andrea%Coscione%NULL%1,          Riccardo%D’Ambrosi%NULL%1,          Luca%Usai%NULL%1,          Claudio%Roscitano%NULL%1,          Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,          Yuan%Zhang%NULL%1,          Lei%Huang%NULL%0,          Bi-heng%Cheng%NULL%1,          Zhong-yuan%Xia%NULL%1,          Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,   Jinhua%Tian%xref no email%3,   Songming%He%xref no email%3,   Chuchao%Zhu%xref no email%3,   Jian%Wang%xref no email%0,   Chen%Liu%xref no email%3,   Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,          Long%Wang%NULL%1,          Gang%Wu%NULL%1,          Xiaoming%Lei%NULL%1,          Wei%Li%NULL%0,          Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,          L%Frigerio%NULL%1,          V%Savasi%NULL%1,          P%Vergani%NULL%1,          F%Prefumo%NULL%1,          S%Barresi%NULL%2,          S%Barresi%NULL%0,          S%Bianchi%NULL%1,          E%Ciriello%NULL%1,          F%Facchinetti%NULL%1,          MT%Gervasi%NULL%1,          E%Iurlaro%NULL%1,          A%Kustermann%NULL%1,          G%Mangili%NULL%1,          F%Mosca%NULL%1,          L%Patanè%NULL%1,          D%Spazzini%NULL%1,          A%Spinillo%NULL%1,          G%Trojano%NULL%1,          M%Vignali%NULL%1,          A%Villa%NULL%1,          GV%Zuccotti%NULL%1,          F%Parazzini%Fabio.parazzini@unimi.it%1,          I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,          Matthew%Libby%mnlibby@gmail.com%1,          Michael%Ochs%Michael.Ochs@usap.com%1,          Jennifer%Hanna%hannaj21@hotmail.com%1,          Julie E.%Mangino%Jemangino1@gmail.com%1,          Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,          Hongqing%Xi%NULL%1,          Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,          Shuai%Zhao%NULL%2,          Linlin%Han%NULL%1,          Qi%Wang%NULL%1,          Haifa%Xia%NULL%1,          Xin%Huang%NULL%1,          Shanglong%Yao%NULL%2,          Jiapeng%Huang%NULL%2,          Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,          Jihyang%Lee%NULL%2,          Jihyang%Lee%NULL%0,          Eunju%Kim%NULL%2,          Eunju%Kim%NULL%0,          Kyeongyoon%Woo%NULL%2,          Kyeongyoon%Woo%NULL%0,          Hak Youle%Park%NULL%2,          Hak Youle%Park%NULL%0,          Jihyun%An%NULL%2,          Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,          Ruihong%Zhao%NULL%2,          Shufa%Zheng%NULL%1,          Xu%Chen%NULL%0,          Jinxi%Wang%NULL%1,          Xiaoli%Sheng%NULL%1,          Jianying%Zhou%NULL%1,          Hongliu%Cai%NULL%1,          Qiang%Fang%NULL%0,          Fei%Yu%NULL%1,          Jian%Fan%NULL%1,          Kaijin%Xu%NULL%1,          Yu%Chen%NULL%2,          Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,          Lin%Sang%NULL%1,          Shihua%Du%NULL%1,          Tao%Li%NULL%0,          Yange%Chang%NULL%1,          Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,   Rita%Valente%xref no email%1,   Marta%Ros\u00e1rio%xref no email%1,   Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,   Lang%Chen%xref no email%1,   Adriana C.%Panayi%xref no email%0,   Jing%Liu%xref no email%0,   Faqi%Cao%xref no email%1,   Chenchen%Yan%xref no email%1,   Hang%Xue%xref no email%0,   Yiqiang%Hu%xref no email%1,   Liangcong%Hu%xref no email%1,   Ze%Lin%xref no email%0,   Xudong%Xie%xref no email%0,   Ranyang%Tao%xref no email%1,   Yun%Sun%xref no email%1,   Wu%Zhou%xref no email%0,   Yuan%Xiong%xref no email%1,   Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,          Abdulrahman%Odeh%NULL%1,          Simon%Ereidge%NULL%1,          Hosni Khairy%Salem%NULL%1,          Gareth P%Jones%NULL%1,          Anne%Gardner%NULL%1,          Shiva S%Tripathi%NULL%1,          Anne%Gregg%NULL%1,          Reuben%Jeganathan%NULL%1,          Muhammad Harris%Siddique%NULL%1,          Celestino P%Lombardi%NULL%1,          Benjamin%Martin%NULL%1,          Cosimo Alex%Leo%NULL%1,          Debashis%Dass%NULL%1,          Gregorio%Di Franco%NULL%1,          Long R%Jiao%NULL%1,          Giulio Maria%Mari%NULL%1,          Luis-Cristobal%Capitan-Morales%NULL%1,          Tara M%Connelly%NULL%1,          Ammar%Alanbuki%NULL%1,          Armando%De Virgilio%NULL%1,          Clare%Schilling%NULL%1,          Carlos%San Miguel Mendez%NULL%1,          Gauri%Kulkarni%NULL%1,          Kulsoom%Nizami%NULL%1,          Stewart%Walsh%NULL%1,          Harry%Dean%NULL%1,          Miguel%Ruiz-Marin%NULL%1,          Rory%Houston%NULL%1,          Mario%Trompetto%NULL%1,          David%Chrastek%NULL%1,          Vasileios%Kouritas%NULL%1,          Maria%Cannoletta%NULL%1,          Francesco%Rosato%NULL%1,          Manish V%Kaushal%NULL%1,          Paulo Matos%Costa%NULL%1,          Hannah H%Elkadi%NULL%1,          Jack R%Johnstone%NULL%1,          Esmee%Irvine%NULL%1,          Maria R%Alvarez%NULL%1,          Carlo%Corbellini%NULL%1,          Gowtham S%Venkatesan%NULL%1,          Olga%Mateo-Sierra%NULL%1,          Carolina%Martínez-Pérez%NULL%1,          Javier%Serrano González%NULL%1,          Miguel Õngel%Hernández Bartolomé%NULL%1,          David%Díaz Pérez%NULL%1,          María%Gutiérrez Samaniego%NULL%1,          Pablo%Galindo Jara%NULL%1,          Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,   Xiao%Weimin%xref no email%1,   Ling%Ken%xref no email%1,   Yao%Shanglong%xref no email%1,   Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,          Guoting%Xu%NULL%1,          Yong%Yang%NULL%1,          Yuan%Tao%NULL%1,          May%Pian-Smith%NULL%1,          Vandana%Madhavan%NULL%1,          Zhongcong%Xie%zxie@mgh.harvard.edu%1,          Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,          Zhiqiang%Zhou%NULL%2,          Jianping%Zhang%NULL%2,          Fengfeng%Zhu%NULL%2,          Yongyan%Tang%NULL%2,          Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,          Shuai%Zhao%NULL%0,          Zhouyang%Wu%NULL%1,          Huilin%Luo%NULL%1,          Cheng%Zhou%NULL%1,          Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,   Chen%Xu%xref no email%1,   Junli%Fan%xref no email%1,   Yueting%Tang%xref no email%1,   Qiaoling%Deng%xref no email%2,   Wei%Zhang%xref no email%1,   Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,          Xue-Jie%Yu%NULL%1,          Tao%Fu%NULL%1,          Yu%Liu%NULL%2,          Yu%Liu%NULL%0,          Yan%Jiang%NULL%1,          Bing Xiang%Yang%NULL%1,          Yongyi%Bi%NULL%2,          Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,          Ken%Ling%NULL%1,          Hong%Yan%NULL%1,          Liang%Zhong%NULL%1,          Xiaohong%Peng%NULL%1,          Shanglong%Yao%NULL%0,          Jiapeng%Huang%NULL%0,          Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,          Yin Y.%Liu%NULL%1,          Qiong%Luo%NULL%1,          Yu F.%Zou%NULL%1,          Hai X.%Jiang%NULL%1,          Hui%Li%NULL%0,          Jing J.%Zhang%NULL%1,          Zhen%Li%NULL%0,          Xin%Yang%NULL%1,          Min%Ma%NULL%1,          Li J.%Tang%NULL%1,          Ying Y.%Chen%chenyingy@whu.edu.cn%1,          Feng%Zheng%fengzheng@whu.edu.cn%1,          Jian J.%Ke%1219628972@qq.com%1,          Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,         Bonardelli%S.%coreGivesNoEmail%1,         Calza%S.%coreGivesNoEmail%1,         Casiraghi%A.%coreGivesNoEmail%1,         Castelli%F.%coreGivesNoEmail%1,         Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,         Domenicucci%M.%coreGivesNoEmail%1,         Fontanella%M. M.%coreGivesNoEmail%1,         Gheza%F.%coreGivesNoEmail%1,         Lussardi%G. L.%coreGivesNoEmail%1,         Maroldi%R.%coreGivesNoEmail%1,         Milano%G.%coreGivesNoEmail%1,         Panciani%P. P.%coreGivesNoEmail%1,         Portolani%N.%coreGivesNoEmail%1,         Rasulo%F. A.%coreGivesNoEmail%1,         Saraceno%G.%coreGivesNoEmail%1,         Signorini%L.%coreGivesNoEmail%1,         Vecchiarelli%L.%coreGivesNoEmail%1,         Vezzoli%M.%coreGivesNoEmail%1,         Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,           Tania%Paredes%NULL%2,           Tania%Paredes%NULL%0,           David%Caceres%NULL%1,           Camille M.%Webb%NULL%1,           Luis M.%Valdez%NULL%1,           Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,           Andrea%Coscione%NULL%1,           Riccardo%D’Ambrosi%NULL%1,           Luca%Usai%NULL%1,           Claudio%Roscitano%NULL%1,           Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,           Yuan%Zhang%NULL%1,           Lei%Huang%NULL%0,           Bi-heng%Cheng%NULL%1,           Zhong-yuan%Xia%NULL%1,           Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,    Jinhua%Tian%xref no email%3,    Songming%He%xref no email%3,    Chuchao%Zhu%xref no email%3,    Jian%Wang%xref no email%0,    Chen%Liu%xref no email%3,    Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,           Long%Wang%NULL%1,           Gang%Wu%NULL%1,           Xiaoming%Lei%NULL%1,           Wei%Li%NULL%0,           Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,           L%Frigerio%NULL%1,           V%Savasi%NULL%1,           P%Vergani%NULL%1,           F%Prefumo%NULL%1,           S%Barresi%NULL%2,           S%Barresi%NULL%0,           S%Bianchi%NULL%1,           E%Ciriello%NULL%1,           F%Facchinetti%NULL%1,           MT%Gervasi%NULL%1,           E%Iurlaro%NULL%1,           A%Kustermann%NULL%1,           G%Mangili%NULL%1,           F%Mosca%NULL%1,           L%Patanè%NULL%1,           D%Spazzini%NULL%1,           A%Spinillo%NULL%1,           G%Trojano%NULL%1,           M%Vignali%NULL%1,           A%Villa%NULL%1,           GV%Zuccotti%NULL%1,           F%Parazzini%Fabio.parazzini@unimi.it%1,           I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,           Matthew%Libby%mnlibby@gmail.com%1,           Michael%Ochs%Michael.Ochs@usap.com%1,           Jennifer%Hanna%hannaj21@hotmail.com%1,           Julie E.%Mangino%Jemangino1@gmail.com%1,           Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,           Hongqing%Xi%NULL%1,           Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,           Shuai%Zhao%NULL%2,           Linlin%Han%NULL%1,           Qi%Wang%NULL%0,           Haifa%Xia%NULL%1,           Xin%Huang%NULL%0,           Shanglong%Yao%NULL%2,           Jiapeng%Huang%NULL%2,           Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,           Jihyang%Lee%NULL%2,           Jihyang%Lee%NULL%0,           Eunju%Kim%NULL%2,           Eunju%Kim%NULL%0,           Kyeongyoon%Woo%NULL%2,           Kyeongyoon%Woo%NULL%0,           Hak Youle%Park%NULL%2,           Hak Youle%Park%NULL%0,           Jihyun%An%NULL%2,           Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,           Ruihong%Zhao%NULL%2,           Shufa%Zheng%NULL%1,           Xu%Chen%NULL%0,           Jinxi%Wang%NULL%1,           Xiaoli%Sheng%NULL%1,           Jianying%Zhou%NULL%1,           Hongliu%Cai%NULL%1,           Qiang%Fang%NULL%0,           Fei%Yu%NULL%1,           Jian%Fan%NULL%1,           Kaijin%Xu%NULL%1,           Yu%Chen%NULL%2,           Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,           Lin%Sang%NULL%1,           Shihua%Du%NULL%1,           Tao%Li%NULL%0,           Yange%Chang%NULL%1,           Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,    Rita%Valente%xref no email%1,    Marta%Ros\u00e1rio%xref no email%1,    Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,    Lang%Chen%xref no email%1,    Adriana C.%Panayi%xref no email%0,    Jing%Liu%xref no email%0,    Faqi%Cao%xref no email%1,    Chenchen%Yan%xref no email%1,    Hang%Xue%xref no email%0,    Yiqiang%Hu%xref no email%1,    Liangcong%Hu%xref no email%1,    Ze%Lin%xref no email%0,    Xudong%Xie%xref no email%0,    Ranyang%Tao%xref no email%1,    Yun%Sun%xref no email%1,    Wu%Zhou%xref no email%0,    Yuan%Xiong%xref no email%1,    Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,           Abdulrahman%Odeh%NULL%1,           Simon%Ereidge%NULL%1,           Hosni Khairy%Salem%NULL%1,           Gareth P%Jones%NULL%1,           Anne%Gardner%NULL%1,           Shiva S%Tripathi%NULL%1,           Anne%Gregg%NULL%1,           Reuben%Jeganathan%NULL%1,           Muhammad Harris%Siddique%NULL%1,           Celestino P%Lombardi%NULL%1,           Benjamin%Martin%NULL%1,           Cosimo Alex%Leo%NULL%1,           Debashis%Dass%NULL%1,           Gregorio%Di Franco%NULL%1,           Long R%Jiao%NULL%1,           Giulio Maria%Mari%NULL%1,           Luis-Cristobal%Capitan-Morales%NULL%1,           Tara M%Connelly%NULL%1,           Ammar%Alanbuki%NULL%1,           Armando%De Virgilio%NULL%1,           Clare%Schilling%NULL%1,           Carlos%San Miguel Mendez%NULL%1,           Gauri%Kulkarni%NULL%1,           Kulsoom%Nizami%NULL%1,           Stewart%Walsh%NULL%1,           Harry%Dean%NULL%1,           Miguel%Ruiz-Marin%NULL%1,           Rory%Houston%NULL%1,           Mario%Trompetto%NULL%1,           David%Chrastek%NULL%1,           Vasileios%Kouritas%NULL%1,           Maria%Cannoletta%NULL%1,           Francesco%Rosato%NULL%1,           Manish V%Kaushal%NULL%1,           Paulo Matos%Costa%NULL%1,           Hannah H%Elkadi%NULL%1,           Jack R%Johnstone%NULL%1,           Esmee%Irvine%NULL%1,           Maria R%Alvarez%NULL%1,           Carlo%Corbellini%NULL%1,           Gowtham S%Venkatesan%NULL%1,           Olga%Mateo-Sierra%NULL%1,           Carolina%Martínez-Pérez%NULL%1,           Javier%Serrano González%NULL%1,           Miguel Õngel%Hernández Bartolomé%NULL%1,           David%Díaz Pérez%NULL%1,           María%Gutiérrez Samaniego%NULL%1,           Pablo%Galindo Jara%NULL%1,           Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,    Xiao%Weimin%xref no email%1,    Ling%Ken%xref no email%1,    Yao%Shanglong%xref no email%1,    Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,           Guoting%Xu%NULL%1,           Yong%Yang%NULL%1,           Yuan%Tao%NULL%1,           May%Pian-Smith%NULL%1,           Vandana%Madhavan%NULL%1,           Zhongcong%Xie%zxie@mgh.harvard.edu%1,           Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,           Zhiqiang%Zhou%NULL%2,           Jianping%Zhang%NULL%2,           Fengfeng%Zhu%NULL%2,           Yongyan%Tang%NULL%2,           Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,           Shuai%Zhao%NULL%0,           Zhouyang%Wu%NULL%1,           Huilin%Luo%NULL%1,           Cheng%Zhou%NULL%1,           Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,    Chen%Xu%xref no email%1,    Junli%Fan%xref no email%1,    Yueting%Tang%xref no email%1,    Qiaoling%Deng%xref no email%2,    Wei%Zhang%xref no email%1,    Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,           Xue-Jie%Yu%NULL%1,           Tao%Fu%NULL%1,           Yu%Liu%NULL%2,           Yu%Liu%NULL%0,           Yan%Jiang%NULL%1,           Bing Xiang%Yang%NULL%1,           Yongyi%Bi%NULL%2,           Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,           Ken%Ling%NULL%1,           Hong%Yan%NULL%1,           Liang%Zhong%NULL%1,           Xiaohong%Peng%NULL%1,           Shanglong%Yao%NULL%0,           Jiapeng%Huang%NULL%0,           Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,           Yin Y.%Liu%NULL%1,           Qiong%Luo%NULL%1,           Yu F.%Zou%NULL%1,           Hai X.%Jiang%NULL%1,           Hui%Li%NULL%0,           Jing J.%Zhang%NULL%1,           Zhen%Li%NULL%0,           Xin%Yang%NULL%1,           Min%Ma%NULL%1,           Li J.%Tang%NULL%1,           Ying Y.%Chen%chenyingy@whu.edu.cn%1,           Feng%Zheng%fengzheng@whu.edu.cn%1,           Jian J.%Ke%1219628972@qq.com%1,           Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,          Bonardelli%S.%coreGivesNoEmail%1,          Calza%S.%coreGivesNoEmail%1,          Casiraghi%A.%coreGivesNoEmail%1,          Castelli%F.%coreGivesNoEmail%1,          Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,          Domenicucci%M.%coreGivesNoEmail%1,          Fontanella%M. M.%coreGivesNoEmail%1,          Gheza%F.%coreGivesNoEmail%1,          Lussardi%G. L.%coreGivesNoEmail%1,          Maroldi%R.%coreGivesNoEmail%1,          Milano%G.%coreGivesNoEmail%1,          Panciani%P. P.%coreGivesNoEmail%1,          Portolani%N.%coreGivesNoEmail%1,          Rasulo%F. A.%coreGivesNoEmail%1,          Saraceno%G.%coreGivesNoEmail%1,          Signorini%L.%coreGivesNoEmail%1,          Vecchiarelli%L.%coreGivesNoEmail%1,          Vezzoli%M.%coreGivesNoEmail%1,          Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -1507,7 +1651,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -1536,7 +1680,7 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1565,7 +1709,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1594,7 +1738,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1623,7 +1767,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -1652,7 +1796,7 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -1679,7 +1823,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -1737,7 +1881,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -1766,7 +1910,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1795,7 +1939,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -1824,7 +1968,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1853,7 +1997,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1882,7 +2026,7 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1911,7 +2055,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -1940,7 +2084,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1969,7 +2113,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -1998,7 +2142,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2027,7 +2171,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -2056,7 +2200,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2085,7 +2229,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2114,7 +2258,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -2143,7 +2287,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -2201,7 +2345,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="402">
   <si>
     <t>Doi</t>
   </si>
@@ -1259,6 +1259,196 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,          Bonardelli%S.%coreGivesNoEmail%1,          Calza%S.%coreGivesNoEmail%1,          Casiraghi%A.%coreGivesNoEmail%1,          Castelli%F.%coreGivesNoEmail%1,          Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,          Domenicucci%M.%coreGivesNoEmail%1,          Fontanella%M. M.%coreGivesNoEmail%1,          Gheza%F.%coreGivesNoEmail%1,          Lussardi%G. L.%coreGivesNoEmail%1,          Maroldi%R.%coreGivesNoEmail%1,          Milano%G.%coreGivesNoEmail%1,          Panciani%P. P.%coreGivesNoEmail%1,          Portolani%N.%coreGivesNoEmail%1,          Rasulo%F. A.%coreGivesNoEmail%1,          Saraceno%G.%coreGivesNoEmail%1,          Signorini%L.%coreGivesNoEmail%1,          Vecchiarelli%L.%coreGivesNoEmail%1,          Vezzoli%M.%coreGivesNoEmail%1,          Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,            Tania%Paredes%NULL%2,            Tania%Paredes%NULL%0,            David%Caceres%NULL%1,            Camille M.%Webb%NULL%1,            Luis M.%Valdez%NULL%1,            Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,            Andrea%Coscione%NULL%1,            Riccardo%D’Ambrosi%NULL%1,            Luca%Usai%NULL%1,            Claudio%Roscitano%NULL%1,            Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To assess the management and safety of epidural or general anesthesia for Cesarean delivery in parturients with coronavirus disease (COVID-19) and their newborns, and to evaluate the standardized procedures for protecting medical staff.
+Methods
+We retrospectively reviewed the cases of parturients diagnosed with severe acute respiratory syndrome coronavirus (SARS-CoV-2) infection disease (COVID-19).
+ Their epidemiologic history, chest computed tomography scans, laboratory measurements, and SARS-CoV-2 nucleic acid positivity were evaluated.
+ We also recorded the patients’ demographic and clinical characteristics, anesthesia and surgery-related data, maternal and neonatal complications, as well as the health status of the involved medical staff.
+Results
+The clinical characteristics of 17 pregnant women infected with SARS-CoV-2 were similar to those previously reported in non-pregnant adult patients.
+ All of the 17 patients underwent Cesarean delivery with anesthesia performed according to standardized anesthesia/surgery procedures.
+ Fourteen of the patients underwent continuous epidural anesthesia with 12 experiencing significant intraoperative hypotension.
+ Three patients received general anesthesia with tracheal intubation because emergency surgery was needed.
+ Three of the parturients are still recovering from their Cesarean delivery and are receiving in-hospital treatment for COVID-19. Three neonates were born prematurely.
+ There were no deaths or serious neonatal asphyxia events.
+ All neonatal SARS-CoV-2 nucleic acid tests were negative.
+ No medical staff were infected throughout the patient care period.
+Conclusions
+Both epidural and general anesthesia were safely used for Cesarean delivery in the parturients with COVID-19. Nevertheless, the incidence of hypotension during epidural anesthesia appeared excessive.
+ Proper patient transfer, medical staff access procedures, and effective biosafety precautions are important to protect medical staff from COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,            Yuan%Zhang%NULL%1,            Lei%Huang%NULL%0,            Bi-heng%Cheng%NULL%1,            Zhong-yuan%Xia%NULL%1,            Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,     Jinhua%Tian%xref no email%3,     Songming%He%xref no email%3,     Chuchao%Zhu%xref no email%3,     Jian%Wang%xref no email%0,     Chen%Liu%xref no email%3,     Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An outbreak of novel coronavirus pneumonia occurred worldwide since December 2019, which had been named COVID-19 subsequently.
+ It is extremely transmissive that infection in pregnant women were unavoidable.
+ The delivery process will produce large amount of contaminated media, leaving a challenge for medical personnel to ensure both the safety of the mother and infant and good self-protection.
+ Only rare cases of pregnant women with COVID-19 are available for reference.
+ Here, we report a 30-year-old woman had reverse transcription polymerase chain reaction-confirmed COVID-19 at 36 weeks 2 days of gestation.
+ Significant low and high variability of fetal heart rate baseline and severe variable decelerations were repeated after admission.
+ An emergency cesarean section at 37 weeks 1 day of gestation under combined spinal and epidural anesthesia was performed with strict protection for all personnel.
+ Anesthesia and operation went uneventfully.
+ None of the participants were infected.
+ We can conclude that when confronted with cesarean section in parturient with COVID-19, careful planning and detailed preparation can improve the safety of the mother and infant and reduce the risk of infection for medical staff to help preventing and controlling the epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,            Long%Wang%NULL%1,            Gang%Wu%NULL%1,            Xiaoming%Lei%NULL%1,            Wei%Li%NULL%0,            Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,            L%Frigerio%NULL%1,            V%Savasi%NULL%1,            P%Vergani%NULL%1,            F%Prefumo%NULL%1,            S%Barresi%NULL%2,            S%Barresi%NULL%0,            S%Bianchi%NULL%1,            E%Ciriello%NULL%1,            F%Facchinetti%NULL%1,            MT%Gervasi%NULL%1,            E%Iurlaro%NULL%1,            A%Kustermann%NULL%1,            G%Mangili%NULL%1,            F%Mosca%NULL%1,            L%Patanè%NULL%1,            D%Spazzini%NULL%1,            A%Spinillo%NULL%1,            G%Trojano%NULL%1,            M%Vignali%NULL%1,            A%Villa%NULL%1,            GV%Zuccotti%NULL%1,            F%Parazzini%Fabio.parazzini@unimi.it%1,            I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The concerns of the highly contagious and morbid nature of Coronavirus Disease-2019 (COVID-2019) have prompted healthcare workers to implement strict droplet and contact isolation precautions.
+ Unfortunately, some patients who may be or presumptively or confirmed as infected with COVID-2019 may also require emergent surgical procedures.
+ As such, given the high-risk for exposure of many healthcare workers involved the complex requirements for appropriate isolation must be adhered to.
+Case presentation
+We present our experience with a 77-year-old who required emergency cardiac surgery for a presumed acute aortic syndrome in the setting of a presumed, and eventually confirmed, COVID-2019 infection.
+ We outline the necessary steps to maintain strict isolation precautions to limit potential exposure to the surgical Team.
+Conclusions
+We hereby provide our algorithm for emergent surgical procedures in critically-ill patients with presumptive or confirmed infection with COVID-2019. The insights from this case report can potentially be templated to other facilities in order to uphold high standards of infection prevention and patient safety in surgery during the current COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,            Matthew%Libby%mnlibby@gmail.com%1,            Michael%Ochs%Michael.Ochs@usap.com%1,            Jennifer%Hanna%hannaj21@hotmail.com%1,            Julie E.%Mangino%Jemangino1@gmail.com%1,            Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,            Hongqing%Xi%NULL%1,            Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,            Shuai%Zhao%NULL%2,            Linlin%Han%NULL%1,            Qi%Wang%NULL%1,            Haifa%Xia%NULL%1,            Xin%Huang%NULL%1,            Shanglong%Yao%NULL%2,            Jiapeng%Huang%NULL%2,            Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,            Jihyang%Lee%NULL%2,            Jihyang%Lee%NULL%0,            Eunju%Kim%NULL%2,            Eunju%Kim%NULL%0,            Kyeongyoon%Woo%NULL%2,            Kyeongyoon%Woo%NULL%0,            Hak Youle%Park%NULL%2,            Hak Youle%Park%NULL%0,            Jihyun%An%NULL%2,            Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,            Ruihong%Zhao%NULL%2,            Shufa%Zheng%NULL%1,            Xu%Chen%NULL%0,            Jinxi%Wang%NULL%1,            Xiaoli%Sheng%NULL%1,            Jianying%Zhou%NULL%1,            Hongliu%Cai%NULL%1,            Qiang%Fang%NULL%0,            Fei%Yu%NULL%1,            Jian%Fan%NULL%1,            Kaijin%Xu%NULL%1,            Yu%Chen%NULL%2,            Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,            Lin%Sang%NULL%1,            Shihua%Du%NULL%1,            Tao%Li%NULL%0,            Yange%Chang%NULL%1,            Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,     Rita%Valente%xref no email%1,     Marta%Ros\u00e1rio%xref no email%1,     Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,     Lang%Chen%xref no email%1,     Adriana C.%Panayi%xref no email%0,     Jing%Liu%xref no email%0,     Faqi%Cao%xref no email%1,     Chenchen%Yan%xref no email%1,     Hang%Xue%xref no email%0,     Yiqiang%Hu%xref no email%1,     Liangcong%Hu%xref no email%1,     Ze%Lin%xref no email%0,     Xudong%Xie%xref no email%0,     Ranyang%Tao%xref no email%1,     Yun%Sun%xref no email%1,     Wu%Zhou%xref no email%0,     Yuan%Xiong%xref no email%1,     Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,            Abdulrahman%Odeh%NULL%1,            Simon%Ereidge%NULL%1,            Hosni Khairy%Salem%NULL%1,            Gareth P%Jones%NULL%1,            Anne%Gardner%NULL%1,            Shiva S%Tripathi%NULL%1,            Anne%Gregg%NULL%1,            Reuben%Jeganathan%NULL%1,            Muhammad Harris%Siddique%NULL%1,            Celestino P%Lombardi%NULL%1,            Benjamin%Martin%NULL%1,            Cosimo Alex%Leo%NULL%1,            Debashis%Dass%NULL%1,            Gregorio%Di Franco%NULL%1,            Long R%Jiao%NULL%1,            Giulio Maria%Mari%NULL%1,            Luis-Cristobal%Capitan-Morales%NULL%1,            Tara M%Connelly%NULL%1,            Ammar%Alanbuki%NULL%1,            Armando%De Virgilio%NULL%1,            Clare%Schilling%NULL%1,            Carlos%San Miguel Mendez%NULL%1,            Gauri%Kulkarni%NULL%1,            Kulsoom%Nizami%NULL%1,            Stewart%Walsh%NULL%1,            Harry%Dean%NULL%1,            Miguel%Ruiz-Marin%NULL%1,            Rory%Houston%NULL%1,            Mario%Trompetto%NULL%1,            David%Chrastek%NULL%1,            Vasileios%Kouritas%NULL%1,            Maria%Cannoletta%NULL%1,            Francesco%Rosato%NULL%1,            Manish V%Kaushal%NULL%1,            Paulo Matos%Costa%NULL%1,            Hannah H%Elkadi%NULL%1,            Jack R%Johnstone%NULL%1,            Esmee%Irvine%NULL%1,            Maria R%Alvarez%NULL%1,            Carlo%Corbellini%NULL%1,            Gowtham S%Venkatesan%NULL%1,            Olga%Mateo-Sierra%NULL%1,            Carolina%Martínez-Pérez%NULL%1,            Javier%Serrano González%NULL%1,            Miguel Õngel%Hernández Bartolomé%NULL%1,            David%Díaz Pérez%NULL%1,            María%Gutiérrez Samaniego%NULL%1,            Pablo%Galindo Jara%NULL%1,            Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,     Xiao%Weimin%xref no email%1,     Ling%Ken%xref no email%1,     Yao%Shanglong%xref no email%1,     Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,            Guoting%Xu%NULL%1,            Yong%Yang%NULL%1,            Yuan%Tao%NULL%1,            May%Pian-Smith%NULL%1,            Vandana%Madhavan%NULL%1,            Zhongcong%Xie%zxie@mgh.harvard.edu%1,            Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,            Zhiqiang%Zhou%NULL%2,            Jianping%Zhang%NULL%2,            Fengfeng%Zhu%NULL%2,            Yongyan%Tang%NULL%2,            Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,            Shuai%Zhao%NULL%0,            Zhouyang%Wu%NULL%1,            Huilin%Luo%NULL%1,            Cheng%Zhou%NULL%1,            Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,     Chen%Xu%xref no email%1,     Junli%Fan%xref no email%1,     Yueting%Tang%xref no email%1,     Qiaoling%Deng%xref no email%2,     Wei%Zhang%xref no email%1,     Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,            Xue-Jie%Yu%NULL%1,            Tao%Fu%NULL%1,            Yu%Liu%NULL%2,            Yu%Liu%NULL%0,            Yan%Jiang%NULL%1,            Bing Xiang%Yang%NULL%1,            Yongyi%Bi%NULL%2,            Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,            Ken%Ling%NULL%1,            Hong%Yan%NULL%1,            Liang%Zhong%NULL%1,            Xiaohong%Peng%NULL%1,            Shanglong%Yao%NULL%0,            Jiapeng%Huang%NULL%0,            Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,            Yin Y.%Liu%NULL%1,            Qiong%Luo%NULL%1,            Yu F.%Zou%NULL%1,            Hai X.%Jiang%NULL%1,            Hui%Li%NULL%0,            Jing J.%Zhang%NULL%1,            Zhen%Li%NULL%0,            Xin%Yang%NULL%1,            Min%Ma%NULL%1,            Li J.%Tang%NULL%1,            Ying Y.%Chen%chenyingy@whu.edu.cn%1,            Feng%Zheng%fengzheng@whu.edu.cn%1,            Jian J.%Ke%1219628972@qq.com%1,            Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,           Bonardelli%S.%coreGivesNoEmail%1,           Calza%S.%coreGivesNoEmail%1,           Casiraghi%A.%coreGivesNoEmail%1,           Castelli%F.%coreGivesNoEmail%1,           Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,           Domenicucci%M.%coreGivesNoEmail%1,           Fontanella%M. M.%coreGivesNoEmail%1,           Gheza%F.%coreGivesNoEmail%1,           Lussardi%G. L.%coreGivesNoEmail%1,           Maroldi%R.%coreGivesNoEmail%1,           Milano%G.%coreGivesNoEmail%1,           Panciani%P. P.%coreGivesNoEmail%1,           Portolani%N.%coreGivesNoEmail%1,           Rasulo%F. A.%coreGivesNoEmail%1,           Saraceno%G.%coreGivesNoEmail%1,           Signorini%L.%coreGivesNoEmail%1,           Vecchiarelli%L.%coreGivesNoEmail%1,           Vezzoli%M.%coreGivesNoEmail%1,           Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,             Tania%Paredes%NULL%2,             Tania%Paredes%NULL%0,             David%Caceres%NULL%1,             Camille M.%Webb%NULL%1,             Luis M.%Valdez%NULL%1,             Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,             Andrea%Coscione%NULL%1,             Riccardo%D’Ambrosi%NULL%1,             Luca%Usai%NULL%1,             Claudio%Roscitano%NULL%1,             Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,             Yuan%Zhang%NULL%1,             Lei%Huang%NULL%0,             Bi-heng%Cheng%NULL%1,             Zhong-yuan%Xia%NULL%1,             Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,      Jinhua%Tian%xref no email%3,      Songming%He%xref no email%3,      Chuchao%Zhu%xref no email%3,      Jian%Wang%xref no email%0,      Chen%Liu%xref no email%3,      Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,             Long%Wang%NULL%1,             Gang%Wu%NULL%1,             Xiaoming%Lei%NULL%1,             Wei%Li%NULL%0,             Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,             L%Frigerio%NULL%1,             V%Savasi%NULL%1,             P%Vergani%NULL%1,             F%Prefumo%NULL%1,             S%Barresi%NULL%2,             S%Barresi%NULL%0,             S%Bianchi%NULL%1,             E%Ciriello%NULL%1,             F%Facchinetti%NULL%1,             MT%Gervasi%NULL%1,             E%Iurlaro%NULL%1,             A%Kustermann%NULL%1,             G%Mangili%NULL%1,             F%Mosca%NULL%1,             L%Patanè%NULL%1,             D%Spazzini%NULL%1,             A%Spinillo%NULL%1,             G%Trojano%NULL%1,             M%Vignali%NULL%1,             A%Villa%NULL%1,             GV%Zuccotti%NULL%1,             F%Parazzini%Fabio.parazzini@unimi.it%1,             I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,             Matthew%Libby%mnlibby@gmail.com%1,             Michael%Ochs%Michael.Ochs@usap.com%1,             Jennifer%Hanna%hannaj21@hotmail.com%1,             Julie E.%Mangino%Jemangino1@gmail.com%1,             Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,             Hongqing%Xi%NULL%1,             Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,             Shuai%Zhao%NULL%2,             Linlin%Han%NULL%1,             Qi%Wang%NULL%1,             Haifa%Xia%NULL%1,             Xin%Huang%NULL%1,             Shanglong%Yao%NULL%2,             Jiapeng%Huang%NULL%2,             Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,             Jihyang%Lee%NULL%2,             Jihyang%Lee%NULL%0,             Eunju%Kim%NULL%2,             Eunju%Kim%NULL%0,             Kyeongyoon%Woo%NULL%2,             Kyeongyoon%Woo%NULL%0,             Hak Youle%Park%NULL%2,             Hak Youle%Park%NULL%0,             Jihyun%An%NULL%2,             Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,             Ruihong%Zhao%NULL%2,             Shufa%Zheng%NULL%1,             Xu%Chen%NULL%0,             Jinxi%Wang%NULL%1,             Xiaoli%Sheng%NULL%1,             Jianying%Zhou%NULL%1,             Hongliu%Cai%NULL%1,             Qiang%Fang%NULL%0,             Fei%Yu%NULL%1,             Jian%Fan%NULL%1,             Kaijin%Xu%NULL%1,             Yu%Chen%NULL%2,             Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,             Lin%Sang%NULL%1,             Shihua%Du%NULL%1,             Tao%Li%NULL%0,             Yange%Chang%NULL%1,             Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,      Rita%Valente%xref no email%1,      Marta%Ros\u00e1rio%xref no email%1,      Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,      Lang%Chen%xref no email%1,      Adriana C.%Panayi%xref no email%0,      Jing%Liu%xref no email%0,      Faqi%Cao%xref no email%1,      Chenchen%Yan%xref no email%1,      Hang%Xue%xref no email%0,      Yiqiang%Hu%xref no email%1,      Liangcong%Hu%xref no email%1,      Ze%Lin%xref no email%0,      Xudong%Xie%xref no email%0,      Ranyang%Tao%xref no email%1,      Yun%Sun%xref no email%1,      Wu%Zhou%xref no email%0,      Yuan%Xiong%xref no email%1,      Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,             Abdulrahman%Odeh%NULL%1,             Simon%Ereidge%NULL%1,             Hosni Khairy%Salem%NULL%1,             Gareth P%Jones%NULL%1,             Anne%Gardner%NULL%1,             Shiva S%Tripathi%NULL%1,             Anne%Gregg%NULL%1,             Reuben%Jeganathan%NULL%1,             Muhammad Harris%Siddique%NULL%1,             Celestino P%Lombardi%NULL%1,             Benjamin%Martin%NULL%1,             Cosimo Alex%Leo%NULL%1,             Debashis%Dass%NULL%1,             Gregorio%Di Franco%NULL%1,             Long R%Jiao%NULL%1,             Giulio Maria%Mari%NULL%1,             Luis-Cristobal%Capitan-Morales%NULL%1,             Tara M%Connelly%NULL%1,             Ammar%Alanbuki%NULL%1,             Armando%De Virgilio%NULL%1,             Clare%Schilling%NULL%1,             Carlos%San Miguel Mendez%NULL%1,             Gauri%Kulkarni%NULL%1,             Kulsoom%Nizami%NULL%1,             Stewart%Walsh%NULL%1,             Harry%Dean%NULL%1,             Miguel%Ruiz-Marin%NULL%1,             Rory%Houston%NULL%1,             Mario%Trompetto%NULL%1,             David%Chrastek%NULL%1,             Vasileios%Kouritas%NULL%1,             Maria%Cannoletta%NULL%1,             Francesco%Rosato%NULL%1,             Manish V%Kaushal%NULL%1,             Paulo Matos%Costa%NULL%1,             Hannah H%Elkadi%NULL%1,             Jack R%Johnstone%NULL%1,             Esmee%Irvine%NULL%1,             Maria R%Alvarez%NULL%1,             Carlo%Corbellini%NULL%1,             Gowtham S%Venkatesan%NULL%1,             Olga%Mateo-Sierra%NULL%1,             Carolina%Martínez-Pérez%NULL%1,             Javier%Serrano González%NULL%1,             Miguel Õngel%Hernández Bartolomé%NULL%1,             David%Díaz Pérez%NULL%1,             María%Gutiérrez Samaniego%NULL%1,             Pablo%Galindo Jara%NULL%1,             Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,      Xiao%Weimin%xref no email%1,      Ling%Ken%xref no email%1,      Yao%Shanglong%xref no email%1,      Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,             Guoting%Xu%NULL%1,             Yong%Yang%NULL%1,             Yuan%Tao%NULL%1,             May%Pian-Smith%NULL%1,             Vandana%Madhavan%NULL%1,             Zhongcong%Xie%zxie@mgh.harvard.edu%1,             Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,             Zhiqiang%Zhou%NULL%2,             Jianping%Zhang%NULL%2,             Fengfeng%Zhu%NULL%2,             Yongyan%Tang%NULL%2,             Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,             Shuai%Zhao%NULL%0,             Zhouyang%Wu%NULL%1,             Huilin%Luo%NULL%1,             Cheng%Zhou%NULL%1,             Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,      Chen%Xu%xref no email%1,      Junli%Fan%xref no email%1,      Yueting%Tang%xref no email%1,      Qiaoling%Deng%xref no email%2,      Wei%Zhang%xref no email%1,      Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,             Xue-Jie%Yu%NULL%1,             Tao%Fu%NULL%1,             Yu%Liu%NULL%2,             Yu%Liu%NULL%0,             Yan%Jiang%NULL%1,             Bing Xiang%Yang%NULL%1,             Yongyi%Bi%NULL%2,             Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,             Ken%Ling%NULL%1,             Hong%Yan%NULL%1,             Liang%Zhong%NULL%1,             Xiaohong%Peng%NULL%1,             Shanglong%Yao%NULL%0,             Jiapeng%Huang%NULL%0,             Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,             Yin Y.%Liu%NULL%1,             Qiong%Luo%NULL%1,             Yu F.%Zou%NULL%1,             Hai X.%Jiang%NULL%1,             Hui%Li%NULL%0,             Jing J.%Zhang%NULL%1,             Zhen%Li%NULL%0,             Xin%Yang%NULL%1,             Min%Ma%NULL%1,             Li J.%Tang%NULL%1,             Ying Y.%Chen%chenyingy@whu.edu.cn%1,             Feng%Zheng%fengzheng@whu.edu.cn%1,             Jian J.%Ke%1219628972@qq.com%1,             Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,            Bonardelli%S.%coreGivesNoEmail%1,            Calza%S.%coreGivesNoEmail%1,            Casiraghi%A.%coreGivesNoEmail%1,            Castelli%F.%coreGivesNoEmail%1,            Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,            Domenicucci%M.%coreGivesNoEmail%1,            Fontanella%M. M.%coreGivesNoEmail%1,            Gheza%F.%coreGivesNoEmail%1,            Lussardi%G. L.%coreGivesNoEmail%1,            Maroldi%R.%coreGivesNoEmail%1,            Milano%G.%coreGivesNoEmail%1,            Panciani%P. P.%coreGivesNoEmail%1,            Portolani%N.%coreGivesNoEmail%1,            Rasulo%F. A.%coreGivesNoEmail%1,            Saraceno%G.%coreGivesNoEmail%1,            Signorini%L.%coreGivesNoEmail%1,            Vecchiarelli%L.%coreGivesNoEmail%1,            Vezzoli%M.%coreGivesNoEmail%1,            Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -1651,7 +1841,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -1677,10 +1867,10 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1709,7 +1899,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1735,10 +1925,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1767,7 +1957,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -1793,10 +1983,10 @@
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -1823,7 +2013,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -1881,7 +2071,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -1910,7 +2100,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1939,7 +2129,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -1968,7 +2158,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1997,7 +2187,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2026,7 +2216,7 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2055,7 +2245,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2084,7 +2274,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2113,7 +2303,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -2142,7 +2332,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2171,7 +2361,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -2200,7 +2390,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2229,7 +2419,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2258,7 +2448,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -2287,7 +2477,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -2345,7 +2535,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="426">
   <si>
     <t>Doi</t>
   </si>
@@ -1449,6 +1449,78 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,            Bonardelli%S.%coreGivesNoEmail%1,            Calza%S.%coreGivesNoEmail%1,            Casiraghi%A.%coreGivesNoEmail%1,            Castelli%F.%coreGivesNoEmail%1,            Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,            Domenicucci%M.%coreGivesNoEmail%1,            Fontanella%M. M.%coreGivesNoEmail%1,            Gheza%F.%coreGivesNoEmail%1,            Lussardi%G. L.%coreGivesNoEmail%1,            Maroldi%R.%coreGivesNoEmail%1,            Milano%G.%coreGivesNoEmail%1,            Panciani%P. P.%coreGivesNoEmail%1,            Portolani%N.%coreGivesNoEmail%1,            Rasulo%F. A.%coreGivesNoEmail%1,            Saraceno%G.%coreGivesNoEmail%1,            Signorini%L.%coreGivesNoEmail%1,            Vecchiarelli%L.%coreGivesNoEmail%1,            Vezzoli%M.%coreGivesNoEmail%1,            Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,              Tania%Paredes%NULL%2,              Tania%Paredes%NULL%0,              David%Caceres%NULL%1,              Camille M.%Webb%NULL%1,              Luis M.%Valdez%NULL%1,              Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,              Andrea%Coscione%NULL%1,              Riccardo%D’Ambrosi%NULL%1,              Luca%Usai%NULL%1,              Claudio%Roscitano%NULL%1,              Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,              Yuan%Zhang%NULL%1,              Lei%Huang%NULL%0,              Bi-heng%Cheng%NULL%1,              Zhong-yuan%Xia%NULL%1,              Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,       Jinhua%Tian%xref no email%3,       Songming%He%xref no email%3,       Chuchao%Zhu%xref no email%3,       Jian%Wang%xref no email%0,       Chen%Liu%xref no email%3,       Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,              Long%Wang%NULL%1,              Gang%Wu%NULL%1,              Xiaoming%Lei%NULL%1,              Wei%Li%NULL%0,              Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,              L%Frigerio%NULL%1,              V%Savasi%NULL%1,              P%Vergani%NULL%1,              F%Prefumo%NULL%1,              S%Barresi%NULL%2,              S%Barresi%NULL%0,              S%Bianchi%NULL%1,              E%Ciriello%NULL%1,              F%Facchinetti%NULL%1,              MT%Gervasi%NULL%1,              E%Iurlaro%NULL%1,              A%Kustermann%NULL%1,              G%Mangili%NULL%1,              F%Mosca%NULL%1,              L%Patanè%NULL%1,              D%Spazzini%NULL%1,              A%Spinillo%NULL%1,              G%Trojano%NULL%1,              M%Vignali%NULL%1,              A%Villa%NULL%1,              GV%Zuccotti%NULL%1,              F%Parazzini%Fabio.parazzini@unimi.it%1,              I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,              Matthew%Libby%mnlibby@gmail.com%1,              Michael%Ochs%Michael.Ochs@usap.com%1,              Jennifer%Hanna%hannaj21@hotmail.com%1,              Julie E.%Mangino%Jemangino1@gmail.com%1,              Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,              Hongqing%Xi%NULL%1,              Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,              Shuai%Zhao%NULL%2,              Linlin%Han%NULL%1,              Qi%Wang%NULL%1,              Haifa%Xia%NULL%1,              Xin%Huang%NULL%1,              Shanglong%Yao%NULL%2,              Jiapeng%Huang%NULL%2,              Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,              Jihyang%Lee%NULL%2,              Jihyang%Lee%NULL%0,              Eunju%Kim%NULL%2,              Eunju%Kim%NULL%0,              Kyeongyoon%Woo%NULL%2,              Kyeongyoon%Woo%NULL%0,              Hak Youle%Park%NULL%2,              Hak Youle%Park%NULL%0,              Jihyun%An%NULL%2,              Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,              Ruihong%Zhao%NULL%2,              Shufa%Zheng%NULL%1,              Xu%Chen%NULL%0,              Jinxi%Wang%NULL%1,              Xiaoli%Sheng%NULL%1,              Jianying%Zhou%NULL%1,              Hongliu%Cai%NULL%1,              Qiang%Fang%NULL%0,              Fei%Yu%NULL%1,              Jian%Fan%NULL%1,              Kaijin%Xu%NULL%1,              Yu%Chen%NULL%2,              Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,              Lin%Sang%NULL%1,              Shihua%Du%NULL%1,              Tao%Li%NULL%0,              Yange%Chang%NULL%1,              Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,       Rita%Valente%xref no email%1,       Marta%Ros\u00e1rio%xref no email%1,       Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,       Lang%Chen%xref no email%1,       Adriana C.%Panayi%xref no email%0,       Jing%Liu%xref no email%0,       Faqi%Cao%xref no email%1,       Chenchen%Yan%xref no email%1,       Hang%Xue%xref no email%0,       Yiqiang%Hu%xref no email%1,       Liangcong%Hu%xref no email%1,       Ze%Lin%xref no email%0,       Xudong%Xie%xref no email%0,       Ranyang%Tao%xref no email%1,       Yun%Sun%xref no email%1,       Wu%Zhou%xref no email%0,       Yuan%Xiong%xref no email%1,       Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,              Abdulrahman%Odeh%NULL%1,              Simon%Ereidge%NULL%1,              Hosni Khairy%Salem%NULL%1,              Gareth P%Jones%NULL%1,              Anne%Gardner%NULL%1,              Shiva S%Tripathi%NULL%1,              Anne%Gregg%NULL%1,              Reuben%Jeganathan%NULL%1,              Muhammad Harris%Siddique%NULL%1,              Celestino P%Lombardi%NULL%1,              Benjamin%Martin%NULL%1,              Cosimo Alex%Leo%NULL%1,              Debashis%Dass%NULL%1,              Gregorio%Di Franco%NULL%1,              Long R%Jiao%NULL%1,              Giulio Maria%Mari%NULL%1,              Luis-Cristobal%Capitan-Morales%NULL%1,              Tara M%Connelly%NULL%1,              Ammar%Alanbuki%NULL%1,              Armando%De Virgilio%NULL%1,              Clare%Schilling%NULL%1,              Carlos%San Miguel Mendez%NULL%1,              Gauri%Kulkarni%NULL%1,              Kulsoom%Nizami%NULL%1,              Stewart%Walsh%NULL%1,              Harry%Dean%NULL%1,              Miguel%Ruiz-Marin%NULL%1,              Rory%Houston%NULL%1,              Mario%Trompetto%NULL%1,              David%Chrastek%NULL%1,              Vasileios%Kouritas%NULL%1,              Maria%Cannoletta%NULL%1,              Francesco%Rosato%NULL%1,              Manish V%Kaushal%NULL%1,              Paulo Matos%Costa%NULL%1,              Hannah H%Elkadi%NULL%1,              Jack R%Johnstone%NULL%1,              Esmee%Irvine%NULL%1,              Maria R%Alvarez%NULL%1,              Carlo%Corbellini%NULL%1,              Gowtham S%Venkatesan%NULL%1,              Olga%Mateo-Sierra%NULL%1,              Carolina%Martínez-Pérez%NULL%1,              Javier%Serrano González%NULL%1,              Miguel Õngel%Hernández Bartolomé%NULL%1,              David%Díaz Pérez%NULL%1,              María%Gutiérrez Samaniego%NULL%1,              Pablo%Galindo Jara%NULL%1,              Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,       Xiao%Weimin%xref no email%1,       Ling%Ken%xref no email%1,       Yao%Shanglong%xref no email%1,       Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,              Guoting%Xu%NULL%1,              Yong%Yang%NULL%1,              Yuan%Tao%NULL%1,              May%Pian-Smith%NULL%1,              Vandana%Madhavan%NULL%1,              Zhongcong%Xie%zxie@mgh.harvard.edu%1,              Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,              Zhiqiang%Zhou%NULL%2,              Jianping%Zhang%NULL%2,              Fengfeng%Zhu%NULL%2,              Yongyan%Tang%NULL%2,              Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,              Shuai%Zhao%NULL%0,              Zhouyang%Wu%NULL%1,              Huilin%Luo%NULL%1,              Cheng%Zhou%NULL%1,              Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,       Chen%Xu%xref no email%1,       Junli%Fan%xref no email%1,       Yueting%Tang%xref no email%1,       Qiaoling%Deng%xref no email%2,       Wei%Zhang%xref no email%1,       Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,              Xue-Jie%Yu%NULL%1,              Tao%Fu%NULL%1,              Yu%Liu%NULL%2,              Yu%Liu%NULL%0,              Yan%Jiang%NULL%1,              Bing Xiang%Yang%NULL%1,              Yongyi%Bi%NULL%2,              Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,              Ken%Ling%NULL%1,              Hong%Yan%NULL%1,              Liang%Zhong%NULL%1,              Xiaohong%Peng%NULL%1,              Shanglong%Yao%NULL%0,              Jiapeng%Huang%NULL%0,              Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,              Yin Y.%Liu%NULL%1,              Qiong%Luo%NULL%1,              Yu F.%Zou%NULL%1,              Hai X.%Jiang%NULL%1,              Hui%Li%NULL%0,              Jing J.%Zhang%NULL%1,              Zhen%Li%NULL%0,              Xin%Yang%NULL%1,              Min%Ma%NULL%1,              Li J.%Tang%NULL%1,              Ying Y.%Chen%chenyingy@whu.edu.cn%1,              Feng%Zheng%fengzheng@whu.edu.cn%1,              Jian J.%Ke%1219628972@qq.com%1,              Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,             Bonardelli%S.%coreGivesNoEmail%1,             Calza%S.%coreGivesNoEmail%1,             Casiraghi%A.%coreGivesNoEmail%1,             Castelli%F.%coreGivesNoEmail%1,             Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,             Domenicucci%M.%coreGivesNoEmail%1,             Fontanella%M. M.%coreGivesNoEmail%1,             Gheza%F.%coreGivesNoEmail%1,             Lussardi%G. L.%coreGivesNoEmail%1,             Maroldi%R.%coreGivesNoEmail%1,             Milano%G.%coreGivesNoEmail%1,             Panciani%P. P.%coreGivesNoEmail%1,             Portolani%N.%coreGivesNoEmail%1,             Rasulo%F. A.%coreGivesNoEmail%1,             Saraceno%G.%coreGivesNoEmail%1,             Signorini%L.%coreGivesNoEmail%1,             Vecchiarelli%L.%coreGivesNoEmail%1,             Vezzoli%M.%coreGivesNoEmail%1,             Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1884,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -1841,7 +1913,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -1870,7 +1942,7 @@
         <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1899,7 +1971,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1928,7 +2000,7 @@
         <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1957,7 +2029,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -1986,7 +2058,7 @@
         <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -2013,7 +2085,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -2071,7 +2143,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -2100,7 +2172,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2129,7 +2201,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -2158,7 +2230,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2187,7 +2259,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2216,7 +2288,7 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2245,7 +2317,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2274,7 +2346,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2303,7 +2375,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -2332,7 +2404,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2361,7 +2433,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -2390,7 +2462,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2419,7 +2491,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2448,7 +2520,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -2477,7 +2549,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -2535,7 +2607,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="450">
   <si>
     <t>Doi</t>
   </si>
@@ -1521,6 +1521,78 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,             Bonardelli%S.%coreGivesNoEmail%1,             Calza%S.%coreGivesNoEmail%1,             Casiraghi%A.%coreGivesNoEmail%1,             Castelli%F.%coreGivesNoEmail%1,             Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,             Domenicucci%M.%coreGivesNoEmail%1,             Fontanella%M. M.%coreGivesNoEmail%1,             Gheza%F.%coreGivesNoEmail%1,             Lussardi%G. L.%coreGivesNoEmail%1,             Maroldi%R.%coreGivesNoEmail%1,             Milano%G.%coreGivesNoEmail%1,             Panciani%P. P.%coreGivesNoEmail%1,             Portolani%N.%coreGivesNoEmail%1,             Rasulo%F. A.%coreGivesNoEmail%1,             Saraceno%G.%coreGivesNoEmail%1,             Signorini%L.%coreGivesNoEmail%1,             Vecchiarelli%L.%coreGivesNoEmail%1,             Vezzoli%M.%coreGivesNoEmail%1,             Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,               Tania%Paredes%NULL%2,               Tania%Paredes%NULL%0,               David%Caceres%NULL%1,               Camille M.%Webb%NULL%1,               Luis M.%Valdez%NULL%1,               Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,               Andrea%Coscione%NULL%1,               Riccardo%D’Ambrosi%NULL%1,               Luca%Usai%NULL%1,               Claudio%Roscitano%NULL%1,               Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,               Yuan%Zhang%NULL%1,               Lei%Huang%NULL%0,               Bi-heng%Cheng%NULL%1,               Zhong-yuan%Xia%NULL%1,               Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,        Jinhua%Tian%xref no email%3,        Songming%He%xref no email%3,        Chuchao%Zhu%xref no email%3,        Jian%Wang%xref no email%0,        Chen%Liu%xref no email%3,        Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,               Long%Wang%NULL%1,               Gang%Wu%NULL%1,               Xiaoming%Lei%NULL%1,               Wei%Li%NULL%0,               Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,               L%Frigerio%NULL%1,               V%Savasi%NULL%1,               P%Vergani%NULL%1,               F%Prefumo%NULL%1,               S%Barresi%NULL%2,               S%Barresi%NULL%0,               S%Bianchi%NULL%1,               E%Ciriello%NULL%1,               F%Facchinetti%NULL%1,               MT%Gervasi%NULL%1,               E%Iurlaro%NULL%1,               A%Kustermann%NULL%1,               G%Mangili%NULL%1,               F%Mosca%NULL%1,               L%Patanè%NULL%1,               D%Spazzini%NULL%1,               A%Spinillo%NULL%1,               G%Trojano%NULL%1,               M%Vignali%NULL%1,               A%Villa%NULL%1,               GV%Zuccotti%NULL%1,               F%Parazzini%Fabio.parazzini@unimi.it%1,               I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,               Matthew%Libby%mnlibby@gmail.com%1,               Michael%Ochs%Michael.Ochs@usap.com%1,               Jennifer%Hanna%hannaj21@hotmail.com%1,               Julie E.%Mangino%Jemangino1@gmail.com%1,               Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,               Hongqing%Xi%NULL%1,               Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,               Shuai%Zhao%NULL%2,               Linlin%Han%NULL%1,               Qi%Wang%NULL%1,               Haifa%Xia%NULL%1,               Xin%Huang%NULL%1,               Shanglong%Yao%NULL%2,               Jiapeng%Huang%NULL%2,               Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,               Jihyang%Lee%NULL%2,               Jihyang%Lee%NULL%0,               Eunju%Kim%NULL%2,               Eunju%Kim%NULL%0,               Kyeongyoon%Woo%NULL%2,               Kyeongyoon%Woo%NULL%0,               Hak Youle%Park%NULL%2,               Hak Youle%Park%NULL%0,               Jihyun%An%NULL%2,               Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,               Ruihong%Zhao%NULL%2,               Shufa%Zheng%NULL%1,               Xu%Chen%NULL%0,               Jinxi%Wang%NULL%1,               Xiaoli%Sheng%NULL%1,               Jianying%Zhou%NULL%1,               Hongliu%Cai%NULL%1,               Qiang%Fang%NULL%0,               Fei%Yu%NULL%1,               Jian%Fan%NULL%1,               Kaijin%Xu%NULL%1,               Yu%Chen%NULL%2,               Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,               Lin%Sang%NULL%1,               Shihua%Du%NULL%1,               Tao%Li%NULL%0,               Yange%Chang%NULL%1,               Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,        Rita%Valente%xref no email%1,        Marta%Ros\u00e1rio%xref no email%1,        Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,        Lang%Chen%xref no email%1,        Adriana C.%Panayi%xref no email%0,        Jing%Liu%xref no email%0,        Faqi%Cao%xref no email%1,        Chenchen%Yan%xref no email%1,        Hang%Xue%xref no email%0,        Yiqiang%Hu%xref no email%1,        Liangcong%Hu%xref no email%1,        Ze%Lin%xref no email%0,        Xudong%Xie%xref no email%0,        Ranyang%Tao%xref no email%1,        Yun%Sun%xref no email%1,        Wu%Zhou%xref no email%0,        Yuan%Xiong%xref no email%1,        Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,               Abdulrahman%Odeh%NULL%1,               Simon%Ereidge%NULL%1,               Hosni Khairy%Salem%NULL%1,               Gareth P%Jones%NULL%1,               Anne%Gardner%NULL%1,               Shiva S%Tripathi%NULL%1,               Anne%Gregg%NULL%1,               Reuben%Jeganathan%NULL%1,               Muhammad Harris%Siddique%NULL%1,               Celestino P%Lombardi%NULL%1,               Benjamin%Martin%NULL%1,               Cosimo Alex%Leo%NULL%1,               Debashis%Dass%NULL%1,               Gregorio%Di Franco%NULL%1,               Long R%Jiao%NULL%1,               Giulio Maria%Mari%NULL%1,               Luis-Cristobal%Capitan-Morales%NULL%1,               Tara M%Connelly%NULL%1,               Ammar%Alanbuki%NULL%1,               Armando%De Virgilio%NULL%1,               Clare%Schilling%NULL%1,               Carlos%San Miguel Mendez%NULL%1,               Gauri%Kulkarni%NULL%1,               Kulsoom%Nizami%NULL%1,               Stewart%Walsh%NULL%1,               Harry%Dean%NULL%1,               Miguel%Ruiz-Marin%NULL%1,               Rory%Houston%NULL%1,               Mario%Trompetto%NULL%1,               David%Chrastek%NULL%1,               Vasileios%Kouritas%NULL%1,               Maria%Cannoletta%NULL%1,               Francesco%Rosato%NULL%1,               Manish V%Kaushal%NULL%1,               Paulo Matos%Costa%NULL%1,               Hannah H%Elkadi%NULL%1,               Jack R%Johnstone%NULL%1,               Esmee%Irvine%NULL%1,               Maria R%Alvarez%NULL%1,               Carlo%Corbellini%NULL%1,               Gowtham S%Venkatesan%NULL%1,               Olga%Mateo-Sierra%NULL%1,               Carolina%Martínez-Pérez%NULL%1,               Javier%Serrano González%NULL%1,               Miguel Õngel%Hernández Bartolomé%NULL%1,               David%Díaz Pérez%NULL%1,               María%Gutiérrez Samaniego%NULL%1,               Pablo%Galindo Jara%NULL%1,               Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,        Xiao%Weimin%xref no email%1,        Ling%Ken%xref no email%1,        Yao%Shanglong%xref no email%1,        Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,               Guoting%Xu%NULL%1,               Yong%Yang%NULL%1,               Yuan%Tao%NULL%1,               May%Pian-Smith%NULL%1,               Vandana%Madhavan%NULL%1,               Zhongcong%Xie%zxie@mgh.harvard.edu%1,               Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,               Zhiqiang%Zhou%NULL%2,               Jianping%Zhang%NULL%2,               Fengfeng%Zhu%NULL%2,               Yongyan%Tang%NULL%2,               Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,               Shuai%Zhao%NULL%0,               Zhouyang%Wu%NULL%1,               Huilin%Luo%NULL%1,               Cheng%Zhou%NULL%1,               Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,        Chen%Xu%xref no email%1,        Junli%Fan%xref no email%1,        Yueting%Tang%xref no email%1,        Qiaoling%Deng%xref no email%2,        Wei%Zhang%xref no email%1,        Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,               Xue-Jie%Yu%NULL%1,               Tao%Fu%NULL%1,               Yu%Liu%NULL%2,               Yu%Liu%NULL%0,               Yan%Jiang%NULL%1,               Bing Xiang%Yang%NULL%1,               Yongyi%Bi%NULL%2,               Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,               Ken%Ling%NULL%1,               Hong%Yan%NULL%1,               Liang%Zhong%NULL%1,               Xiaohong%Peng%NULL%1,               Shanglong%Yao%NULL%0,               Jiapeng%Huang%NULL%0,               Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,               Yin Y.%Liu%NULL%1,               Qiong%Luo%NULL%1,               Yu F.%Zou%NULL%1,               Hai X.%Jiang%NULL%1,               Hui%Li%NULL%0,               Jing J.%Zhang%NULL%1,               Zhen%Li%NULL%0,               Xin%Yang%NULL%1,               Min%Ma%NULL%1,               Li J.%Tang%NULL%1,               Ying Y.%Chen%chenyingy@whu.edu.cn%1,               Feng%Zheng%fengzheng@whu.edu.cn%1,               Jian J.%Ke%1219628972@qq.com%1,               Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,              Bonardelli%S.%coreGivesNoEmail%1,              Calza%S.%coreGivesNoEmail%1,              Casiraghi%A.%coreGivesNoEmail%1,              Castelli%F.%coreGivesNoEmail%1,              Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,              Domenicucci%M.%coreGivesNoEmail%1,              Fontanella%M. M.%coreGivesNoEmail%1,              Gheza%F.%coreGivesNoEmail%1,              Lussardi%G. L.%coreGivesNoEmail%1,              Maroldi%R.%coreGivesNoEmail%1,              Milano%G.%coreGivesNoEmail%1,              Panciani%P. P.%coreGivesNoEmail%1,              Portolani%N.%coreGivesNoEmail%1,              Rasulo%F. A.%coreGivesNoEmail%1,              Saraceno%G.%coreGivesNoEmail%1,              Signorini%L.%coreGivesNoEmail%1,              Vecchiarelli%L.%coreGivesNoEmail%1,              Vezzoli%M.%coreGivesNoEmail%1,              Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1956,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -1913,7 +1985,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -1942,7 +2014,7 @@
         <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1971,7 +2043,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2000,7 +2072,7 @@
         <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2029,7 +2101,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -2058,7 +2130,7 @@
         <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -2085,7 +2157,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -2143,7 +2215,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -2172,7 +2244,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2201,7 +2273,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -2230,7 +2302,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2259,7 +2331,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2288,7 +2360,7 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2317,7 +2389,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2346,7 +2418,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2375,7 +2447,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -2404,7 +2476,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2433,7 +2505,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -2462,7 +2534,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2491,7 +2563,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2520,7 +2592,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -2549,7 +2621,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -2607,7 +2679,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="498">
   <si>
     <t>Doi</t>
   </si>
@@ -1593,6 +1593,150 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,              Bonardelli%S.%coreGivesNoEmail%1,              Calza%S.%coreGivesNoEmail%1,              Casiraghi%A.%coreGivesNoEmail%1,              Castelli%F.%coreGivesNoEmail%1,              Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,              Domenicucci%M.%coreGivesNoEmail%1,              Fontanella%M. M.%coreGivesNoEmail%1,              Gheza%F.%coreGivesNoEmail%1,              Lussardi%G. L.%coreGivesNoEmail%1,              Maroldi%R.%coreGivesNoEmail%1,              Milano%G.%coreGivesNoEmail%1,              Panciani%P. P.%coreGivesNoEmail%1,              Portolani%N.%coreGivesNoEmail%1,              Rasulo%F. A.%coreGivesNoEmail%1,              Saraceno%G.%coreGivesNoEmail%1,              Signorini%L.%coreGivesNoEmail%1,              Vecchiarelli%L.%coreGivesNoEmail%1,              Vezzoli%M.%coreGivesNoEmail%1,              Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                Tania%Paredes%NULL%2,                Tania%Paredes%NULL%0,                David%Caceres%NULL%1,                Camille M.%Webb%NULL%1,                Luis M.%Valdez%NULL%1,                Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                Andrea%Coscione%NULL%1,                Riccardo%D’Ambrosi%NULL%1,                Luca%Usai%NULL%1,                Claudio%Roscitano%NULL%1,                Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                Yuan%Zhang%NULL%1,                Lei%Huang%NULL%0,                Bi-heng%Cheng%NULL%1,                Zhong-yuan%Xia%NULL%1,                Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,         Jinhua%Tian%xref no email%3,         Songming%He%xref no email%3,         Chuchao%Zhu%xref no email%3,         Jian%Wang%xref no email%0,         Chen%Liu%xref no email%3,         Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                Long%Wang%NULL%1,                Gang%Wu%NULL%1,                Xiaoming%Lei%NULL%1,                Wei%Li%NULL%0,                Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                L%Frigerio%NULL%1,                V%Savasi%NULL%1,                P%Vergani%NULL%1,                F%Prefumo%NULL%1,                S%Barresi%NULL%2,                S%Barresi%NULL%0,                S%Bianchi%NULL%1,                E%Ciriello%NULL%1,                F%Facchinetti%NULL%1,                MT%Gervasi%NULL%1,                E%Iurlaro%NULL%1,                A%Kustermann%NULL%1,                G%Mangili%NULL%1,                F%Mosca%NULL%1,                L%Patanè%NULL%1,                D%Spazzini%NULL%1,                A%Spinillo%NULL%1,                G%Trojano%NULL%1,                M%Vignali%NULL%1,                A%Villa%NULL%1,                GV%Zuccotti%NULL%1,                F%Parazzini%Fabio.parazzini@unimi.it%1,                I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                Matthew%Libby%mnlibby@gmail.com%1,                Michael%Ochs%Michael.Ochs@usap.com%1,                Jennifer%Hanna%hannaj21@hotmail.com%1,                Julie E.%Mangino%Jemangino1@gmail.com%1,                Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                Hongqing%Xi%NULL%1,                Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                Shuai%Zhao%NULL%2,                Linlin%Han%NULL%1,                Qi%Wang%NULL%1,                Haifa%Xia%NULL%1,                Xin%Huang%NULL%1,                Shanglong%Yao%NULL%2,                Jiapeng%Huang%NULL%2,                Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                Jihyang%Lee%NULL%2,                Jihyang%Lee%NULL%0,                Eunju%Kim%NULL%2,                Eunju%Kim%NULL%0,                Kyeongyoon%Woo%NULL%2,                Kyeongyoon%Woo%NULL%0,                Hak Youle%Park%NULL%2,                Hak Youle%Park%NULL%0,                Jihyun%An%NULL%2,                Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                Ruihong%Zhao%NULL%2,                Shufa%Zheng%NULL%1,                Xu%Chen%NULL%0,                Jinxi%Wang%NULL%1,                Xiaoli%Sheng%NULL%1,                Jianying%Zhou%NULL%1,                Hongliu%Cai%NULL%1,                Qiang%Fang%NULL%0,                Fei%Yu%NULL%1,                Jian%Fan%NULL%1,                Kaijin%Xu%NULL%1,                Yu%Chen%NULL%2,                Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                Lin%Sang%NULL%1,                Shihua%Du%NULL%1,                Tao%Li%NULL%0,                Yange%Chang%NULL%1,                Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,         Rita%Valente%xref no email%1,         Marta%Ros\u00e1rio%xref no email%1,         Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,         Lang%Chen%xref no email%1,         Adriana C.%Panayi%xref no email%0,         Jing%Liu%xref no email%0,         Faqi%Cao%xref no email%1,         Chenchen%Yan%xref no email%1,         Hang%Xue%xref no email%0,         Yiqiang%Hu%xref no email%1,         Liangcong%Hu%xref no email%1,         Ze%Lin%xref no email%0,         Xudong%Xie%xref no email%0,         Ranyang%Tao%xref no email%1,         Yun%Sun%xref no email%1,         Wu%Zhou%xref no email%0,         Yuan%Xiong%xref no email%1,         Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                Abdulrahman%Odeh%NULL%1,                Simon%Ereidge%NULL%1,                Hosni Khairy%Salem%NULL%1,                Gareth P%Jones%NULL%1,                Anne%Gardner%NULL%1,                Shiva S%Tripathi%NULL%1,                Anne%Gregg%NULL%1,                Reuben%Jeganathan%NULL%1,                Muhammad Harris%Siddique%NULL%1,                Celestino P%Lombardi%NULL%1,                Benjamin%Martin%NULL%1,                Cosimo Alex%Leo%NULL%1,                Debashis%Dass%NULL%1,                Gregorio%Di Franco%NULL%1,                Long R%Jiao%NULL%1,                Giulio Maria%Mari%NULL%1,                Luis-Cristobal%Capitan-Morales%NULL%1,                Tara M%Connelly%NULL%1,                Ammar%Alanbuki%NULL%1,                Armando%De Virgilio%NULL%1,                Clare%Schilling%NULL%1,                Carlos%San Miguel Mendez%NULL%1,                Gauri%Kulkarni%NULL%1,                Kulsoom%Nizami%NULL%1,                Stewart%Walsh%NULL%1,                Harry%Dean%NULL%1,                Miguel%Ruiz-Marin%NULL%1,                Rory%Houston%NULL%1,                Mario%Trompetto%NULL%1,                David%Chrastek%NULL%1,                Vasileios%Kouritas%NULL%1,                Maria%Cannoletta%NULL%1,                Francesco%Rosato%NULL%1,                Manish V%Kaushal%NULL%1,                Paulo Matos%Costa%NULL%1,                Hannah H%Elkadi%NULL%1,                Jack R%Johnstone%NULL%1,                Esmee%Irvine%NULL%1,                Maria R%Alvarez%NULL%1,                Carlo%Corbellini%NULL%1,                Gowtham S%Venkatesan%NULL%1,                Olga%Mateo-Sierra%NULL%1,                Carolina%Martínez-Pérez%NULL%1,                Javier%Serrano González%NULL%1,                Miguel Õngel%Hernández Bartolomé%NULL%1,                David%Díaz Pérez%NULL%1,                María%Gutiérrez Samaniego%NULL%1,                Pablo%Galindo Jara%NULL%1,                Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,         Xiao%Weimin%xref no email%1,         Ling%Ken%xref no email%1,         Yao%Shanglong%xref no email%1,         Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                Guoting%Xu%NULL%1,                Yong%Yang%NULL%1,                Yuan%Tao%NULL%1,                May%Pian-Smith%NULL%1,                Vandana%Madhavan%NULL%1,                Zhongcong%Xie%zxie@mgh.harvard.edu%1,                Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                Zhiqiang%Zhou%NULL%2,                Jianping%Zhang%NULL%2,                Fengfeng%Zhu%NULL%2,                Yongyan%Tang%NULL%2,                Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                Shuai%Zhao%NULL%0,                Zhouyang%Wu%NULL%1,                Huilin%Luo%NULL%1,                Cheng%Zhou%NULL%1,                Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,         Chen%Xu%xref no email%1,         Junli%Fan%xref no email%1,         Yueting%Tang%xref no email%1,         Qiaoling%Deng%xref no email%2,         Wei%Zhang%xref no email%1,         Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                Xue-Jie%Yu%NULL%1,                Tao%Fu%NULL%1,                Yu%Liu%NULL%2,                Yu%Liu%NULL%0,                Yan%Jiang%NULL%1,                Bing Xiang%Yang%NULL%1,                Yongyi%Bi%NULL%2,                Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                Ken%Ling%NULL%1,                Hong%Yan%NULL%1,                Liang%Zhong%NULL%1,                Xiaohong%Peng%NULL%1,                Shanglong%Yao%NULL%0,                Jiapeng%Huang%NULL%0,                Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                Yin Y.%Liu%NULL%1,                Qiong%Luo%NULL%1,                Yu F.%Zou%NULL%1,                Hai X.%Jiang%NULL%1,                Hui%Li%NULL%0,                Jing J.%Zhang%NULL%1,                Zhen%Li%NULL%0,                Xin%Yang%NULL%1,                Min%Ma%NULL%1,                Li J.%Tang%NULL%1,                Ying Y.%Chen%chenyingy@whu.edu.cn%1,                Feng%Zheng%fengzheng@whu.edu.cn%1,                Jian J.%Ke%1219628972@qq.com%1,                Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,               Bonardelli%S.%coreGivesNoEmail%1,               Calza%S.%coreGivesNoEmail%1,               Casiraghi%A.%coreGivesNoEmail%1,               Castelli%F.%coreGivesNoEmail%1,               Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,               Domenicucci%M.%coreGivesNoEmail%1,               Fontanella%M. M.%coreGivesNoEmail%1,               Gheza%F.%coreGivesNoEmail%1,               Lussardi%G. L.%coreGivesNoEmail%1,               Maroldi%R.%coreGivesNoEmail%1,               Milano%G.%coreGivesNoEmail%1,               Panciani%P. P.%coreGivesNoEmail%1,               Portolani%N.%coreGivesNoEmail%1,               Rasulo%F. A.%coreGivesNoEmail%1,               Saraceno%G.%coreGivesNoEmail%1,               Signorini%L.%coreGivesNoEmail%1,               Vecchiarelli%L.%coreGivesNoEmail%1,               Vezzoli%M.%coreGivesNoEmail%1,               Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                 Tania%Paredes%NULL%2,                 Tania%Paredes%NULL%0,                 David%Caceres%NULL%1,                 Camille M.%Webb%NULL%1,                 Luis M.%Valdez%NULL%1,                 Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                 Andrea%Coscione%NULL%1,                 Riccardo%D’Ambrosi%NULL%1,                 Luca%Usai%NULL%1,                 Claudio%Roscitano%NULL%1,                 Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                 Yuan%Zhang%NULL%1,                 Lei%Huang%NULL%0,                 Bi-heng%Cheng%NULL%1,                 Zhong-yuan%Xia%NULL%1,                 Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,          Jinhua%Tian%xref no email%3,          Songming%He%xref no email%3,          Chuchao%Zhu%xref no email%3,          Jian%Wang%xref no email%0,          Chen%Liu%xref no email%3,          Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                 Long%Wang%NULL%1,                 Gang%Wu%NULL%1,                 Xiaoming%Lei%NULL%1,                 Wei%Li%NULL%0,                 Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                 L%Frigerio%NULL%1,                 V%Savasi%NULL%1,                 P%Vergani%NULL%1,                 F%Prefumo%NULL%1,                 S%Barresi%NULL%2,                 S%Barresi%NULL%0,                 S%Bianchi%NULL%1,                 E%Ciriello%NULL%1,                 F%Facchinetti%NULL%1,                 MT%Gervasi%NULL%1,                 E%Iurlaro%NULL%1,                 A%Kustermann%NULL%1,                 G%Mangili%NULL%1,                 F%Mosca%NULL%1,                 L%Patanè%NULL%1,                 D%Spazzini%NULL%1,                 A%Spinillo%NULL%1,                 G%Trojano%NULL%1,                 M%Vignali%NULL%1,                 A%Villa%NULL%1,                 GV%Zuccotti%NULL%1,                 F%Parazzini%Fabio.parazzini@unimi.it%1,                 I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                 Matthew%Libby%mnlibby@gmail.com%1,                 Michael%Ochs%Michael.Ochs@usap.com%1,                 Jennifer%Hanna%hannaj21@hotmail.com%1,                 Julie E.%Mangino%Jemangino1@gmail.com%1,                 Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                 Hongqing%Xi%NULL%1,                 Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                 Shuai%Zhao%NULL%2,                 Linlin%Han%NULL%1,                 Qi%Wang%NULL%1,                 Haifa%Xia%NULL%1,                 Xin%Huang%NULL%1,                 Shanglong%Yao%NULL%2,                 Jiapeng%Huang%NULL%2,                 Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                 Jihyang%Lee%NULL%2,                 Jihyang%Lee%NULL%0,                 Eunju%Kim%NULL%2,                 Eunju%Kim%NULL%0,                 Kyeongyoon%Woo%NULL%2,                 Kyeongyoon%Woo%NULL%0,                 Hak Youle%Park%NULL%2,                 Hak Youle%Park%NULL%0,                 Jihyun%An%NULL%2,                 Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                 Ruihong%Zhao%NULL%2,                 Shufa%Zheng%NULL%1,                 Xu%Chen%NULL%0,                 Jinxi%Wang%NULL%1,                 Xiaoli%Sheng%NULL%1,                 Jianying%Zhou%NULL%1,                 Hongliu%Cai%NULL%1,                 Qiang%Fang%NULL%0,                 Fei%Yu%NULL%1,                 Jian%Fan%NULL%1,                 Kaijin%Xu%NULL%1,                 Yu%Chen%NULL%2,                 Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                 Lin%Sang%NULL%1,                 Shihua%Du%NULL%1,                 Tao%Li%NULL%0,                 Yange%Chang%NULL%1,                 Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,          Rita%Valente%xref no email%1,          Marta%Ros\u00e1rio%xref no email%1,          Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,          Lang%Chen%xref no email%1,          Adriana C.%Panayi%xref no email%0,          Jing%Liu%xref no email%0,          Faqi%Cao%xref no email%1,          Chenchen%Yan%xref no email%1,          Hang%Xue%xref no email%0,          Yiqiang%Hu%xref no email%1,          Liangcong%Hu%xref no email%1,          Ze%Lin%xref no email%0,          Xudong%Xie%xref no email%0,          Ranyang%Tao%xref no email%1,          Yun%Sun%xref no email%1,          Wu%Zhou%xref no email%0,          Yuan%Xiong%xref no email%1,          Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                 Abdulrahman%Odeh%NULL%1,                 Simon%Ereidge%NULL%1,                 Hosni Khairy%Salem%NULL%1,                 Gareth P%Jones%NULL%1,                 Anne%Gardner%NULL%1,                 Shiva S%Tripathi%NULL%1,                 Anne%Gregg%NULL%1,                 Reuben%Jeganathan%NULL%1,                 Muhammad Harris%Siddique%NULL%1,                 Celestino P%Lombardi%NULL%1,                 Benjamin%Martin%NULL%1,                 Cosimo Alex%Leo%NULL%1,                 Debashis%Dass%NULL%1,                 Gregorio%Di Franco%NULL%1,                 Long R%Jiao%NULL%1,                 Giulio Maria%Mari%NULL%1,                 Luis-Cristobal%Capitan-Morales%NULL%1,                 Tara M%Connelly%NULL%1,                 Ammar%Alanbuki%NULL%1,                 Armando%De Virgilio%NULL%1,                 Clare%Schilling%NULL%1,                 Carlos%San Miguel Mendez%NULL%1,                 Gauri%Kulkarni%NULL%1,                 Kulsoom%Nizami%NULL%1,                 Stewart%Walsh%NULL%1,                 Harry%Dean%NULL%1,                 Miguel%Ruiz-Marin%NULL%1,                 Rory%Houston%NULL%1,                 Mario%Trompetto%NULL%1,                 David%Chrastek%NULL%1,                 Vasileios%Kouritas%NULL%1,                 Maria%Cannoletta%NULL%1,                 Francesco%Rosato%NULL%1,                 Manish V%Kaushal%NULL%1,                 Paulo Matos%Costa%NULL%1,                 Hannah H%Elkadi%NULL%1,                 Jack R%Johnstone%NULL%1,                 Esmee%Irvine%NULL%1,                 Maria R%Alvarez%NULL%1,                 Carlo%Corbellini%NULL%1,                 Gowtham S%Venkatesan%NULL%1,                 Olga%Mateo-Sierra%NULL%1,                 Carolina%Martínez-Pérez%NULL%1,                 Javier%Serrano González%NULL%1,                 Miguel Õngel%Hernández Bartolomé%NULL%1,                 David%Díaz Pérez%NULL%1,                 María%Gutiérrez Samaniego%NULL%1,                 Pablo%Galindo Jara%NULL%1,                 Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,          Xiao%Weimin%xref no email%1,          Ling%Ken%xref no email%1,          Yao%Shanglong%xref no email%1,          Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                 Guoting%Xu%NULL%1,                 Yong%Yang%NULL%1,                 Yuan%Tao%NULL%1,                 May%Pian-Smith%NULL%1,                 Vandana%Madhavan%NULL%1,                 Zhongcong%Xie%zxie@mgh.harvard.edu%1,                 Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                 Zhiqiang%Zhou%NULL%2,                 Jianping%Zhang%NULL%2,                 Fengfeng%Zhu%NULL%2,                 Yongyan%Tang%NULL%2,                 Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                 Shuai%Zhao%NULL%0,                 Zhouyang%Wu%NULL%1,                 Huilin%Luo%NULL%1,                 Cheng%Zhou%NULL%1,                 Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,          Chen%Xu%xref no email%1,          Junli%Fan%xref no email%1,          Yueting%Tang%xref no email%1,          Qiaoling%Deng%xref no email%2,          Wei%Zhang%xref no email%1,          Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                 Xue-Jie%Yu%NULL%1,                 Tao%Fu%NULL%1,                 Yu%Liu%NULL%2,                 Yu%Liu%NULL%0,                 Yan%Jiang%NULL%1,                 Bing Xiang%Yang%NULL%1,                 Yongyi%Bi%NULL%2,                 Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                 Ken%Ling%NULL%1,                 Hong%Yan%NULL%1,                 Liang%Zhong%NULL%1,                 Xiaohong%Peng%NULL%1,                 Shanglong%Yao%NULL%0,                 Jiapeng%Huang%NULL%0,                 Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                 Yin Y.%Liu%NULL%1,                 Qiong%Luo%NULL%1,                 Yu F.%Zou%NULL%1,                 Hai X.%Jiang%NULL%1,                 Hui%Li%NULL%0,                 Jing J.%Zhang%NULL%1,                 Zhen%Li%NULL%0,                 Xin%Yang%NULL%1,                 Min%Ma%NULL%1,                 Li J.%Tang%NULL%1,                 Ying Y.%Chen%chenyingy@whu.edu.cn%1,                 Feng%Zheng%fengzheng@whu.edu.cn%1,                 Jian J.%Ke%1219628972@qq.com%1,                 Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                Bonardelli%S.%coreGivesNoEmail%1,                Calza%S.%coreGivesNoEmail%1,                Casiraghi%A.%coreGivesNoEmail%1,                Castelli%F.%coreGivesNoEmail%1,                Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                Domenicucci%M.%coreGivesNoEmail%1,                Fontanella%M. M.%coreGivesNoEmail%1,                Gheza%F.%coreGivesNoEmail%1,                Lussardi%G. L.%coreGivesNoEmail%1,                Maroldi%R.%coreGivesNoEmail%1,                Milano%G.%coreGivesNoEmail%1,                Panciani%P. P.%coreGivesNoEmail%1,                Portolani%N.%coreGivesNoEmail%1,                Rasulo%F. A.%coreGivesNoEmail%1,                Saraceno%G.%coreGivesNoEmail%1,                Signorini%L.%coreGivesNoEmail%1,                Vecchiarelli%L.%coreGivesNoEmail%1,                Vezzoli%M.%coreGivesNoEmail%1,                Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +2100,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -1985,7 +2129,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2014,7 +2158,7 @@
         <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2043,7 +2187,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2072,7 +2216,7 @@
         <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2101,7 +2245,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -2130,7 +2274,7 @@
         <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -2157,7 +2301,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -2215,7 +2359,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -2244,7 +2388,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2273,7 +2417,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -2302,7 +2446,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2331,7 +2475,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2360,7 +2504,7 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2389,7 +2533,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2418,7 +2562,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2447,7 +2591,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -2476,7 +2620,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2505,7 +2649,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -2534,7 +2678,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2563,7 +2707,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2592,7 +2736,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -2621,7 +2765,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -2679,7 +2823,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="522">
   <si>
     <t>Doi</t>
   </si>
@@ -1737,6 +1737,78 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                Bonardelli%S.%coreGivesNoEmail%1,                Calza%S.%coreGivesNoEmail%1,                Casiraghi%A.%coreGivesNoEmail%1,                Castelli%F.%coreGivesNoEmail%1,                Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                Domenicucci%M.%coreGivesNoEmail%1,                Fontanella%M. M.%coreGivesNoEmail%1,                Gheza%F.%coreGivesNoEmail%1,                Lussardi%G. L.%coreGivesNoEmail%1,                Maroldi%R.%coreGivesNoEmail%1,                Milano%G.%coreGivesNoEmail%1,                Panciani%P. P.%coreGivesNoEmail%1,                Portolani%N.%coreGivesNoEmail%1,                Rasulo%F. A.%coreGivesNoEmail%1,                Saraceno%G.%coreGivesNoEmail%1,                Signorini%L.%coreGivesNoEmail%1,                Vecchiarelli%L.%coreGivesNoEmail%1,                Vezzoli%M.%coreGivesNoEmail%1,                Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                  Tania%Paredes%NULL%2,                  Tania%Paredes%NULL%0,                  David%Caceres%NULL%1,                  Camille M.%Webb%NULL%1,                  Luis M.%Valdez%NULL%1,                  Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                  Andrea%Coscione%NULL%1,                  Riccardo%D’Ambrosi%NULL%1,                  Luca%Usai%NULL%1,                  Claudio%Roscitano%NULL%1,                  Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                  Yuan%Zhang%NULL%1,                  Lei%Huang%NULL%0,                  Bi-heng%Cheng%NULL%1,                  Zhong-yuan%Xia%NULL%1,                  Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,           Jinhua%Tian%xref no email%3,           Songming%He%xref no email%3,           Chuchao%Zhu%xref no email%3,           Jian%Wang%xref no email%0,           Chen%Liu%xref no email%3,           Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                  Long%Wang%NULL%1,                  Gang%Wu%NULL%1,                  Xiaoming%Lei%NULL%1,                  Wei%Li%NULL%0,                  Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                  L%Frigerio%NULL%1,                  V%Savasi%NULL%1,                  P%Vergani%NULL%1,                  F%Prefumo%NULL%1,                  S%Barresi%NULL%2,                  S%Barresi%NULL%0,                  S%Bianchi%NULL%1,                  E%Ciriello%NULL%1,                  F%Facchinetti%NULL%1,                  MT%Gervasi%NULL%1,                  E%Iurlaro%NULL%1,                  A%Kustermann%NULL%1,                  G%Mangili%NULL%1,                  F%Mosca%NULL%1,                  L%Patanè%NULL%1,                  D%Spazzini%NULL%1,                  A%Spinillo%NULL%1,                  G%Trojano%NULL%1,                  M%Vignali%NULL%1,                  A%Villa%NULL%1,                  GV%Zuccotti%NULL%1,                  F%Parazzini%Fabio.parazzini@unimi.it%1,                  I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                  Matthew%Libby%mnlibby@gmail.com%1,                  Michael%Ochs%Michael.Ochs@usap.com%1,                  Jennifer%Hanna%hannaj21@hotmail.com%1,                  Julie E.%Mangino%Jemangino1@gmail.com%1,                  Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                  Hongqing%Xi%NULL%1,                  Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                  Shuai%Zhao%NULL%2,                  Linlin%Han%NULL%1,                  Qi%Wang%NULL%1,                  Haifa%Xia%NULL%1,                  Xin%Huang%NULL%1,                  Shanglong%Yao%NULL%2,                  Jiapeng%Huang%NULL%2,                  Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                  Jihyang%Lee%NULL%2,                  Jihyang%Lee%NULL%0,                  Eunju%Kim%NULL%2,                  Eunju%Kim%NULL%0,                  Kyeongyoon%Woo%NULL%2,                  Kyeongyoon%Woo%NULL%0,                  Hak Youle%Park%NULL%2,                  Hak Youle%Park%NULL%0,                  Jihyun%An%NULL%2,                  Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                  Ruihong%Zhao%NULL%2,                  Shufa%Zheng%NULL%1,                  Xu%Chen%NULL%0,                  Jinxi%Wang%NULL%1,                  Xiaoli%Sheng%NULL%1,                  Jianying%Zhou%NULL%1,                  Hongliu%Cai%NULL%1,                  Qiang%Fang%NULL%0,                  Fei%Yu%NULL%1,                  Jian%Fan%NULL%1,                  Kaijin%Xu%NULL%1,                  Yu%Chen%NULL%2,                  Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                  Lin%Sang%NULL%1,                  Shihua%Du%NULL%1,                  Tao%Li%NULL%0,                  Yange%Chang%NULL%1,                  Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,           Rita%Valente%xref no email%1,           Marta%Ros\u00e1rio%xref no email%1,           Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,           Lang%Chen%xref no email%1,           Adriana C.%Panayi%xref no email%0,           Jing%Liu%xref no email%0,           Faqi%Cao%xref no email%1,           Chenchen%Yan%xref no email%1,           Hang%Xue%xref no email%0,           Yiqiang%Hu%xref no email%1,           Liangcong%Hu%xref no email%1,           Ze%Lin%xref no email%0,           Xudong%Xie%xref no email%0,           Ranyang%Tao%xref no email%1,           Yun%Sun%xref no email%1,           Wu%Zhou%xref no email%0,           Yuan%Xiong%xref no email%1,           Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                  Abdulrahman%Odeh%NULL%1,                  Simon%Ereidge%NULL%1,                  Hosni Khairy%Salem%NULL%1,                  Gareth P%Jones%NULL%1,                  Anne%Gardner%NULL%1,                  Shiva S%Tripathi%NULL%1,                  Anne%Gregg%NULL%1,                  Reuben%Jeganathan%NULL%1,                  Muhammad Harris%Siddique%NULL%1,                  Celestino P%Lombardi%NULL%1,                  Benjamin%Martin%NULL%1,                  Cosimo Alex%Leo%NULL%1,                  Debashis%Dass%NULL%1,                  Gregorio%Di Franco%NULL%1,                  Long R%Jiao%NULL%1,                  Giulio Maria%Mari%NULL%1,                  Luis-Cristobal%Capitan-Morales%NULL%1,                  Tara M%Connelly%NULL%1,                  Ammar%Alanbuki%NULL%1,                  Armando%De Virgilio%NULL%1,                  Clare%Schilling%NULL%1,                  Carlos%San Miguel Mendez%NULL%1,                  Gauri%Kulkarni%NULL%1,                  Kulsoom%Nizami%NULL%1,                  Stewart%Walsh%NULL%1,                  Harry%Dean%NULL%1,                  Miguel%Ruiz-Marin%NULL%1,                  Rory%Houston%NULL%1,                  Mario%Trompetto%NULL%1,                  David%Chrastek%NULL%1,                  Vasileios%Kouritas%NULL%1,                  Maria%Cannoletta%NULL%1,                  Francesco%Rosato%NULL%1,                  Manish V%Kaushal%NULL%1,                  Paulo Matos%Costa%NULL%1,                  Hannah H%Elkadi%NULL%1,                  Jack R%Johnstone%NULL%1,                  Esmee%Irvine%NULL%1,                  Maria R%Alvarez%NULL%1,                  Carlo%Corbellini%NULL%1,                  Gowtham S%Venkatesan%NULL%1,                  Olga%Mateo-Sierra%NULL%1,                  Carolina%Martínez-Pérez%NULL%1,                  Javier%Serrano González%NULL%1,                  Miguel Õngel%Hernández Bartolomé%NULL%1,                  David%Díaz Pérez%NULL%1,                  María%Gutiérrez Samaniego%NULL%1,                  Pablo%Galindo Jara%NULL%1,                  Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,           Xiao%Weimin%xref no email%1,           Ling%Ken%xref no email%1,           Yao%Shanglong%xref no email%1,           Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                  Guoting%Xu%NULL%1,                  Yong%Yang%NULL%1,                  Yuan%Tao%NULL%1,                  May%Pian-Smith%NULL%1,                  Vandana%Madhavan%NULL%1,                  Zhongcong%Xie%zxie@mgh.harvard.edu%1,                  Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                  Zhiqiang%Zhou%NULL%2,                  Jianping%Zhang%NULL%2,                  Fengfeng%Zhu%NULL%2,                  Yongyan%Tang%NULL%2,                  Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                  Shuai%Zhao%NULL%0,                  Zhouyang%Wu%NULL%1,                  Huilin%Luo%NULL%1,                  Cheng%Zhou%NULL%1,                  Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,           Chen%Xu%xref no email%1,           Junli%Fan%xref no email%1,           Yueting%Tang%xref no email%1,           Qiaoling%Deng%xref no email%2,           Wei%Zhang%xref no email%1,           Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                  Xue-Jie%Yu%NULL%1,                  Tao%Fu%NULL%1,                  Yu%Liu%NULL%2,                  Yu%Liu%NULL%0,                  Yan%Jiang%NULL%1,                  Bing Xiang%Yang%NULL%1,                  Yongyi%Bi%NULL%2,                  Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                  Ken%Ling%NULL%1,                  Hong%Yan%NULL%1,                  Liang%Zhong%NULL%1,                  Xiaohong%Peng%NULL%1,                  Shanglong%Yao%NULL%0,                  Jiapeng%Huang%NULL%0,                  Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                  Yin Y.%Liu%NULL%1,                  Qiong%Luo%NULL%1,                  Yu F.%Zou%NULL%1,                  Hai X.%Jiang%NULL%1,                  Hui%Li%NULL%0,                  Jing J.%Zhang%NULL%1,                  Zhen%Li%NULL%0,                  Xin%Yang%NULL%1,                  Min%Ma%NULL%1,                  Li J.%Tang%NULL%1,                  Ying Y.%Chen%chenyingy@whu.edu.cn%1,                  Feng%Zheng%fengzheng@whu.edu.cn%1,                  Jian J.%Ke%1219628972@qq.com%1,                  Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                 Bonardelli%S.%coreGivesNoEmail%1,                 Calza%S.%coreGivesNoEmail%1,                 Casiraghi%A.%coreGivesNoEmail%1,                 Castelli%F.%coreGivesNoEmail%1,                 Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                 Domenicucci%M.%coreGivesNoEmail%1,                 Fontanella%M. M.%coreGivesNoEmail%1,                 Gheza%F.%coreGivesNoEmail%1,                 Lussardi%G. L.%coreGivesNoEmail%1,                 Maroldi%R.%coreGivesNoEmail%1,                 Milano%G.%coreGivesNoEmail%1,                 Panciani%P. P.%coreGivesNoEmail%1,                 Portolani%N.%coreGivesNoEmail%1,                 Rasulo%F. A.%coreGivesNoEmail%1,                 Saraceno%G.%coreGivesNoEmail%1,                 Signorini%L.%coreGivesNoEmail%1,                 Vecchiarelli%L.%coreGivesNoEmail%1,                 Vezzoli%M.%coreGivesNoEmail%1,                 Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2172,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -2129,7 +2201,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2158,7 +2230,7 @@
         <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2187,7 +2259,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2216,7 +2288,7 @@
         <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2245,7 +2317,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -2274,7 +2346,7 @@
         <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -2301,7 +2373,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -2359,7 +2431,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -2388,7 +2460,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2417,7 +2489,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -2446,7 +2518,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2475,7 +2547,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2504,7 +2576,7 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2533,7 +2605,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2562,7 +2634,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2591,7 +2663,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -2620,7 +2692,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2649,7 +2721,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -2678,7 +2750,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2707,7 +2779,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2736,7 +2808,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -2765,7 +2837,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -2823,7 +2895,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="552">
   <si>
     <t>Doi</t>
   </si>
@@ -1809,6 +1809,96 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                 Bonardelli%S.%coreGivesNoEmail%1,                 Calza%S.%coreGivesNoEmail%1,                 Casiraghi%A.%coreGivesNoEmail%1,                 Castelli%F.%coreGivesNoEmail%1,                 Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                 Domenicucci%M.%coreGivesNoEmail%1,                 Fontanella%M. M.%coreGivesNoEmail%1,                 Gheza%F.%coreGivesNoEmail%1,                 Lussardi%G. L.%coreGivesNoEmail%1,                 Maroldi%R.%coreGivesNoEmail%1,                 Milano%G.%coreGivesNoEmail%1,                 Panciani%P. P.%coreGivesNoEmail%1,                 Portolani%N.%coreGivesNoEmail%1,                 Rasulo%F. A.%coreGivesNoEmail%1,                 Saraceno%G.%coreGivesNoEmail%1,                 Signorini%L.%coreGivesNoEmail%1,                 Vecchiarelli%L.%coreGivesNoEmail%1,                 Vezzoli%M.%coreGivesNoEmail%1,                 Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                   Tania%Paredes%NULL%2,                   Tania%Paredes%NULL%0,                   David%Caceres%NULL%1,                   Camille M.%Webb%NULL%1,                   Luis M.%Valdez%NULL%1,                   Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                   Andrea%Coscione%NULL%1,                   Riccardo%D’Ambrosi%NULL%1,                   Luca%Usai%NULL%1,                   Claudio%Roscitano%NULL%1,                   Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                   Yuan%Zhang%NULL%1,                   Lei%Huang%NULL%0,                   Bi-heng%Cheng%NULL%1,                   Zhong-yuan%Xia%NULL%1,                   Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,            Jinhua%Tian%xref no email%3,            Songming%He%xref no email%3,            Chuchao%Zhu%xref no email%3,            Jian%Wang%xref no email%0,            Chen%Liu%xref no email%3,            Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                   Long%Wang%NULL%1,                   Gang%Wu%NULL%1,                   Xiaoming%Lei%NULL%1,                   Wei%Li%NULL%0,                   Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                   L%Frigerio%NULL%1,                   V%Savasi%NULL%1,                   P%Vergani%NULL%1,                   F%Prefumo%NULL%1,                   S%Barresi%NULL%2,                   S%Barresi%NULL%0,                   S%Bianchi%NULL%1,                   E%Ciriello%NULL%1,                   F%Facchinetti%NULL%1,                   MT%Gervasi%NULL%1,                   E%Iurlaro%NULL%1,                   A%Kustermann%NULL%1,                   G%Mangili%NULL%1,                   F%Mosca%NULL%1,                   L%Patanè%NULL%1,                   D%Spazzini%NULL%1,                   A%Spinillo%NULL%1,                   G%Trojano%NULL%1,                   M%Vignali%NULL%1,                   A%Villa%NULL%1,                   GV%Zuccotti%NULL%1,                   F%Parazzini%Fabio.parazzini@unimi.it%1,                   I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                   Matthew%Libby%mnlibby@gmail.com%1,                   Michael%Ochs%Michael.Ochs@usap.com%1,                   Jennifer%Hanna%hannaj21@hotmail.com%1,                   Julie E.%Mangino%Jemangino1@gmail.com%1,                   Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                   Hongqing%Xi%NULL%1,                   Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>"COVID\u201019 in pregnancy with comorbidities: More liberal testing strategy is needed"</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%0, Julia%Savchenko%xref no email%0, Thomas%Brune%xref no email%0, Hampus%Josefsson%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                   Shuai%Zhao%NULL%2,                   Linlin%Han%NULL%1,                   Qi%Wang%NULL%1,                   Haifa%Xia%NULL%1,                   Xin%Huang%NULL%1,                   Shanglong%Yao%NULL%2,                   Jiapeng%Huang%NULL%2,                   Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                   Jihyang%Lee%NULL%2,                   Jihyang%Lee%NULL%0,                   Eunju%Kim%NULL%2,                   Eunju%Kim%NULL%0,                   Kyeongyoon%Woo%NULL%2,                   Kyeongyoon%Woo%NULL%0,                   Hak Youle%Park%NULL%2,                   Hak Youle%Park%NULL%0,                   Jihyun%An%NULL%2,                   Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                   Ruihong%Zhao%NULL%2,                   Shufa%Zheng%NULL%1,                   Xu%Chen%NULL%0,                   Jinxi%Wang%NULL%1,                   Xiaoli%Sheng%NULL%1,                   Jianying%Zhou%NULL%1,                   Hongliu%Cai%NULL%1,                   Qiang%Fang%NULL%0,                   Fei%Yu%NULL%1,                   Jian%Fan%NULL%1,                   Kaijin%Xu%NULL%1,                   Yu%Chen%NULL%2,                   Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                   Lin%Sang%NULL%1,                   Shihua%Du%NULL%1,                   Tao%Li%NULL%0,                   Yange%Chang%NULL%1,                   Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,            Rita%Valente%xref no email%1,            Marta%Ros\u00e1rio%xref no email%1,            Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,            Lang%Chen%xref no email%1,            Adriana C.%Panayi%xref no email%0,            Jing%Liu%xref no email%0,            Faqi%Cao%xref no email%1,            Chenchen%Yan%xref no email%1,            Hang%Xue%xref no email%0,            Yiqiang%Hu%xref no email%1,            Liangcong%Hu%xref no email%1,            Ze%Lin%xref no email%0,            Xudong%Xie%xref no email%0,            Ranyang%Tao%xref no email%1,            Yun%Sun%xref no email%1,            Wu%Zhou%xref no email%0,            Yuan%Xiong%xref no email%1,            Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                   Abdulrahman%Odeh%NULL%1,                   Simon%Ereidge%NULL%1,                   Hosni Khairy%Salem%NULL%1,                   Gareth P%Jones%NULL%1,                   Anne%Gardner%NULL%1,                   Shiva S%Tripathi%NULL%1,                   Anne%Gregg%NULL%1,                   Reuben%Jeganathan%NULL%1,                   Muhammad Harris%Siddique%NULL%1,                   Celestino P%Lombardi%NULL%1,                   Benjamin%Martin%NULL%1,                   Cosimo Alex%Leo%NULL%1,                   Debashis%Dass%NULL%1,                   Gregorio%Di Franco%NULL%1,                   Long R%Jiao%NULL%1,                   Giulio Maria%Mari%NULL%1,                   Luis-Cristobal%Capitan-Morales%NULL%1,                   Tara M%Connelly%NULL%1,                   Ammar%Alanbuki%NULL%1,                   Armando%De Virgilio%NULL%1,                   Clare%Schilling%NULL%1,                   Carlos%San Miguel Mendez%NULL%1,                   Gauri%Kulkarni%NULL%1,                   Kulsoom%Nizami%NULL%1,                   Stewart%Walsh%NULL%1,                   Harry%Dean%NULL%1,                   Miguel%Ruiz-Marin%NULL%1,                   Rory%Houston%NULL%1,                   Mario%Trompetto%NULL%1,                   David%Chrastek%NULL%1,                   Vasileios%Kouritas%NULL%1,                   Maria%Cannoletta%NULL%1,                   Francesco%Rosato%NULL%1,                   Manish V%Kaushal%NULL%1,                   Paulo Matos%Costa%NULL%1,                   Hannah H%Elkadi%NULL%1,                   Jack R%Johnstone%NULL%1,                   Esmee%Irvine%NULL%1,                   Maria R%Alvarez%NULL%1,                   Carlo%Corbellini%NULL%1,                   Gowtham S%Venkatesan%NULL%1,                   Olga%Mateo-Sierra%NULL%1,                   Carolina%Martínez-Pérez%NULL%1,                   Javier%Serrano González%NULL%1,                   Miguel Õngel%Hernández Bartolomé%NULL%1,                   David%Díaz Pérez%NULL%1,                   María%Gutiérrez Samaniego%NULL%1,                   Pablo%Galindo Jara%NULL%1,                   Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,            Xiao%Weimin%xref no email%1,            Ling%Ken%xref no email%1,            Yao%Shanglong%xref no email%1,            Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                   Guoting%Xu%NULL%1,                   Yong%Yang%NULL%1,                   Yuan%Tao%NULL%1,                   May%Pian-Smith%NULL%1,                   Vandana%Madhavan%NULL%1,                   Zhongcong%Xie%zxie@mgh.harvard.edu%1,                   Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                   Zhiqiang%Zhou%NULL%2,                   Jianping%Zhang%NULL%2,                   Fengfeng%Zhu%NULL%2,                   Yongyan%Tang%NULL%2,                   Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                   Shuai%Zhao%NULL%0,                   Zhouyang%Wu%NULL%1,                   Huilin%Luo%NULL%1,                   Cheng%Zhou%NULL%1,                   Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,            Chen%Xu%xref no email%1,            Junli%Fan%xref no email%1,            Yueting%Tang%xref no email%1,            Qiaoling%Deng%xref no email%2,            Wei%Zhang%xref no email%1,            Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                   Xue-Jie%Yu%NULL%1,                   Tao%Fu%NULL%1,                   Yu%Liu%NULL%2,                   Yu%Liu%NULL%0,                   Yan%Jiang%NULL%1,                   Bing Xiang%Yang%NULL%1,                   Yongyi%Bi%NULL%2,                   Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                   Ken%Ling%NULL%1,                   Hong%Yan%NULL%1,                   Liang%Zhong%NULL%1,                   Xiaohong%Peng%NULL%1,                   Shanglong%Yao%NULL%0,                   Jiapeng%Huang%NULL%0,                   Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                   Yin Y.%Liu%NULL%1,                   Qiong%Luo%NULL%1,                   Yu F.%Zou%NULL%1,                   Hai X.%Jiang%NULL%1,                   Hui%Li%NULL%0,                   Jing J.%Zhang%NULL%1,                   Zhen%Li%NULL%0,                   Xin%Yang%NULL%1,                   Min%Ma%NULL%1,                   Li J.%Tang%NULL%1,                   Ying Y.%Chen%chenyingy@whu.edu.cn%1,                   Feng%Zheng%fengzheng@whu.edu.cn%1,                   Jian J.%Ke%1219628972@qq.com%1,                   Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                  Bonardelli%S.%coreGivesNoEmail%1,                  Calza%S.%coreGivesNoEmail%1,                  Casiraghi%A.%coreGivesNoEmail%1,                  Castelli%F.%coreGivesNoEmail%1,                  Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                  Domenicucci%M.%coreGivesNoEmail%1,                  Fontanella%M. M.%coreGivesNoEmail%1,                  Gheza%F.%coreGivesNoEmail%1,                  Lussardi%G. L.%coreGivesNoEmail%1,                  Maroldi%R.%coreGivesNoEmail%1,                  Milano%G.%coreGivesNoEmail%1,                  Panciani%P. P.%coreGivesNoEmail%1,                  Portolani%N.%coreGivesNoEmail%1,                  Rasulo%F. A.%coreGivesNoEmail%1,                  Saraceno%G.%coreGivesNoEmail%1,                  Signorini%L.%coreGivesNoEmail%1,                  Vecchiarelli%L.%coreGivesNoEmail%1,                  Vezzoli%M.%coreGivesNoEmail%1,                  Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -2172,7 +2262,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -2184,7 +2274,7 @@
         <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3">
@@ -2201,7 +2291,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2213,7 +2303,7 @@
         <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4">
@@ -2230,7 +2320,7 @@
         <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2242,7 +2332,7 @@
         <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5">
@@ -2259,7 +2349,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2271,7 +2361,7 @@
         <v>249</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6">
@@ -2288,7 +2378,7 @@
         <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2300,7 +2390,7 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7">
@@ -2317,7 +2407,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -2329,7 +2419,7 @@
         <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8">
@@ -2346,7 +2436,7 @@
         <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -2358,7 +2448,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9">
@@ -2373,7 +2463,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -2385,7 +2475,7 @@
         <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10">
@@ -2396,22 +2486,22 @@
         <v>44013.0</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>533</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>534</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="I10" t="s">
         <v>71</v>
@@ -2431,7 +2521,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -2443,7 +2533,7 @@
         <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12">
@@ -2460,7 +2550,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2472,7 +2562,7 @@
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13">
@@ -2489,7 +2579,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -2501,7 +2591,7 @@
         <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14">
@@ -2518,7 +2608,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2530,7 +2620,7 @@
         <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15">
@@ -2547,7 +2637,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2559,7 +2649,7 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16">
@@ -2576,7 +2666,7 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2588,7 +2678,7 @@
         <v>264</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17">
@@ -2605,7 +2695,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2617,7 +2707,7 @@
         <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18">
@@ -2634,7 +2724,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2646,7 +2736,7 @@
         <v>268</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19">
@@ -2663,7 +2753,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -2675,7 +2765,7 @@
         <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20">
@@ -2692,7 +2782,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2704,7 +2794,7 @@
         <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21">
@@ -2721,7 +2811,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -2733,7 +2823,7 @@
         <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22">
@@ -2750,7 +2840,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2762,7 +2852,7 @@
         <v>274</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23">
@@ -2779,7 +2869,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2791,7 +2881,7 @@
         <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24">
@@ -2808,7 +2898,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -2820,7 +2910,7 @@
         <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25">
@@ -2837,7 +2927,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -2849,7 +2939,7 @@
         <v>120</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26">
@@ -2895,7 +2985,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -2907,7 +2997,7 @@
         <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="577">
   <si>
     <t>Doi</t>
   </si>
@@ -1899,6 +1899,81 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                  Bonardelli%S.%coreGivesNoEmail%1,                  Calza%S.%coreGivesNoEmail%1,                  Casiraghi%A.%coreGivesNoEmail%1,                  Castelli%F.%coreGivesNoEmail%1,                  Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                  Domenicucci%M.%coreGivesNoEmail%1,                  Fontanella%M. M.%coreGivesNoEmail%1,                  Gheza%F.%coreGivesNoEmail%1,                  Lussardi%G. L.%coreGivesNoEmail%1,                  Maroldi%R.%coreGivesNoEmail%1,                  Milano%G.%coreGivesNoEmail%1,                  Panciani%P. P.%coreGivesNoEmail%1,                  Portolani%N.%coreGivesNoEmail%1,                  Rasulo%F. A.%coreGivesNoEmail%1,                  Saraceno%G.%coreGivesNoEmail%1,                  Signorini%L.%coreGivesNoEmail%1,                  Vecchiarelli%L.%coreGivesNoEmail%1,                  Vezzoli%M.%coreGivesNoEmail%1,                  Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                    Tania%Paredes%NULL%2,                    Tania%Paredes%NULL%0,                    David%Caceres%NULL%1,                    Camille M.%Webb%NULL%1,                    Luis M.%Valdez%NULL%1,                    Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                    Andrea%Coscione%NULL%1,                    Riccardo%D’Ambrosi%NULL%1,                    Luca%Usai%NULL%1,                    Claudio%Roscitano%NULL%1,                    Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                    Yuan%Zhang%NULL%1,                    Lei%Huang%NULL%0,                    Bi-heng%Cheng%NULL%1,                    Zhong-yuan%Xia%NULL%1,                    Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%3,             Jinhua%Tian%xref no email%3,             Songming%He%xref no email%3,             Chuchao%Zhu%xref no email%3,             Jian%Wang%xref no email%0,             Chen%Liu%xref no email%3,             Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                    Long%Wang%NULL%1,                    Gang%Wu%NULL%1,                    Xiaoming%Lei%NULL%1,                    Wei%Li%NULL%0,                    Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                    L%Frigerio%NULL%1,                    V%Savasi%NULL%1,                    P%Vergani%NULL%1,                    F%Prefumo%NULL%1,                    S%Barresi%NULL%2,                    S%Barresi%NULL%0,                    S%Bianchi%NULL%1,                    E%Ciriello%NULL%1,                    F%Facchinetti%NULL%1,                    MT%Gervasi%NULL%1,                    E%Iurlaro%NULL%1,                    A%Kustermann%NULL%1,                    G%Mangili%NULL%1,                    F%Mosca%NULL%1,                    L%Patanè%NULL%1,                    D%Spazzini%NULL%1,                    A%Spinillo%NULL%1,                    G%Trojano%NULL%1,                    M%Vignali%NULL%1,                    A%Villa%NULL%1,                    GV%Zuccotti%NULL%1,                    F%Parazzini%Fabio.parazzini@unimi.it%1,                    I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                    Matthew%Libby%mnlibby@gmail.com%1,                    Michael%Ochs%Michael.Ochs@usap.com%1,                    Jennifer%Hanna%hannaj21@hotmail.com%1,                    Julie E.%Mangino%Jemangino1@gmail.com%1,                    Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                    Hongqing%Xi%NULL%1,                    Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%0,  Julia%Savchenko%xref no email%0,  Thomas%Brune%xref no email%0,  Hampus%Josefsson%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                    Shuai%Zhao%NULL%2,                    Linlin%Han%NULL%1,                    Qi%Wang%NULL%1,                    Haifa%Xia%NULL%1,                    Xin%Huang%NULL%1,                    Shanglong%Yao%NULL%2,                    Jiapeng%Huang%NULL%2,                    Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                    Jihyang%Lee%NULL%2,                    Jihyang%Lee%NULL%0,                    Eunju%Kim%NULL%2,                    Eunju%Kim%NULL%0,                    Kyeongyoon%Woo%NULL%2,                    Kyeongyoon%Woo%NULL%0,                    Hak Youle%Park%NULL%2,                    Hak Youle%Park%NULL%0,                    Jihyun%An%NULL%2,                    Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                    Ruihong%Zhao%NULL%2,                    Shufa%Zheng%NULL%1,                    Xu%Chen%NULL%0,                    Jinxi%Wang%NULL%1,                    Xiaoli%Sheng%NULL%1,                    Jianying%Zhou%NULL%1,                    Hongliu%Cai%NULL%1,                    Qiang%Fang%NULL%0,                    Fei%Yu%NULL%1,                    Jian%Fan%NULL%1,                    Kaijin%Xu%NULL%1,                    Yu%Chen%NULL%2,                    Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                    Lin%Sang%NULL%1,                    Shihua%Du%NULL%1,                    Tao%Li%NULL%0,                    Yange%Chang%NULL%1,                    Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%1,             Rita%Valente%xref no email%1,             Marta%Ros\u00e1rio%xref no email%1,             Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Bobin%Mi%xref no email%1,             Lang%Chen%xref no email%1,             Adriana C.%Panayi%xref no email%0,             Jing%Liu%xref no email%0,             Faqi%Cao%xref no email%1,             Chenchen%Yan%xref no email%1,             Hang%Xue%xref no email%0,             Yiqiang%Hu%xref no email%1,             Liangcong%Hu%xref no email%1,             Ze%Lin%xref no email%0,             Xudong%Xie%xref no email%0,             Ranyang%Tao%xref no email%1,             Yun%Sun%xref no email%1,             Wu%Zhou%xref no email%0,             Yuan%Xiong%xref no email%1,             Guohui%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                    Abdulrahman%Odeh%NULL%1,                    Simon%Ereidge%NULL%1,                    Hosni Khairy%Salem%NULL%1,                    Gareth P%Jones%NULL%1,                    Anne%Gardner%NULL%1,                    Shiva S%Tripathi%NULL%1,                    Anne%Gregg%NULL%1,                    Reuben%Jeganathan%NULL%1,                    Muhammad Harris%Siddique%NULL%1,                    Celestino P%Lombardi%NULL%1,                    Benjamin%Martin%NULL%1,                    Cosimo Alex%Leo%NULL%1,                    Debashis%Dass%NULL%1,                    Gregorio%Di Franco%NULL%1,                    Long R%Jiao%NULL%1,                    Giulio Maria%Mari%NULL%1,                    Luis-Cristobal%Capitan-Morales%NULL%1,                    Tara M%Connelly%NULL%1,                    Ammar%Alanbuki%NULL%1,                    Armando%De Virgilio%NULL%1,                    Clare%Schilling%NULL%1,                    Carlos%San Miguel Mendez%NULL%1,                    Gauri%Kulkarni%NULL%1,                    Kulsoom%Nizami%NULL%1,                    Stewart%Walsh%NULL%1,                    Harry%Dean%NULL%1,                    Miguel%Ruiz-Marin%NULL%1,                    Rory%Houston%NULL%1,                    Mario%Trompetto%NULL%1,                    David%Chrastek%NULL%1,                    Vasileios%Kouritas%NULL%1,                    Maria%Cannoletta%NULL%1,                    Francesco%Rosato%NULL%1,                    Manish V%Kaushal%NULL%1,                    Paulo Matos%Costa%NULL%1,                    Hannah H%Elkadi%NULL%1,                    Jack R%Johnstone%NULL%1,                    Esmee%Irvine%NULL%1,                    Maria R%Alvarez%NULL%1,                    Carlo%Corbellini%NULL%1,                    Gowtham S%Venkatesan%NULL%1,                    Olga%Mateo-Sierra%NULL%1,                    Carolina%Martínez-Pérez%NULL%1,                    Javier%Serrano González%NULL%1,                    Miguel Õngel%Hernández Bartolomé%NULL%1,                    David%Díaz Pérez%NULL%1,                    María%Gutiérrez Samaniego%NULL%1,                    Pablo%Galindo Jara%NULL%1,                    Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%1,             Xiao%Weimin%xref no email%1,             Ling%Ken%xref no email%1,             Yao%Shanglong%xref no email%1,             Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                    Guoting%Xu%NULL%1,                    Yong%Yang%NULL%1,                    Yuan%Tao%NULL%1,                    May%Pian-Smith%NULL%1,                    Vandana%Madhavan%NULL%1,                    Zhongcong%Xie%zxie@mgh.harvard.edu%1,                    Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                    Zhiqiang%Zhou%NULL%2,                    Jianping%Zhang%NULL%2,                    Fengfeng%Zhu%NULL%2,                    Yongyan%Tang%NULL%2,                    Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                    Shuai%Zhao%NULL%0,                    Zhouyang%Wu%NULL%1,                    Huilin%Luo%NULL%1,                    Cheng%Zhou%NULL%1,                    Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%1,             Chen%Xu%xref no email%1,             Junli%Fan%xref no email%1,             Yueting%Tang%xref no email%1,             Qiaoling%Deng%xref no email%2,             Wei%Zhang%xref no email%1,             Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                    Xue-Jie%Yu%NULL%1,                    Tao%Fu%NULL%1,                    Yu%Liu%NULL%2,                    Yu%Liu%NULL%0,                    Yan%Jiang%NULL%1,                    Bing Xiang%Yang%NULL%1,                    Yongyi%Bi%NULL%2,                    Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                    Ken%Ling%NULL%1,                    Hong%Yan%NULL%1,                    Liang%Zhong%NULL%1,                    Xiaohong%Peng%NULL%1,                    Shanglong%Yao%NULL%0,                    Jiapeng%Huang%NULL%0,                    Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                    Yin Y.%Liu%NULL%1,                    Qiong%Luo%NULL%1,                    Yu F.%Zou%NULL%1,                    Hai X.%Jiang%NULL%1,                    Hui%Li%NULL%0,                    Jing J.%Zhang%NULL%1,                    Zhen%Li%NULL%0,                    Xin%Yang%NULL%1,                    Min%Ma%NULL%1,                    Li J.%Tang%NULL%1,                    Ying Y.%Chen%chenyingy@whu.edu.cn%1,                    Feng%Zheng%fengzheng@whu.edu.cn%1,                    Jian J.%Ke%1219628972@qq.com%1,                    Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                   Bonardelli%S.%coreGivesNoEmail%1,                   Calza%S.%coreGivesNoEmail%1,                   Casiraghi%A.%coreGivesNoEmail%1,                   Castelli%F.%coreGivesNoEmail%1,                   Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                   Domenicucci%M.%coreGivesNoEmail%1,                   Fontanella%M. M.%coreGivesNoEmail%1,                   Gheza%F.%coreGivesNoEmail%1,                   Lussardi%G. L.%coreGivesNoEmail%1,                   Maroldi%R.%coreGivesNoEmail%1,                   Milano%G.%coreGivesNoEmail%1,                   Panciani%P. P.%coreGivesNoEmail%1,                   Portolani%N.%coreGivesNoEmail%1,                   Rasulo%F. A.%coreGivesNoEmail%1,                   Saraceno%G.%coreGivesNoEmail%1,                   Signorini%L.%coreGivesNoEmail%1,                   Vecchiarelli%L.%coreGivesNoEmail%1,                   Vezzoli%M.%coreGivesNoEmail%1,                   Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2337,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -2291,7 +2366,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2320,7 +2395,7 @@
         <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2349,7 +2424,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2378,7 +2453,7 @@
         <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2407,7 +2482,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -2436,7 +2511,7 @@
         <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -2463,7 +2538,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -2492,7 +2567,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2521,7 +2596,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -2550,7 +2625,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2579,7 +2654,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -2608,7 +2683,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2637,7 +2712,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2666,7 +2741,7 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2695,7 +2770,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2724,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2753,7 +2828,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -2782,7 +2857,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2811,7 +2886,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -2840,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2869,7 +2944,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2898,7 +2973,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -2927,7 +3002,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -2985,7 +3060,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5050" uniqueCount="686">
   <si>
     <t>Doi</t>
   </si>
@@ -1974,6 +1974,333 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                   Bonardelli%S.%coreGivesNoEmail%1,                   Calza%S.%coreGivesNoEmail%1,                   Casiraghi%A.%coreGivesNoEmail%1,                   Castelli%F.%coreGivesNoEmail%1,                   Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                   Domenicucci%M.%coreGivesNoEmail%1,                   Fontanella%M. M.%coreGivesNoEmail%1,                   Gheza%F.%coreGivesNoEmail%1,                   Lussardi%G. L.%coreGivesNoEmail%1,                   Maroldi%R.%coreGivesNoEmail%1,                   Milano%G.%coreGivesNoEmail%1,                   Panciani%P. P.%coreGivesNoEmail%1,                   Portolani%N.%coreGivesNoEmail%1,                   Rasulo%F. A.%coreGivesNoEmail%1,                   Saraceno%G.%coreGivesNoEmail%1,                   Signorini%L.%coreGivesNoEmail%1,                   Vecchiarelli%L.%coreGivesNoEmail%1,                   Vezzoli%M.%coreGivesNoEmail%1,                   Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                     Tania%Paredes%NULL%2,                     Tania%Paredes%NULL%0,                     David%Caceres%NULL%1,                     Camille M.%Webb%NULL%1,                     Luis M.%Valdez%NULL%1,                     Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                     Andrea%Coscione%NULL%1,                     Riccardo%D’Ambrosi%NULL%1,                     Luca%Usai%NULL%1,                     Claudio%Roscitano%NULL%1,                     Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                     Yuan%Zhang%NULL%1,                     Lei%Huang%NULL%0,                     Bi-heng%Cheng%NULL%1,                     Zhong-yuan%Xia%NULL%1,                     Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0, Jinhua%Tian%xref no email%3, Songming%He%xref no email%3, Chuchao%Zhu%xref no email%3, Jian%Wang%xref no email%0, Chen%Liu%xref no email%3, Jing%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>2023-05-27</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                     Long%Wang%NULL%1,                     Gang%Wu%NULL%1,                     Xiaoming%Lei%NULL%1,                     Wei%Li%NULL%0,                     Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                     L%Frigerio%NULL%1,                     V%Savasi%NULL%1,                     P%Vergani%NULL%1,                     F%Prefumo%NULL%1,                     S%Barresi%NULL%2,                     S%Barresi%NULL%0,                     S%Bianchi%NULL%1,                     E%Ciriello%NULL%1,                     F%Facchinetti%NULL%1,                     MT%Gervasi%NULL%1,                     E%Iurlaro%NULL%1,                     A%Kustermann%NULL%1,                     G%Mangili%NULL%1,                     F%Mosca%NULL%1,                     L%Patanè%NULL%1,                     D%Spazzini%NULL%1,                     A%Spinillo%NULL%1,                     G%Trojano%NULL%1,                     M%Vignali%NULL%1,                     A%Villa%NULL%1,                     GV%Zuccotti%NULL%1,                     F%Parazzini%Fabio.parazzini@unimi.it%1,                     I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                     Matthew%Libby%mnlibby@gmail.com%1,                     Michael%Ochs%Michael.Ochs@usap.com%1,                     Jennifer%Hanna%hannaj21@hotmail.com%1,                     Julie E.%Mangino%Jemangino1@gmail.com%1,                     Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                     Hongqing%Xi%NULL%1,                     Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                     Shuai%Zhao%NULL%2,                     Linlin%Han%NULL%1,                     Qi%Wang%NULL%1,                     Haifa%Xia%NULL%1,                     Xin%Huang%NULL%1,                     Shanglong%Yao%NULL%2,                     Jiapeng%Huang%NULL%2,                     Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                     Jihyang%Lee%NULL%2,                     Jihyang%Lee%NULL%0,                     Eunju%Kim%NULL%2,                     Eunju%Kim%NULL%0,                     Kyeongyoon%Woo%NULL%2,                     Kyeongyoon%Woo%NULL%0,                     Hak Youle%Park%NULL%2,                     Hak Youle%Park%NULL%0,                     Jihyun%An%NULL%2,                     Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                     Ruihong%Zhao%NULL%2,                     Shufa%Zheng%NULL%1,                     Xu%Chen%NULL%0,                     Jinxi%Wang%NULL%1,                     Xiaoli%Sheng%NULL%1,                     Jianying%Zhou%NULL%1,                     Hongliu%Cai%NULL%1,                     Qiang%Fang%NULL%0,                     Fei%Yu%NULL%1,                     Jian%Fan%NULL%1,                     Kaijin%Xu%NULL%1,                     Yu%Chen%NULL%2,                     Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                     Lin%Sang%NULL%1,                     Shihua%Du%NULL%1,                     Tao%Li%NULL%0,                     Yange%Chang%NULL%1,                     Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Joana%Lyra%xref no email%0, Rita%Valente%xref no email%1, Marta%Ros\u00e1rio%xref no email%1, Mariana%Guimar\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ordem dos Medicos</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Elsevier BV</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                     Abdulrahman%Odeh%NULL%1,                     Simon%Ereidge%NULL%1,                     Hosni Khairy%Salem%NULL%1,                     Gareth P%Jones%NULL%1,                     Anne%Gardner%NULL%1,                     Shiva S%Tripathi%NULL%1,                     Anne%Gregg%NULL%1,                     Reuben%Jeganathan%NULL%1,                     Muhammad Harris%Siddique%NULL%1,                     Celestino P%Lombardi%NULL%1,                     Benjamin%Martin%NULL%1,                     Cosimo Alex%Leo%NULL%1,                     Debashis%Dass%NULL%1,                     Gregorio%Di Franco%NULL%1,                     Long R%Jiao%NULL%1,                     Giulio Maria%Mari%NULL%1,                     Luis-Cristobal%Capitan-Morales%NULL%1,                     Tara M%Connelly%NULL%1,                     Ammar%Alanbuki%NULL%1,                     Armando%De Virgilio%NULL%1,                     Clare%Schilling%NULL%1,                     Carlos%San Miguel Mendez%NULL%1,                     Gauri%Kulkarni%NULL%1,                     Kulsoom%Nizami%NULL%1,                     Stewart%Walsh%NULL%1,                     Harry%Dean%NULL%1,                     Miguel%Ruiz-Marin%NULL%1,                     Rory%Houston%NULL%1,                     Mario%Trompetto%NULL%1,                     David%Chrastek%NULL%1,                     Vasileios%Kouritas%NULL%1,                     Maria%Cannoletta%NULL%1,                     Francesco%Rosato%NULL%1,                     Manish V%Kaushal%NULL%1,                     Paulo Matos%Costa%NULL%1,                     Hannah H%Elkadi%NULL%1,                     Jack R%Johnstone%NULL%1,                     Esmee%Irvine%NULL%1,                     Maria R%Alvarez%NULL%1,                     Carlo%Corbellini%NULL%1,                     Gowtham S%Venkatesan%NULL%1,                     Olga%Mateo-Sierra%NULL%1,                     Carolina%Martínez-Pérez%NULL%1,                     Javier%Serrano González%NULL%1,                     Miguel Õngel%Hernández Bartolomé%NULL%1,                     David%Díaz Pérez%NULL%1,                     María%Gutiérrez Samaniego%NULL%1,                     Pablo%Galindo Jara%NULL%1,                     Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Song%Limin%xref no email%0, Xiao%Weimin%xref no email%1, Ling%Ken%xref no email%1, Yao%Shanglong%xref no email%1, Chen%Xiangdong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Transpopmed</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                     Guoting%Xu%NULL%1,                     Yong%Yang%NULL%1,                     Yuan%Tao%NULL%1,                     May%Pian-Smith%NULL%1,                     Vandana%Madhavan%NULL%1,                     Zhongcong%Xie%zxie@mgh.harvard.edu%1,                     Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                     Zhiqiang%Zhou%NULL%2,                     Jianping%Zhang%NULL%2,                     Fengfeng%Zhu%NULL%2,                     Yongyan%Tang%NULL%2,                     Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                     Shuai%Zhao%NULL%0,                     Zhouyang%Wu%NULL%1,                     Huilin%Luo%NULL%1,                     Cheng%Zhou%NULL%1,                     Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Zeng%xref no email%0, Chen%Xu%xref no email%1, Junli%Fan%xref no email%0, Yueting%Tang%xref no email%1, Qiaoling%Deng%xref no email%2, Wei%Zhang%xref no email%0, Xinghua%Long%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%2,                     Xue-Jie%Yu%NULL%1,                     Tao%Fu%NULL%1,                     Yu%Liu%NULL%2,                     Yu%Liu%NULL%0,                     Yan%Jiang%NULL%1,                     Bing Xiang%Yang%NULL%1,                     Yongyi%Bi%NULL%2,                     Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                     Ken%Ling%NULL%1,                     Hong%Yan%NULL%1,                     Liang%Zhong%NULL%1,                     Xiaohong%Peng%NULL%1,                     Shanglong%Yao%NULL%0,                     Jiapeng%Huang%NULL%0,                     Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                     Yin Y.%Liu%NULL%1,                     Qiong%Luo%NULL%1,                     Yu F.%Zou%NULL%1,                     Hai X.%Jiang%NULL%1,                     Hui%Li%NULL%0,                     Jing J.%Zhang%NULL%1,                     Zhen%Li%NULL%0,                     Xin%Yang%NULL%1,                     Min%Ma%NULL%1,                     Li J.%Tang%NULL%1,                     Ying Y.%Chen%chenyingy@whu.edu.cn%1,                     Feng%Zheng%fengzheng@whu.edu.cn%1,                     Jian J.%Ke%1219628972@qq.com%1,                     Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                    Bonardelli%S.%coreGivesNoEmail%1,                    Calza%S.%coreGivesNoEmail%1,                    Casiraghi%A.%coreGivesNoEmail%1,                    Castelli%F.%coreGivesNoEmail%1,                    Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                    Domenicucci%M.%coreGivesNoEmail%1,                    Fontanella%M. M.%coreGivesNoEmail%1,                    Gheza%F.%coreGivesNoEmail%1,                    Lussardi%G. L.%coreGivesNoEmail%1,                    Maroldi%R.%coreGivesNoEmail%1,                    Milano%G.%coreGivesNoEmail%1,                    Panciani%P. P.%coreGivesNoEmail%1,                    Portolani%N.%coreGivesNoEmail%1,                    Rasulo%F. A.%coreGivesNoEmail%1,                    Saraceno%G.%coreGivesNoEmail%1,                    Signorini%L.%coreGivesNoEmail%1,                    Vecchiarelli%L.%coreGivesNoEmail%1,                    Vezzoli%M.%coreGivesNoEmail%1,                    Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                      Tania%Paredes%NULL%2,                      Tania%Paredes%NULL%0,                      David%Caceres%NULL%1,                      Camille M.%Webb%NULL%1,                      Luis M.%Valdez%NULL%1,                      Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                      Andrea%Coscione%NULL%1,                      Riccardo%D’Ambrosi%NULL%1,                      Luca%Usai%NULL%1,                      Claudio%Roscitano%NULL%1,                      Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                      Yuan%Zhang%NULL%1,                      Lei%Huang%NULL%0,                      Bi-heng%Cheng%NULL%1,                      Zhong-yuan%Xia%NULL%1,                      Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                      Long%Wang%NULL%1,                      Gang%Wu%NULL%1,                      Xiaoming%Lei%NULL%1,                      Wei%Li%NULL%0,                      Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                      L%Frigerio%NULL%1,                      V%Savasi%NULL%1,                      P%Vergani%NULL%1,                      F%Prefumo%NULL%1,                      S%Barresi%NULL%2,                      S%Barresi%NULL%0,                      S%Bianchi%NULL%1,                      E%Ciriello%NULL%1,                      F%Facchinetti%NULL%1,                      MT%Gervasi%NULL%1,                      E%Iurlaro%NULL%1,                      A%Kustermann%NULL%1,                      G%Mangili%NULL%1,                      F%Mosca%NULL%1,                      L%Patanè%NULL%1,                      D%Spazzini%NULL%1,                      A%Spinillo%NULL%1,                      G%Trojano%NULL%1,                      M%Vignali%NULL%1,                      A%Villa%NULL%1,                      GV%Zuccotti%NULL%1,                      F%Parazzini%Fabio.parazzini@unimi.it%1,                      I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                      Matthew%Libby%mnlibby@gmail.com%1,                      Michael%Ochs%Michael.Ochs@usap.com%1,                      Jennifer%Hanna%hannaj21@hotmail.com%1,                      Julie E.%Mangino%Jemangino1@gmail.com%1,                      Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                      Hongqing%Xi%NULL%1,                      Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                      Shuai%Zhao%NULL%2,                      Linlin%Han%NULL%1,                      Qi%Wang%NULL%1,                      Haifa%Xia%NULL%1,                      Xin%Huang%NULL%1,                      Shanglong%Yao%NULL%2,                      Jiapeng%Huang%NULL%2,                      Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                      Jihyang%Lee%NULL%2,                      Jihyang%Lee%NULL%0,                      Eunju%Kim%NULL%2,                      Eunju%Kim%NULL%0,                      Kyeongyoon%Woo%NULL%2,                      Kyeongyoon%Woo%NULL%0,                      Hak Youle%Park%NULL%2,                      Hak Youle%Park%NULL%0,                      Jihyun%An%NULL%2,                      Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                      Ruihong%Zhao%NULL%2,                      Shufa%Zheng%NULL%1,                      Xu%Chen%NULL%0,                      Jinxi%Wang%NULL%1,                      Xiaoli%Sheng%NULL%1,                      Jianying%Zhou%NULL%1,                      Hongliu%Cai%NULL%1,                      Qiang%Fang%NULL%0,                      Fei%Yu%NULL%1,                      Jian%Fan%NULL%1,                      Kaijin%Xu%NULL%1,                      Yu%Chen%NULL%2,                      Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                      Lin%Sang%NULL%1,                      Shihua%Du%NULL%1,                      Tao%Li%NULL%0,                      Yange%Chang%NULL%1,                      Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                      Abdulrahman%Odeh%NULL%1,                      Simon%Ereidge%NULL%1,                      Hosni Khairy%Salem%NULL%1,                      Gareth P%Jones%NULL%1,                      Anne%Gardner%NULL%1,                      Shiva S%Tripathi%NULL%1,                      Anne%Gregg%NULL%1,                      Reuben%Jeganathan%NULL%1,                      Muhammad Harris%Siddique%NULL%1,                      Celestino P%Lombardi%NULL%1,                      Benjamin%Martin%NULL%1,                      Cosimo Alex%Leo%NULL%1,                      Debashis%Dass%NULL%1,                      Gregorio%Di Franco%NULL%1,                      Long R%Jiao%NULL%1,                      Giulio Maria%Mari%NULL%1,                      Luis-Cristobal%Capitan-Morales%NULL%1,                      Tara M%Connelly%NULL%1,                      Ammar%Alanbuki%NULL%1,                      Armando%De Virgilio%NULL%1,                      Clare%Schilling%NULL%1,                      Carlos%San Miguel Mendez%NULL%1,                      Gauri%Kulkarni%NULL%1,                      Kulsoom%Nizami%NULL%1,                      Stewart%Walsh%NULL%1,                      Harry%Dean%NULL%1,                      Miguel%Ruiz-Marin%NULL%1,                      Rory%Houston%NULL%1,                      Mario%Trompetto%NULL%1,                      David%Chrastek%NULL%1,                      Vasileios%Kouritas%NULL%1,                      Maria%Cannoletta%NULL%1,                      Francesco%Rosato%NULL%1,                      Manish V%Kaushal%NULL%1,                      Paulo Matos%Costa%NULL%1,                      Hannah H%Elkadi%NULL%1,                      Jack R%Johnstone%NULL%1,                      Esmee%Irvine%NULL%1,                      Maria R%Alvarez%NULL%1,                      Carlo%Corbellini%NULL%1,                      Gowtham S%Venkatesan%NULL%1,                      Olga%Mateo-Sierra%NULL%1,                      Carolina%Martínez-Pérez%NULL%1,                      Javier%Serrano González%NULL%1,                      Miguel Õngel%Hernández Bartolomé%NULL%1,                      David%Díaz Pérez%NULL%1,                      María%Gutiérrez Samaniego%NULL%1,                      Pablo%Galindo Jara%NULL%1,                      Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                      Guoting%Xu%NULL%1,                      Yong%Yang%NULL%1,                      Yuan%Tao%NULL%1,                      May%Pian-Smith%NULL%1,                      Vandana%Madhavan%NULL%1,                      Zhongcong%Xie%zxie@mgh.harvard.edu%1,                      Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                      Zhiqiang%Zhou%NULL%2,                      Jianping%Zhang%NULL%2,                      Fengfeng%Zhu%NULL%2,                      Yongyan%Tang%NULL%2,                      Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                      Shuai%Zhao%NULL%0,                      Zhouyang%Wu%NULL%1,                      Huilin%Luo%NULL%1,                      Cheng%Zhou%NULL%1,                      Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                      Xue-Jie%Yu%NULL%1,                      Tao%Fu%NULL%1,                      Yu%Liu%NULL%2,                      Yu%Liu%NULL%0,                      Yan%Jiang%NULL%1,                      Bing Xiang%Yang%NULL%1,                      Yongyi%Bi%NULL%2,                      Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                      Ken%Ling%NULL%1,                      Hong%Yan%NULL%1,                      Liang%Zhong%NULL%1,                      Xiaohong%Peng%NULL%1,                      Shanglong%Yao%NULL%0,                      Jiapeng%Huang%NULL%0,                      Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                      Yin Y.%Liu%NULL%1,                      Qiong%Luo%NULL%1,                      Yu F.%Zou%NULL%1,                      Hai X.%Jiang%NULL%1,                      Hui%Li%NULL%0,                      Jing J.%Zhang%NULL%1,                      Zhen%Li%NULL%0,                      Xin%Yang%NULL%1,                      Min%Ma%NULL%1,                      Li J.%Tang%NULL%1,                      Ying Y.%Chen%chenyingy@whu.edu.cn%1,                      Feng%Zheng%fengzheng@whu.edu.cn%1,                      Jian J.%Ke%1219628972@qq.com%1,                      Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                     Bonardelli%S.%coreGivesNoEmail%1,                     Calza%S.%coreGivesNoEmail%1,                     Casiraghi%A.%coreGivesNoEmail%1,                     Castelli%F.%coreGivesNoEmail%1,                     Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                     Domenicucci%M.%coreGivesNoEmail%1,                     Fontanella%M. M.%coreGivesNoEmail%1,                     Gheza%F.%coreGivesNoEmail%1,                     Lussardi%G. L.%coreGivesNoEmail%1,                     Maroldi%R.%coreGivesNoEmail%1,                     Milano%G.%coreGivesNoEmail%1,                     Panciani%P. P.%coreGivesNoEmail%1,                     Portolani%N.%coreGivesNoEmail%1,                     Rasulo%F. A.%coreGivesNoEmail%1,                     Saraceno%G.%coreGivesNoEmail%1,                     Signorini%L.%coreGivesNoEmail%1,                     Vecchiarelli%L.%coreGivesNoEmail%1,                     Vezzoli%M.%coreGivesNoEmail%1,                     Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                       Tania%Paredes%NULL%2,                       Tania%Paredes%NULL%0,                       David%Caceres%NULL%1,                       Camille M.%Webb%NULL%1,                       Luis M.%Valdez%NULL%1,                       Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                       Andrea%Coscione%NULL%1,                       Riccardo%D’Ambrosi%NULL%1,                       Luca%Usai%NULL%1,                       Claudio%Roscitano%NULL%1,                       Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                       Yuan%Zhang%NULL%1,                       Lei%Huang%NULL%0,                       Bi-heng%Cheng%NULL%1,                       Zhong-yuan%Xia%NULL%1,                       Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                       Long%Wang%NULL%1,                       Gang%Wu%NULL%1,                       Xiaoming%Lei%NULL%1,                       Wei%Li%NULL%0,                       Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                       L%Frigerio%NULL%1,                       V%Savasi%NULL%1,                       P%Vergani%NULL%1,                       F%Prefumo%NULL%1,                       S%Barresi%NULL%2,                       S%Barresi%NULL%0,                       S%Bianchi%NULL%1,                       E%Ciriello%NULL%1,                       F%Facchinetti%NULL%1,                       MT%Gervasi%NULL%1,                       E%Iurlaro%NULL%1,                       A%Kustermann%NULL%1,                       G%Mangili%NULL%1,                       F%Mosca%NULL%1,                       L%Patanè%NULL%1,                       D%Spazzini%NULL%1,                       A%Spinillo%NULL%1,                       G%Trojano%NULL%1,                       M%Vignali%NULL%1,                       A%Villa%NULL%1,                       GV%Zuccotti%NULL%1,                       F%Parazzini%Fabio.parazzini@unimi.it%1,                       I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                       Matthew%Libby%mnlibby@gmail.com%1,                       Michael%Ochs%Michael.Ochs@usap.com%1,                       Jennifer%Hanna%hannaj21@hotmail.com%1,                       Julie E.%Mangino%Jemangino1@gmail.com%1,                       Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                       Hongqing%Xi%NULL%1,                       Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%0,   Julia%Savchenko%xref no email%0,   Thomas%Brune%xref no email%0,   Hampus%Josefsson%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                       Shuai%Zhao%NULL%2,                       Linlin%Han%NULL%1,                       Qi%Wang%NULL%1,                       Haifa%Xia%NULL%1,                       Xin%Huang%NULL%1,                       Shanglong%Yao%NULL%2,                       Jiapeng%Huang%NULL%2,                       Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                       Jihyang%Lee%NULL%2,                       Jihyang%Lee%NULL%0,                       Eunju%Kim%NULL%2,                       Eunju%Kim%NULL%0,                       Kyeongyoon%Woo%NULL%2,                       Kyeongyoon%Woo%NULL%0,                       Hak Youle%Park%NULL%2,                       Hak Youle%Park%NULL%0,                       Jihyun%An%NULL%2,                       Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                       Ruihong%Zhao%NULL%2,                       Shufa%Zheng%NULL%1,                       Xu%Chen%NULL%0,                       Jinxi%Wang%NULL%1,                       Xiaoli%Sheng%NULL%1,                       Jianying%Zhou%NULL%1,                       Hongliu%Cai%NULL%1,                       Qiang%Fang%NULL%0,                       Fei%Yu%NULL%1,                       Jian%Fan%NULL%1,                       Kaijin%Xu%NULL%1,                       Yu%Chen%NULL%2,                       Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                       Lin%Sang%NULL%1,                       Shihua%Du%NULL%1,                       Tao%Li%NULL%0,                       Yange%Chang%NULL%1,                       Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                       Abdulrahman%Odeh%NULL%1,                       Simon%Ereidge%NULL%1,                       Hosni Khairy%Salem%NULL%1,                       Gareth P%Jones%NULL%1,                       Anne%Gardner%NULL%1,                       Shiva S%Tripathi%NULL%1,                       Anne%Gregg%NULL%1,                       Reuben%Jeganathan%NULL%1,                       Muhammad Harris%Siddique%NULL%1,                       Celestino P%Lombardi%NULL%1,                       Benjamin%Martin%NULL%1,                       Cosimo Alex%Leo%NULL%1,                       Debashis%Dass%NULL%1,                       Gregorio%Di Franco%NULL%1,                       Long R%Jiao%NULL%1,                       Giulio Maria%Mari%NULL%1,                       Luis-Cristobal%Capitan-Morales%NULL%1,                       Tara M%Connelly%NULL%1,                       Ammar%Alanbuki%NULL%1,                       Armando%De Virgilio%NULL%1,                       Clare%Schilling%NULL%1,                       Carlos%San Miguel Mendez%NULL%1,                       Gauri%Kulkarni%NULL%1,                       Kulsoom%Nizami%NULL%1,                       Stewart%Walsh%NULL%1,                       Harry%Dean%NULL%1,                       Miguel%Ruiz-Marin%NULL%1,                       Rory%Houston%NULL%1,                       Mario%Trompetto%NULL%1,                       David%Chrastek%NULL%1,                       Vasileios%Kouritas%NULL%1,                       Maria%Cannoletta%NULL%1,                       Francesco%Rosato%NULL%1,                       Manish V%Kaushal%NULL%1,                       Paulo Matos%Costa%NULL%1,                       Hannah H%Elkadi%NULL%1,                       Jack R%Johnstone%NULL%1,                       Esmee%Irvine%NULL%1,                       Maria R%Alvarez%NULL%1,                       Carlo%Corbellini%NULL%1,                       Gowtham S%Venkatesan%NULL%1,                       Olga%Mateo-Sierra%NULL%1,                       Carolina%Martínez-Pérez%NULL%1,                       Javier%Serrano González%NULL%1,                       Miguel Õngel%Hernández Bartolomé%NULL%1,                       David%Díaz Pérez%NULL%1,                       María%Gutiérrez Samaniego%NULL%1,                       Pablo%Galindo Jara%NULL%1,                       Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                       Guoting%Xu%NULL%1,                       Yong%Yang%NULL%1,                       Yuan%Tao%NULL%1,                       May%Pian-Smith%NULL%1,                       Vandana%Madhavan%NULL%1,                       Zhongcong%Xie%zxie@mgh.harvard.edu%1,                       Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                       Zhiqiang%Zhou%NULL%2,                       Jianping%Zhang%NULL%2,                       Fengfeng%Zhu%NULL%2,                       Yongyan%Tang%NULL%2,                       Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                       Shuai%Zhao%NULL%0,                       Zhouyang%Wu%NULL%1,                       Huilin%Luo%NULL%1,                       Cheng%Zhou%NULL%1,                       Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                       Xue-Jie%Yu%NULL%1,                       Tao%Fu%NULL%1,                       Yu%Liu%NULL%2,                       Yu%Liu%NULL%0,                       Yan%Jiang%NULL%1,                       Bing Xiang%Yang%NULL%1,                       Yongyi%Bi%NULL%2,                       Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                       Ken%Ling%NULL%1,                       Hong%Yan%NULL%1,                       Liang%Zhong%NULL%1,                       Xiaohong%Peng%NULL%1,                       Shanglong%Yao%NULL%0,                       Jiapeng%Huang%NULL%0,                       Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                       Yin Y.%Liu%NULL%1,                       Qiong%Luo%NULL%1,                       Yu F.%Zou%NULL%1,                       Hai X.%Jiang%NULL%1,                       Hui%Li%NULL%0,                       Jing J.%Zhang%NULL%1,                       Zhen%Li%NULL%0,                       Xin%Yang%NULL%1,                       Min%Ma%NULL%1,                       Li J.%Tang%NULL%1,                       Ying Y.%Chen%chenyingy@whu.edu.cn%1,                       Feng%Zheng%fengzheng@whu.edu.cn%1,                       Jian J.%Ke%1219628972@qq.com%1,                       Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                      Bonardelli%S.%coreGivesNoEmail%1,                      Calza%S.%coreGivesNoEmail%1,                      Casiraghi%A.%coreGivesNoEmail%1,                      Castelli%F.%coreGivesNoEmail%1,                      Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                      Domenicucci%M.%coreGivesNoEmail%1,                      Fontanella%M. M.%coreGivesNoEmail%1,                      Gheza%F.%coreGivesNoEmail%1,                      Lussardi%G. L.%coreGivesNoEmail%1,                      Maroldi%R.%coreGivesNoEmail%1,                      Milano%G.%coreGivesNoEmail%1,                      Panciani%P. P.%coreGivesNoEmail%1,                      Portolani%N.%coreGivesNoEmail%1,                      Rasulo%F. A.%coreGivesNoEmail%1,                      Saraceno%G.%coreGivesNoEmail%1,                      Signorini%L.%coreGivesNoEmail%1,                      Vecchiarelli%L.%coreGivesNoEmail%1,                      Vezzoli%M.%coreGivesNoEmail%1,                      Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                        Tania%Paredes%NULL%2,                        Tania%Paredes%NULL%0,                        David%Caceres%NULL%1,                        Camille M.%Webb%NULL%1,                        Luis M.%Valdez%NULL%1,                        Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                        Andrea%Coscione%NULL%1,                        Riccardo%D’Ambrosi%NULL%1,                        Luca%Usai%NULL%1,                        Claudio%Roscitano%NULL%1,                        Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                        Yuan%Zhang%NULL%1,                        Lei%Huang%NULL%0,                        Bi-heng%Cheng%NULL%1,                        Zhong-yuan%Xia%NULL%1,                        Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                        Long%Wang%NULL%1,                        Gang%Wu%NULL%1,                        Xiaoming%Lei%NULL%1,                        Wei%Li%NULL%0,                        Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                        L%Frigerio%NULL%1,                        V%Savasi%NULL%1,                        P%Vergani%NULL%1,                        F%Prefumo%NULL%1,                        S%Barresi%NULL%2,                        S%Barresi%NULL%0,                        S%Bianchi%NULL%1,                        E%Ciriello%NULL%1,                        F%Facchinetti%NULL%1,                        MT%Gervasi%NULL%1,                        E%Iurlaro%NULL%1,                        A%Kustermann%NULL%1,                        G%Mangili%NULL%1,                        F%Mosca%NULL%1,                        L%Patanè%NULL%1,                        D%Spazzini%NULL%1,                        A%Spinillo%NULL%1,                        G%Trojano%NULL%1,                        M%Vignali%NULL%1,                        A%Villa%NULL%1,                        GV%Zuccotti%NULL%1,                        F%Parazzini%Fabio.parazzini@unimi.it%1,                        I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                        Matthew%Libby%mnlibby@gmail.com%1,                        Michael%Ochs%Michael.Ochs@usap.com%1,                        Jennifer%Hanna%hannaj21@hotmail.com%1,                        Julie E.%Mangino%Jemangino1@gmail.com%1,                        Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                        Hongqing%Xi%NULL%1,                        Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%0,    Julia%Savchenko%xref no email%0,    Thomas%Brune%xref no email%0,    Hampus%Josefsson%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                        Shuai%Zhao%NULL%2,                        Linlin%Han%NULL%1,                        Qi%Wang%NULL%1,                        Haifa%Xia%NULL%1,                        Xin%Huang%NULL%1,                        Shanglong%Yao%NULL%2,                        Jiapeng%Huang%NULL%2,                        Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                        Jihyang%Lee%NULL%2,                        Jihyang%Lee%NULL%0,                        Eunju%Kim%NULL%2,                        Eunju%Kim%NULL%0,                        Kyeongyoon%Woo%NULL%2,                        Kyeongyoon%Woo%NULL%0,                        Hak Youle%Park%NULL%2,                        Hak Youle%Park%NULL%0,                        Jihyun%An%NULL%2,                        Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                        Ruihong%Zhao%NULL%2,                        Shufa%Zheng%NULL%1,                        Xu%Chen%NULL%0,                        Jinxi%Wang%NULL%1,                        Xiaoli%Sheng%NULL%1,                        Jianying%Zhou%NULL%1,                        Hongliu%Cai%NULL%1,                        Qiang%Fang%NULL%0,                        Fei%Yu%NULL%1,                        Jian%Fan%NULL%1,                        Kaijin%Xu%NULL%1,                        Yu%Chen%NULL%2,                        Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                        Lin%Sang%NULL%1,                        Shihua%Du%NULL%1,                        Tao%Li%NULL%0,                        Yange%Chang%NULL%1,                        Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                        Abdulrahman%Odeh%NULL%1,                        Simon%Ereidge%NULL%1,                        Hosni Khairy%Salem%NULL%1,                        Gareth P%Jones%NULL%1,                        Anne%Gardner%NULL%1,                        Shiva S%Tripathi%NULL%1,                        Anne%Gregg%NULL%1,                        Reuben%Jeganathan%NULL%1,                        Muhammad Harris%Siddique%NULL%1,                        Celestino P%Lombardi%NULL%1,                        Benjamin%Martin%NULL%1,                        Cosimo Alex%Leo%NULL%1,                        Debashis%Dass%NULL%1,                        Gregorio%Di Franco%NULL%1,                        Long R%Jiao%NULL%1,                        Giulio Maria%Mari%NULL%1,                        Luis-Cristobal%Capitan-Morales%NULL%1,                        Tara M%Connelly%NULL%1,                        Ammar%Alanbuki%NULL%1,                        Armando%De Virgilio%NULL%1,                        Clare%Schilling%NULL%1,                        Carlos%San Miguel Mendez%NULL%1,                        Gauri%Kulkarni%NULL%1,                        Kulsoom%Nizami%NULL%1,                        Stewart%Walsh%NULL%1,                        Harry%Dean%NULL%1,                        Miguel%Ruiz-Marin%NULL%1,                        Rory%Houston%NULL%1,                        Mario%Trompetto%NULL%1,                        David%Chrastek%NULL%1,                        Vasileios%Kouritas%NULL%1,                        Maria%Cannoletta%NULL%1,                        Francesco%Rosato%NULL%1,                        Manish V%Kaushal%NULL%1,                        Paulo Matos%Costa%NULL%1,                        Hannah H%Elkadi%NULL%1,                        Jack R%Johnstone%NULL%1,                        Esmee%Irvine%NULL%1,                        Maria R%Alvarez%NULL%1,                        Carlo%Corbellini%NULL%1,                        Gowtham S%Venkatesan%NULL%1,                        Olga%Mateo-Sierra%NULL%1,                        Carolina%Martínez-Pérez%NULL%1,                        Javier%Serrano González%NULL%1,                        Miguel Õngel%Hernández Bartolomé%NULL%1,                        David%Díaz Pérez%NULL%1,                        María%Gutiérrez Samaniego%NULL%1,                        Pablo%Galindo Jara%NULL%1,                        Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                        Guoting%Xu%NULL%1,                        Yong%Yang%NULL%1,                        Yuan%Tao%NULL%1,                        May%Pian-Smith%NULL%1,                        Vandana%Madhavan%NULL%1,                        Zhongcong%Xie%zxie@mgh.harvard.edu%1,                        Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                        Zhiqiang%Zhou%NULL%2,                        Jianping%Zhang%NULL%2,                        Fengfeng%Zhu%NULL%2,                        Yongyan%Tang%NULL%2,                        Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                        Shuai%Zhao%NULL%0,                        Zhouyang%Wu%NULL%1,                        Huilin%Luo%NULL%1,                        Cheng%Zhou%NULL%1,                        Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                        Xue-Jie%Yu%NULL%1,                        Tao%Fu%NULL%1,                        Yu%Liu%NULL%2,                        Yu%Liu%NULL%0,                        Yan%Jiang%NULL%1,                        Bing Xiang%Yang%NULL%1,                        Yongyi%Bi%NULL%2,                        Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                        Ken%Ling%NULL%1,                        Hong%Yan%NULL%1,                        Liang%Zhong%NULL%1,                        Xiaohong%Peng%NULL%1,                        Shanglong%Yao%NULL%0,                        Jiapeng%Huang%NULL%0,                        Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                        Yin Y.%Liu%NULL%1,                        Qiong%Luo%NULL%1,                        Yu F.%Zou%NULL%1,                        Hai X.%Jiang%NULL%1,                        Hui%Li%NULL%0,                        Jing J.%Zhang%NULL%1,                        Zhen%Li%NULL%0,                        Xin%Yang%NULL%1,                        Min%Ma%NULL%1,                        Li J.%Tang%NULL%1,                        Ying Y.%Chen%chenyingy@whu.edu.cn%1,                        Feng%Zheng%fengzheng@whu.edu.cn%1,                        Jian J.%Ke%1219628972@qq.com%1,                        Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                       Bonardelli%S.%coreGivesNoEmail%1,                       Calza%S.%coreGivesNoEmail%1,                       Casiraghi%A.%coreGivesNoEmail%1,                       Castelli%F.%coreGivesNoEmail%1,                       Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                       Domenicucci%M.%coreGivesNoEmail%1,                       Fontanella%M. M.%coreGivesNoEmail%1,                       Gheza%F.%coreGivesNoEmail%1,                       Lussardi%G. L.%coreGivesNoEmail%1,                       Maroldi%R.%coreGivesNoEmail%1,                       Milano%G.%coreGivesNoEmail%1,                       Panciani%P. P.%coreGivesNoEmail%1,                       Portolani%N.%coreGivesNoEmail%1,                       Rasulo%F. A.%coreGivesNoEmail%1,                       Saraceno%G.%coreGivesNoEmail%1,                       Signorini%L.%coreGivesNoEmail%1,                       Vecchiarelli%L.%coreGivesNoEmail%1,                       Vezzoli%M.%coreGivesNoEmail%1,                       Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                         Tania%Paredes%NULL%2,                         Tania%Paredes%NULL%0,                         David%Caceres%NULL%1,                         Camille M.%Webb%NULL%1,                         Luis M.%Valdez%NULL%1,                         Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                         Andrea%Coscione%NULL%1,                         Riccardo%D’Ambrosi%NULL%1,                         Luca%Usai%NULL%1,                         Claudio%Roscitano%NULL%1,                         Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                         Yuan%Zhang%NULL%1,                         Lei%Huang%NULL%0,                         Bi-heng%Cheng%NULL%1,                         Zhong-yuan%Xia%NULL%1,                         Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                         Long%Wang%NULL%1,                         Gang%Wu%NULL%1,                         Xiaoming%Lei%NULL%1,                         Wei%Li%NULL%0,                         Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                         L%Frigerio%NULL%1,                         V%Savasi%NULL%1,                         P%Vergani%NULL%1,                         F%Prefumo%NULL%1,                         S%Barresi%NULL%2,                         S%Barresi%NULL%0,                         S%Bianchi%NULL%1,                         E%Ciriello%NULL%1,                         F%Facchinetti%NULL%1,                         MT%Gervasi%NULL%1,                         E%Iurlaro%NULL%1,                         A%Kustermann%NULL%1,                         G%Mangili%NULL%1,                         F%Mosca%NULL%1,                         L%Patanè%NULL%1,                         D%Spazzini%NULL%1,                         A%Spinillo%NULL%1,                         G%Trojano%NULL%1,                         M%Vignali%NULL%1,                         A%Villa%NULL%1,                         GV%Zuccotti%NULL%1,                         F%Parazzini%Fabio.parazzini@unimi.it%1,                         I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                         Matthew%Libby%mnlibby@gmail.com%1,                         Michael%Ochs%Michael.Ochs@usap.com%1,                         Jennifer%Hanna%hannaj21@hotmail.com%1,                         Julie E.%Mangino%Jemangino1@gmail.com%1,                         Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                         Hongqing%Xi%NULL%1,                         Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%0,     Julia%Savchenko%xref no email%0,     Thomas%Brune%xref no email%0,     Hampus%Josefsson%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                         Shuai%Zhao%NULL%2,                         Linlin%Han%NULL%1,                         Qi%Wang%NULL%1,                         Haifa%Xia%NULL%1,                         Xin%Huang%NULL%1,                         Shanglong%Yao%NULL%2,                         Jiapeng%Huang%NULL%2,                         Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                         Jihyang%Lee%NULL%2,                         Jihyang%Lee%NULL%0,                         Eunju%Kim%NULL%2,                         Eunju%Kim%NULL%0,                         Kyeongyoon%Woo%NULL%2,                         Kyeongyoon%Woo%NULL%0,                         Hak Youle%Park%NULL%2,                         Hak Youle%Park%NULL%0,                         Jihyun%An%NULL%2,                         Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                         Ruihong%Zhao%NULL%2,                         Shufa%Zheng%NULL%1,                         Xu%Chen%NULL%0,                         Jinxi%Wang%NULL%1,                         Xiaoli%Sheng%NULL%1,                         Jianying%Zhou%NULL%1,                         Hongliu%Cai%NULL%1,                         Qiang%Fang%NULL%0,                         Fei%Yu%NULL%1,                         Jian%Fan%NULL%1,                         Kaijin%Xu%NULL%1,                         Yu%Chen%NULL%2,                         Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                         Lin%Sang%NULL%1,                         Shihua%Du%NULL%1,                         Tao%Li%NULL%0,                         Yange%Chang%NULL%1,                         Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                         Abdulrahman%Odeh%NULL%1,                         Simon%Ereidge%NULL%1,                         Hosni Khairy%Salem%NULL%1,                         Gareth P%Jones%NULL%1,                         Anne%Gardner%NULL%1,                         Shiva S%Tripathi%NULL%1,                         Anne%Gregg%NULL%1,                         Reuben%Jeganathan%NULL%1,                         Muhammad Harris%Siddique%NULL%1,                         Celestino P%Lombardi%NULL%1,                         Benjamin%Martin%NULL%1,                         Cosimo Alex%Leo%NULL%1,                         Debashis%Dass%NULL%1,                         Gregorio%Di Franco%NULL%1,                         Long R%Jiao%NULL%1,                         Giulio Maria%Mari%NULL%1,                         Luis-Cristobal%Capitan-Morales%NULL%1,                         Tara M%Connelly%NULL%1,                         Ammar%Alanbuki%NULL%1,                         Armando%De Virgilio%NULL%1,                         Clare%Schilling%NULL%1,                         Carlos%San Miguel Mendez%NULL%1,                         Gauri%Kulkarni%NULL%1,                         Kulsoom%Nizami%NULL%1,                         Stewart%Walsh%NULL%1,                         Harry%Dean%NULL%1,                         Miguel%Ruiz-Marin%NULL%1,                         Rory%Houston%NULL%1,                         Mario%Trompetto%NULL%1,                         David%Chrastek%NULL%1,                         Vasileios%Kouritas%NULL%1,                         Maria%Cannoletta%NULL%1,                         Francesco%Rosato%NULL%1,                         Manish V%Kaushal%NULL%1,                         Paulo Matos%Costa%NULL%1,                         Hannah H%Elkadi%NULL%1,                         Jack R%Johnstone%NULL%1,                         Esmee%Irvine%NULL%1,                         Maria R%Alvarez%NULL%1,                         Carlo%Corbellini%NULL%1,                         Gowtham S%Venkatesan%NULL%1,                         Olga%Mateo-Sierra%NULL%1,                         Carolina%Martínez-Pérez%NULL%1,                         Javier%Serrano González%NULL%1,                         Miguel Õngel%Hernández Bartolomé%NULL%1,                         David%Díaz Pérez%NULL%1,                         María%Gutiérrez Samaniego%NULL%1,                         Pablo%Galindo Jara%NULL%1,                         Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                         Guoting%Xu%NULL%1,                         Yong%Yang%NULL%1,                         Yuan%Tao%NULL%1,                         May%Pian-Smith%NULL%1,                         Vandana%Madhavan%NULL%1,                         Zhongcong%Xie%zxie@mgh.harvard.edu%1,                         Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                         Zhiqiang%Zhou%NULL%2,                         Jianping%Zhang%NULL%2,                         Fengfeng%Zhu%NULL%2,                         Yongyan%Tang%NULL%2,                         Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                         Shuai%Zhao%NULL%0,                         Zhouyang%Wu%NULL%1,                         Huilin%Luo%NULL%1,                         Cheng%Zhou%NULL%1,                         Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                         Xue-Jie%Yu%NULL%1,                         Tao%Fu%NULL%1,                         Yu%Liu%NULL%2,                         Yu%Liu%NULL%0,                         Yan%Jiang%NULL%1,                         Bing Xiang%Yang%NULL%1,                         Yongyi%Bi%NULL%2,                         Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                         Ken%Ling%NULL%1,                         Hong%Yan%NULL%1,                         Liang%Zhong%NULL%1,                         Xiaohong%Peng%NULL%1,                         Shanglong%Yao%NULL%0,                         Jiapeng%Huang%NULL%0,                         Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                         Yin Y.%Liu%NULL%1,                         Qiong%Luo%NULL%1,                         Yu F.%Zou%NULL%1,                         Hai X.%Jiang%NULL%1,                         Hui%Li%NULL%0,                         Jing J.%Zhang%NULL%1,                         Zhen%Li%NULL%0,                         Xin%Yang%NULL%1,                         Min%Ma%NULL%1,                         Li J.%Tang%NULL%1,                         Ying Y.%Chen%chenyingy@whu.edu.cn%1,                         Feng%Zheng%fengzheng@whu.edu.cn%1,                         Jian J.%Ke%1219628972@qq.com%1,                         Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                        Bonardelli%S.%coreGivesNoEmail%1,                        Calza%S.%coreGivesNoEmail%1,                        Casiraghi%A.%coreGivesNoEmail%1,                        Castelli%F.%coreGivesNoEmail%1,                        Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                        Domenicucci%M.%coreGivesNoEmail%1,                        Fontanella%M. M.%coreGivesNoEmail%1,                        Gheza%F.%coreGivesNoEmail%1,                        Lussardi%G. L.%coreGivesNoEmail%1,                        Maroldi%R.%coreGivesNoEmail%1,                        Milano%G.%coreGivesNoEmail%1,                        Panciani%P. P.%coreGivesNoEmail%1,                        Portolani%N.%coreGivesNoEmail%1,                        Rasulo%F. A.%coreGivesNoEmail%1,                        Saraceno%G.%coreGivesNoEmail%1,                        Signorini%L.%coreGivesNoEmail%1,                        Vecchiarelli%L.%coreGivesNoEmail%1,                        Vezzoli%M.%coreGivesNoEmail%1,                        Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -2322,6 +2649,9 @@
       <c r="I1" t="s">
         <v>144</v>
       </c>
+      <c r="J1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2337,7 +2667,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>552</v>
+        <v>666</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -2350,6 +2680,9 @@
       </c>
       <c r="I2" t="s">
         <v>523</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -2366,7 +2699,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>553</v>
+        <v>667</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2379,6 +2712,9 @@
       </c>
       <c r="I3" t="s">
         <v>523</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -2395,7 +2731,7 @@
         <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>554</v>
+        <v>668</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2408,6 +2744,9 @@
       </c>
       <c r="I4" t="s">
         <v>526</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -2424,7 +2763,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>555</v>
+        <v>355</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2433,10 +2772,13 @@
         <v>248</v>
       </c>
       <c r="H5" t="s">
-        <v>249</v>
+        <v>582</v>
       </c>
       <c r="I5" t="s">
-        <v>528</v>
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="6">
@@ -2453,7 +2795,7 @@
         <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>556</v>
+        <v>669</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2466,6 +2808,9 @@
       </c>
       <c r="I6" t="s">
         <v>526</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -2482,7 +2827,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>557</v>
+        <v>670</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -2495,6 +2840,9 @@
       </c>
       <c r="I7" t="s">
         <v>523</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -2511,7 +2859,7 @@
         <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>558</v>
+        <v>671</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -2524,6 +2872,9 @@
       </c>
       <c r="I8" t="s">
         <v>526</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -2538,7 +2889,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>559</v>
+        <v>672</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -2551,6 +2902,9 @@
       </c>
       <c r="I9" t="s">
         <v>523</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -2567,7 +2921,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>560</v>
+        <v>673</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2580,6 +2934,9 @@
       </c>
       <c r="I10" t="s">
         <v>71</v>
+      </c>
+      <c r="J10" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="11">
@@ -2596,7 +2953,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>561</v>
+        <v>674</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -2609,6 +2966,9 @@
       </c>
       <c r="I11" t="s">
         <v>536</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -2625,7 +2985,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>562</v>
+        <v>675</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2638,6 +2998,9 @@
       </c>
       <c r="I12" t="s">
         <v>523</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -2654,7 +3017,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>563</v>
+        <v>676</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -2667,6 +3030,9 @@
       </c>
       <c r="I13" t="s">
         <v>523</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -2683,7 +3049,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>564</v>
+        <v>677</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2696,6 +3062,9 @@
       </c>
       <c r="I14" t="s">
         <v>523</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -2712,7 +3081,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>565</v>
+        <v>366</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2724,7 +3093,10 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>528</v>
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="16">
@@ -2741,7 +3113,7 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>566</v>
+        <v>367</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2753,7 +3125,10 @@
         <v>264</v>
       </c>
       <c r="I16" t="s">
-        <v>528</v>
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="17">
@@ -2770,7 +3145,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>567</v>
+        <v>678</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2783,6 +3158,9 @@
       </c>
       <c r="I17" t="s">
         <v>536</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -2799,7 +3177,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>568</v>
+        <v>369</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2811,7 +3189,10 @@
         <v>268</v>
       </c>
       <c r="I18" t="s">
-        <v>528</v>
+        <v>71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="19">
@@ -2828,7 +3209,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>569</v>
+        <v>679</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -2841,6 +3222,9 @@
       </c>
       <c r="I19" t="s">
         <v>536</v>
+      </c>
+      <c r="J19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -2857,7 +3241,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>570</v>
+        <v>680</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2870,6 +3254,9 @@
       </c>
       <c r="I20" t="s">
         <v>523</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -2886,7 +3273,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>571</v>
+        <v>681</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -2899,6 +3286,9 @@
       </c>
       <c r="I21" t="s">
         <v>536</v>
+      </c>
+      <c r="J21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -2915,7 +3305,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>572</v>
+        <v>373</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2927,7 +3317,10 @@
         <v>274</v>
       </c>
       <c r="I22" t="s">
-        <v>528</v>
+        <v>71</v>
+      </c>
+      <c r="J22" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="23">
@@ -2944,7 +3337,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>573</v>
+        <v>682</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2957,6 +3350,9 @@
       </c>
       <c r="I23" t="s">
         <v>523</v>
+      </c>
+      <c r="J23" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -2973,7 +3369,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>574</v>
+        <v>683</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -2986,6 +3382,9 @@
       </c>
       <c r="I24" t="s">
         <v>536</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -3002,7 +3401,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>575</v>
+        <v>684</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -3015,6 +3414,9 @@
       </c>
       <c r="I25" t="s">
         <v>536</v>
+      </c>
+      <c r="J25" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -3045,6 +3447,9 @@
       <c r="I26" t="s">
         <v>71</v>
       </c>
+      <c r="J26" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -3060,7 +3465,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -3073,6 +3478,9 @@
       </c>
       <c r="I27" t="s">
         <v>528</v>
+      </c>
+      <c r="J27" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/56.xlsx
+++ b/Covid_19_Dataset_and_References/References/56.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5050" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5482" uniqueCount="733">
   <si>
     <t>Doi</t>
   </si>
@@ -2301,6 +2301,158 @@
   </si>
   <si>
     <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                        Bonardelli%S.%coreGivesNoEmail%1,                        Calza%S.%coreGivesNoEmail%1,                        Casiraghi%A.%coreGivesNoEmail%1,                        Castelli%F.%coreGivesNoEmail%1,                        Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                        Domenicucci%M.%coreGivesNoEmail%1,                        Fontanella%M. M.%coreGivesNoEmail%1,                        Gheza%F.%coreGivesNoEmail%1,                        Lussardi%G. L.%coreGivesNoEmail%1,                        Maroldi%R.%coreGivesNoEmail%1,                        Milano%G.%coreGivesNoEmail%1,                        Panciani%P. P.%coreGivesNoEmail%1,                        Portolani%N.%coreGivesNoEmail%1,                        Rasulo%F. A.%coreGivesNoEmail%1,                        Saraceno%G.%coreGivesNoEmail%1,                        Signorini%L.%coreGivesNoEmail%1,                        Vecchiarelli%L.%coreGivesNoEmail%1,                        Vezzoli%M.%coreGivesNoEmail%1,                        Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                          Tania%Paredes%NULL%2,                          Tania%Paredes%NULL%0,                          David%Caceres%NULL%1,                          Camille M.%Webb%NULL%1,                          Luis M.%Valdez%NULL%1,                          Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                          Andrea%Coscione%NULL%1,                          Riccardo%D’Ambrosi%NULL%1,                          Luca%Usai%NULL%1,                          Claudio%Roscitano%NULL%1,                          Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                          Yuan%Zhang%NULL%1,                          Lei%Huang%NULL%0,                          Bi-heng%Cheng%NULL%1,                          Zhong-yuan%Xia%NULL%1,                          Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                          Long%Wang%NULL%1,                          Gang%Wu%NULL%1,                          Xiaoming%Lei%NULL%1,                          Wei%Li%NULL%0,                          Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                          L%Frigerio%NULL%1,                          V%Savasi%NULL%1,                          P%Vergani%NULL%1,                          F%Prefumo%NULL%1,                          S%Barresi%NULL%2,                          S%Barresi%NULL%0,                          S%Bianchi%NULL%1,                          E%Ciriello%NULL%1,                          F%Facchinetti%NULL%1,                          MT%Gervasi%NULL%1,                          E%Iurlaro%NULL%1,                          A%Kustermann%NULL%1,                          G%Mangili%NULL%1,                          F%Mosca%NULL%1,                          L%Patanè%NULL%1,                          D%Spazzini%NULL%1,                          A%Spinillo%NULL%1,                          G%Trojano%NULL%1,                          M%Vignali%NULL%1,                          A%Villa%NULL%1,                          GV%Zuccotti%NULL%1,                          F%Parazzini%Fabio.parazzini@unimi.it%1,                          I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                          Matthew%Libby%mnlibby@gmail.com%1,                          Michael%Ochs%Michael.Ochs@usap.com%1,                          Jennifer%Hanna%hannaj21@hotmail.com%1,                          Julie E.%Mangino%Jemangino1@gmail.com%1,                          Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                          Hongqing%Xi%NULL%1,                          Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%0,      Julia%Savchenko%xref no email%0,      Thomas%Brune%xref no email%0,      Hampus%Josefsson%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                          Shuai%Zhao%NULL%2,                          Linlin%Han%NULL%1,                          Qi%Wang%NULL%1,                          Haifa%Xia%NULL%1,                          Xin%Huang%NULL%1,                          Shanglong%Yao%NULL%2,                          Jiapeng%Huang%NULL%2,                          Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                          Jihyang%Lee%NULL%2,                          Jihyang%Lee%NULL%0,                          Eunju%Kim%NULL%2,                          Eunju%Kim%NULL%0,                          Kyeongyoon%Woo%NULL%2,                          Kyeongyoon%Woo%NULL%0,                          Hak Youle%Park%NULL%2,                          Hak Youle%Park%NULL%0,                          Jihyun%An%NULL%2,                          Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                          Ruihong%Zhao%NULL%2,                          Shufa%Zheng%NULL%1,                          Xu%Chen%NULL%0,                          Jinxi%Wang%NULL%1,                          Xiaoli%Sheng%NULL%1,                          Jianying%Zhou%NULL%1,                          Hongliu%Cai%NULL%1,                          Qiang%Fang%NULL%0,                          Fei%Yu%NULL%1,                          Jian%Fan%NULL%1,                          Kaijin%Xu%NULL%1,                          Yu%Chen%NULL%2,                          Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                          Lin%Sang%NULL%1,                          Shihua%Du%NULL%1,                          Tao%Li%NULL%0,                          Yange%Chang%NULL%1,                          Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                          Abdulrahman%Odeh%NULL%1,                          Simon%Ereidge%NULL%1,                          Hosni Khairy%Salem%NULL%1,                          Gareth P%Jones%NULL%1,                          Anne%Gardner%NULL%1,                          Shiva S%Tripathi%NULL%1,                          Anne%Gregg%NULL%1,                          Reuben%Jeganathan%NULL%1,                          Muhammad Harris%Siddique%NULL%1,                          Celestino P%Lombardi%NULL%1,                          Benjamin%Martin%NULL%1,                          Cosimo Alex%Leo%NULL%1,                          Debashis%Dass%NULL%1,                          Gregorio%Di Franco%NULL%1,                          Long R%Jiao%NULL%1,                          Giulio Maria%Mari%NULL%1,                          Luis-Cristobal%Capitan-Morales%NULL%1,                          Tara M%Connelly%NULL%1,                          Ammar%Alanbuki%NULL%1,                          Armando%De Virgilio%NULL%1,                          Clare%Schilling%NULL%1,                          Carlos%San Miguel Mendez%NULL%1,                          Gauri%Kulkarni%NULL%1,                          Kulsoom%Nizami%NULL%1,                          Stewart%Walsh%NULL%1,                          Harry%Dean%NULL%1,                          Miguel%Ruiz-Marin%NULL%1,                          Rory%Houston%NULL%1,                          Mario%Trompetto%NULL%1,                          David%Chrastek%NULL%1,                          Vasileios%Kouritas%NULL%1,                          Maria%Cannoletta%NULL%1,                          Francesco%Rosato%NULL%1,                          Manish V%Kaushal%NULL%1,                          Paulo Matos%Costa%NULL%1,                          Hannah H%Elkadi%NULL%1,                          Jack R%Johnstone%NULL%1,                          Esmee%Irvine%NULL%1,                          Maria R%Alvarez%NULL%1,                          Carlo%Corbellini%NULL%1,                          Gowtham S%Venkatesan%NULL%1,                          Olga%Mateo-Sierra%NULL%1,                          Carolina%Martínez-Pérez%NULL%1,                          Javier%Serrano González%NULL%1,                          Miguel Õngel%Hernández Bartolomé%NULL%1,                          David%Díaz Pérez%NULL%1,                          María%Gutiérrez Samaniego%NULL%1,                          Pablo%Galindo Jara%NULL%1,                          Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                          Guoting%Xu%NULL%1,                          Yong%Yang%NULL%1,                          Yuan%Tao%NULL%1,                          May%Pian-Smith%NULL%1,                          Vandana%Madhavan%NULL%1,                          Zhongcong%Xie%zxie@mgh.harvard.edu%1,                          Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                          Zhiqiang%Zhou%NULL%2,                          Jianping%Zhang%NULL%2,                          Fengfeng%Zhu%NULL%2,                          Yongyan%Tang%NULL%2,                          Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                          Shuai%Zhao%NULL%0,                          Zhouyang%Wu%NULL%1,                          Huilin%Luo%NULL%1,                          Cheng%Zhou%NULL%1,                          Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                          Xue-Jie%Yu%NULL%1,                          Tao%Fu%NULL%1,                          Yu%Liu%NULL%2,                          Yu%Liu%NULL%0,                          Yan%Jiang%NULL%1,                          Bing Xiang%Yang%NULL%1,                          Yongyi%Bi%NULL%2,                          Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                          Ken%Ling%NULL%1,                          Hong%Yan%NULL%1,                          Liang%Zhong%NULL%1,                          Xiaohong%Peng%NULL%1,                          Shanglong%Yao%NULL%0,                          Jiapeng%Huang%NULL%0,                          Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                          Yin Y.%Liu%NULL%1,                          Qiong%Luo%NULL%1,                          Yu F.%Zou%NULL%1,                          Hai X.%Jiang%NULL%1,                          Hui%Li%NULL%0,                          Jing J.%Zhang%NULL%1,                          Zhen%Li%NULL%0,                          Xin%Yang%NULL%1,                          Min%Ma%NULL%1,                          Li J.%Tang%NULL%1,                          Ying Y.%Chen%chenyingy@whu.edu.cn%1,                          Feng%Zheng%fengzheng@whu.edu.cn%1,                          Jian J.%Ke%1219628972@qq.com%1,                          Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Management of Spine Trauma in COVID-19 Pandemic: A Preliminary Report.</t>
+  </si>
+  <si>
+    <t>Background COVID-19 was first identified in Iran in February 2020 and since then it spread rapidly through all over the country and soon after that it was reported as a pandemic. The current study presents a preliminary report of spine trauma management during COVID-19 pandemic. Methods A cross sectional study was designed to evaluate patients admitted for vertebral fractures with diagnosis of COVID-19 infection on February and March 2020. Analysis was made based on clinical and laboratory data along with the imaging findings from chest HRCT. Results Seven patients with spine trauma including five males and two females ranging from 14 to 59 years were diagnosed for COVID-19 infection through CT-scan findings. Except one, all other patients were asymptomatic for COVID-19 at the time of admission. In three cases the COVID diagnosis was made the day after arrival and in others after 10, 14 and 35 days. Five patients were treated surgically among whom four were admitted to ICU soon after the surgery. The mean ICU stay for operated patients were eight days and the mean hospital stay was 22.6 days. Conclusion Proper diagnosis of COVID-19 is the keystone to protect both patients and health care providers. During the pandemic all admitted patients should be screened for COVID-19 infection. Unnecessary procedures for spine trauma patients should be avoided in order to reduce complications related to surgery and to preserve ICU beds.</t>
+  </si>
+  <si>
+    <t>[ Mohammadreza%Chehrassan%elasticNoEmail%1,  Adel% Ebrahimpour%elasticNoEmail%1,  Hasan% Ghandhari%elasticNoEmail%1,  Morteza% Sanei Taheri%elasticNoEmail%1,  Bahador% Athari%elasticNoEmail%1,  Mehrdad% Sadighi%elasticNoEmail%1,  Meisam% Jafari KafiAbadi%elasticNoEmail%1,  Amin% Karami%elasticNoEmail%1,  Alireza% Zali%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                         Bonardelli%S.%coreGivesNoEmail%1,                         Calza%S.%coreGivesNoEmail%1,                         Casiraghi%A.%coreGivesNoEmail%1,                         Castelli%F.%coreGivesNoEmail%1,                         Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                         Domenicucci%M.%coreGivesNoEmail%1,                         Fontanella%M. M.%coreGivesNoEmail%1,                         Gheza%F.%coreGivesNoEmail%1,                         Lussardi%G. L.%coreGivesNoEmail%1,                         Maroldi%R.%coreGivesNoEmail%1,                         Milano%G.%coreGivesNoEmail%1,                         Panciani%P. P.%coreGivesNoEmail%1,                         Portolani%N.%coreGivesNoEmail%1,                         Rasulo%F. A.%coreGivesNoEmail%1,                         Saraceno%G.%coreGivesNoEmail%1,                         Signorini%L.%coreGivesNoEmail%1,                         Vecchiarelli%L.%coreGivesNoEmail%1,                         Vezzoli%M.%coreGivesNoEmail%1,                         Zanin%L.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                           Tania%Paredes%NULL%2,                           Tania%Paredes%NULL%0,                           David%Caceres%NULL%1,                           Camille M.%Webb%NULL%1,                           Luis M.%Valdez%NULL%1,                           Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Catellani%NULL%1,                           Andrea%Coscione%NULL%1,                           Riccardo%D’Ambrosi%NULL%1,                           Luca%Usai%NULL%1,                           Claudio%Roscitano%NULL%1,                           Gennaro%Fiorentino%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0,                           Yuan%Zhang%NULL%1,                           Lei%Huang%NULL%0,                           Bi-heng%Cheng%NULL%1,                           Zhong-yuan%Xia%NULL%1,                           Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Du%NULL%1,                           Long%Wang%NULL%1,                           Gang%Wu%NULL%1,                           Xiaoming%Lei%NULL%1,                           Wei%Li%NULL%0,                           Jianrui%Lv%lvjianrui@163.com%1]</t>
+  </si>
+  <si>
+    <t>[E%Ferrazzi%NULL%1,                           L%Frigerio%NULL%1,                           V%Savasi%NULL%1,                           P%Vergani%NULL%1,                           F%Prefumo%NULL%1,                           S%Barresi%NULL%2,                           S%Barresi%NULL%0,                           S%Bianchi%NULL%1,                           E%Ciriello%NULL%1,                           F%Facchinetti%NULL%1,                           MT%Gervasi%NULL%1,                           E%Iurlaro%NULL%1,                           A%Kustermann%NULL%1,                           G%Mangili%NULL%1,                           F%Mosca%NULL%1,                           L%Patanè%NULL%1,                           D%Spazzini%NULL%1,                           A%Spinillo%NULL%1,                           G%Trojano%NULL%1,                           M%Vignali%NULL%1,                           A%Villa%NULL%1,                           GV%Zuccotti%NULL%1,                           F%Parazzini%Fabio.parazzini@unimi.it%1,                           I%Cetin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Firstenberg%msfirst@gmail.com%1,                           Matthew%Libby%mnlibby@gmail.com%1,                           Michael%Ochs%Michael.Ochs@usap.com%1,                           Jennifer%Hanna%hannaj21@hotmail.com%1,                           Julie E.%Mangino%Jemangino1@gmail.com%1,                           Joseph%Forrester%Joe.Forrester@ccpcmd.com%1]</t>
+  </si>
+  <si>
+    <t>[Yunhe%Gao%NULL%1,                           Hongqing%Xi%NULL%1,                           Lin%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%0,       Julia%Savchenko%xref no email%0,       Thomas%Brune%xref no email%0,       Hampus%Josefsson%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hao%He%NULL%1,                           Shuai%Zhao%NULL%2,                           Linlin%Han%NULL%1,                           Qi%Wang%NULL%1,                           Haifa%Xia%NULL%1,                           Xin%Huang%NULL%1,                           Shanglong%Yao%NULL%2,                           Jiapeng%Huang%NULL%2,                           Xiangdong%Chen%xiangdongchen2013@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                           Jihyang%Lee%NULL%2,                           Jihyang%Lee%NULL%0,                           Eunju%Kim%NULL%2,                           Eunju%Kim%NULL%0,                           Kyeongyoon%Woo%NULL%2,                           Kyeongyoon%Woo%NULL%0,                           Hak Youle%Park%NULL%2,                           Hak Youle%Park%NULL%0,                           Jihyun%An%NULL%2,                           Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                           Ruihong%Zhao%NULL%2,                           Shufa%Zheng%NULL%1,                           Xu%Chen%NULL%0,                           Jinxi%Wang%NULL%1,                           Xiaoli%Sheng%NULL%1,                           Jianying%Zhou%NULL%1,                           Hongliu%Cai%NULL%1,                           Qiang%Fang%NULL%0,                           Fei%Yu%NULL%1,                           Jian%Fan%NULL%1,                           Kaijin%Xu%NULL%1,                           Yu%Chen%NULL%2,                           Jifang%Sheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0,                           Lin%Sang%NULL%1,                           Shihua%Du%NULL%1,                           Tao%Li%NULL%0,                           Yange%Chang%NULL%1,                           Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[James E%Archer%NULL%1,                           Abdulrahman%Odeh%NULL%1,                           Simon%Ereidge%NULL%1,                           Hosni Khairy%Salem%NULL%1,                           Gareth P%Jones%NULL%1,                           Anne%Gardner%NULL%1,                           Shiva S%Tripathi%NULL%1,                           Anne%Gregg%NULL%1,                           Reuben%Jeganathan%NULL%1,                           Muhammad Harris%Siddique%NULL%1,                           Celestino P%Lombardi%NULL%1,                           Benjamin%Martin%NULL%1,                           Cosimo Alex%Leo%NULL%1,                           Debashis%Dass%NULL%1,                           Gregorio%Di Franco%NULL%1,                           Long R%Jiao%NULL%1,                           Giulio Maria%Mari%NULL%1,                           Luis-Cristobal%Capitan-Morales%NULL%1,                           Tara M%Connelly%NULL%1,                           Ammar%Alanbuki%NULL%1,                           Armando%De Virgilio%NULL%1,                           Clare%Schilling%NULL%1,                           Carlos%San Miguel Mendez%NULL%1,                           Gauri%Kulkarni%NULL%1,                           Kulsoom%Nizami%NULL%1,                           Stewart%Walsh%NULL%1,                           Harry%Dean%NULL%1,                           Miguel%Ruiz-Marin%NULL%1,                           Rory%Houston%NULL%1,                           Mario%Trompetto%NULL%1,                           David%Chrastek%NULL%1,                           Vasileios%Kouritas%NULL%1,                           Maria%Cannoletta%NULL%1,                           Francesco%Rosato%NULL%1,                           Manish V%Kaushal%NULL%1,                           Paulo Matos%Costa%NULL%1,                           Hannah H%Elkadi%NULL%1,                           Jack R%Johnstone%NULL%1,                           Esmee%Irvine%NULL%1,                           Maria R%Alvarez%NULL%1,                           Carlo%Corbellini%NULL%1,                           Gowtham S%Venkatesan%NULL%1,                           Olga%Mateo-Sierra%NULL%1,                           Carolina%Martínez-Pérez%NULL%1,                           Javier%Serrano González%NULL%1,                           Miguel Õngel%Hernández Bartolomé%NULL%1,                           David%Díaz Pérez%NULL%1,                           María%Gutiérrez Samaniego%NULL%1,                           Pablo%Galindo Jara%NULL%1,                           Neil%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mingyang%Sun%NULL%1,                           Guoting%Xu%NULL%1,                           Yong%Yang%NULL%1,                           Yuan%Tao%NULL%1,                           May%Pian-Smith%NULL%1,                           Vandana%Madhavan%NULL%1,                           Zhongcong%Xie%zxie@mgh.harvard.edu%1,                           Jiaqiang%Zhang%jqzhang@henu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0,                           Zhiqiang%Zhou%NULL%2,                           Jianping%Zhang%NULL%2,                           Fengfeng%Zhu%NULL%2,                           Yongyan%Tang%NULL%2,                           Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Haifa%Xia%NULL%1,                           Shuai%Zhao%NULL%0,                           Zhouyang%Wu%NULL%1,                           Huilin%Luo%NULL%1,                           Cheng%Zhou%NULL%1,                           Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhi-Jiang%Zhang%NULL%1,                           Xue-Jie%Yu%NULL%1,                           Tao%Fu%NULL%1,                           Yu%Liu%NULL%2,                           Yu%Liu%NULL%0,                           Yan%Jiang%NULL%1,                           Bing Xiang%Yang%NULL%1,                           Yongyi%Bi%NULL%2,                           Yongyi%Bi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhao%NULL%1,                           Ken%Ling%NULL%1,                           Hong%Yan%NULL%1,                           Liang%Zhong%NULL%1,                           Xiaohong%Peng%NULL%1,                           Shanglong%Yao%NULL%0,                           Jiapeng%Huang%NULL%0,                           Xiangdong%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qi%Zhong%NULL%1,                           Yin Y.%Liu%NULL%1,                           Qiong%Luo%NULL%1,                           Yu F.%Zou%NULL%1,                           Hai X.%Jiang%NULL%1,                           Hui%Li%NULL%0,                           Jing J.%Zhang%NULL%1,                           Zhen%Li%NULL%0,                           Xin%Yang%NULL%1,                           Min%Ma%NULL%1,                           Li J.%Tang%NULL%1,                           Ying Y.%Chen%chenyingy@whu.edu.cn%1,                           Feng%Zheng%fengzheng@whu.edu.cn%1,                           Jian J.%Ke%1219628972@qq.com%1,                           Zong Z.%Zhang%zhangzz@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background COVID-19 was first identified in Iran in February 2020 and since then it spread rapidly through all over the country and soon after that it was reported as a pandemic.
+ The current study presents a preliminary report of spine trauma management during COVID-19 pandemic.
+ Methods A cross sectional study was designed to evaluate patients admitted for vertebral fractures with diagnosis of COVID-19 infection on February and March 2020. Analysis was made based on clinical and laboratory data along with the imaging findings from chest HRCT.
+ Results Seven patients with spine trauma including five males and two females ranging from 14 to 59 years were diagnosed for COVID-19 infection through CT-scan findings.
+ Except one, all other patients were asymptomatic for COVID-19 at the time of admission.
+ In three cases the COVID diagnosis was made the day after arrival and in others after 10, 14 and 35 days.
+ Five patients were treated surgically among whom four were admitted to ICU soon after the surgery.
+ The mean ICU stay for operated patients were eight days and the mean hospital stay was 22.6 days.
+ Conclusion Proper diagnosis of COVID-19 is the keystone to protect both patients and health care providers.
+ During the pandemic all admitted patients should be screened for COVID-19 infection.
+ Unnecessary procedures for spine trauma patients should be avoided in order to reduce complications related to surgery and to preserve ICU beds.
+</t>
+  </si>
+  <si>
+    <t>[ Mohammadreza%Chehrassan%elasticNoEmail%1,   Adel% Ebrahimpour%elasticNoEmail%1,   Hasan% Ghandhari%elasticNoEmail%1,   Morteza% Sanei Taheri%elasticNoEmail%1,   Bahador% Athari%elasticNoEmail%1,   Mehrdad% Sadighi%elasticNoEmail%1,   Meisam% Jafari KafiAbadi%elasticNoEmail%1,   Amin% Karami%elasticNoEmail%1,   Alireza% Zali%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Benvenuti%M. R.%coreGivesNoEmail%1,                          Bonardelli%S.%coreGivesNoEmail%1,                          Calza%S.%coreGivesNoEmail%1,                          Casiraghi%A.%coreGivesNoEmail%1,                          Castelli%F.%coreGivesNoEmail%1,                          Doglietto%F. (ORCID:0000-0002-7438-0734)%coreGivesNoEmail%1,                          Domenicucci%M.%coreGivesNoEmail%1,                          Fontanella%M. M.%coreGivesNoEmail%1,                          Gheza%F.%coreGivesNoEmail%1,                          Lussardi%G. L.%coreGivesNoEmail%1,                          Maroldi%R.%coreGivesNoEmail%1,                          Milano%G.%coreGivesNoEmail%1,                          Panciani%P. P.%coreGivesNoEmail%1,                          Portolani%N.%coreGivesNoEmail%1,                          Rasulo%F. A.%coreGivesNoEmail%1,                          Saraceno%G.%coreGivesNoEmail%1,                          Signorini%L.%coreGivesNoEmail%1,                          Vecchiarelli%L.%coreGivesNoEmail%1,                          Vezzoli%M.%coreGivesNoEmail%1,                          Zanin%L.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -2667,7 +2819,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>666</v>
+        <v>711</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -2699,7 +2851,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>667</v>
+        <v>712</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2731,7 +2883,7 @@
         <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>668</v>
+        <v>713</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2763,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2795,7 +2947,7 @@
         <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2827,7 +2979,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>670</v>
+        <v>715</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -2859,7 +3011,7 @@
         <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>671</v>
+        <v>716</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -2889,7 +3041,7 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -2921,7 +3073,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>673</v>
+        <v>718</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2953,7 +3105,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>674</v>
+        <v>719</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -2985,7 +3137,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>675</v>
+        <v>720</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -3017,7 +3169,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>676</v>
+        <v>721</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -3049,7 +3201,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -3081,7 +3233,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -3113,7 +3265,7 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -3145,7 +3297,7 @@
         <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>678</v>
+        <v>723</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -3177,7 +3329,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3209,7 +3361,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>679</v>
+        <v>724</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -3241,7 +3393,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>680</v>
+        <v>725</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -3273,7 +3425,7 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>681</v>
+        <v>726</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -3305,7 +3457,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3337,7 +3489,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>682</v>
+        <v>727</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -3369,7 +3521,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -3401,7 +3553,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="F25" t="s">
         <v>119</v>
@@ -3427,22 +3579,22 @@
         <v>43922.0</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>705</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>730</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>731</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>708</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>709</v>
       </c>
       <c r="I26" t="s">
         <v>71</v>
@@ -3465,7 +3617,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>685</v>
+        <v>732</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
